--- a/server/src/static/sudanexample.xlsx
+++ b/server/src/static/sudanexample.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="21240" windowHeight="13300" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="21240" windowHeight="13305" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
     <sheet name="Economics and costs" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -1231,15 +1231,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1453,13 +1453,13 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1469,11 +1469,8 @@
     <xf numFmtId="43" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1484,6 +1481,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1493,6 +1493,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1780,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A29"/>
   <sheetViews>
@@ -1788,130 +1793,129 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.75" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="24"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="24"/>
-    </row>
-    <row r="4" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" ht="65" customHeight="1">
+    <row r="5" spans="1:1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" ht="80" customHeight="1">
+    <row r="13" spans="1:1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="57" customHeight="1">
+    <row r="19" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:A3"/>
   </mergeCells>
@@ -1929,7 +1933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
@@ -1937,17 +1941,17 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="12.75" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -1969,7 +1973,7 @@
         <v>Females 15-49</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -1980,7 +1984,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -1995,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -2010,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -2025,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -2036,12 +2040,12 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2063,7 +2067,7 @@
         <v>Females 15-49</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2074,7 +2078,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -2089,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -2104,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -2119,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -2130,12 +2134,12 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2157,7 +2161,7 @@
         <v>Females 15-49</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2168,7 +2172,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -2181,7 +2185,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -2192,7 +2196,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -2203,7 +2207,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -2214,12 +2218,12 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2241,7 +2245,7 @@
         <v>Females 15-49</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2254,7 +2258,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -2265,7 +2269,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -2278,7 +2282,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -2289,7 +2293,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -2301,7 +2305,6 @@
       <c r="G37" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2313,7 +2316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -2321,17 +2324,17 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="12.75" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2353,7 +2356,7 @@
         <v>Females 15-49</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2364,7 +2367,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -2375,7 +2378,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -2386,7 +2389,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -2397,7 +2400,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -2408,12 +2411,12 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2435,7 +2438,7 @@
         <v>Females 15-49</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2448,7 +2451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -2461,7 +2464,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -2472,7 +2475,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -2483,7 +2486,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -2495,7 +2498,6 @@
       <c r="G17" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2507,23 +2509,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>103</v>
       </c>
@@ -2534,7 +2536,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>156</v>
       </c>
@@ -2548,7 +2550,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>157</v>
       </c>
@@ -2562,7 +2564,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>158</v>
       </c>
@@ -2576,7 +2578,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>159</v>
       </c>
@@ -2590,7 +2592,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>160</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>161</v>
       </c>
@@ -2618,7 +2620,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>162</v>
       </c>
@@ -2632,12 +2634,12 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
         <v>103</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>164</v>
       </c>
@@ -2662,7 +2664,7 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>165</v>
       </c>
@@ -2676,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>44</v>
       </c>
@@ -2690,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -2718,7 +2720,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -2732,12 +2734,12 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
         <v>103</v>
       </c>
@@ -2748,7 +2750,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2762,7 +2764,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>44</v>
       </c>
@@ -2776,7 +2778,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>50</v>
       </c>
@@ -2790,7 +2792,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>51</v>
       </c>
@@ -2804,7 +2806,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>52</v>
       </c>
@@ -2818,12 +2820,12 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
         <v>103</v>
       </c>
@@ -2834,7 +2836,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>54</v>
       </c>
@@ -2848,7 +2850,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>55</v>
       </c>
@@ -2862,7 +2864,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2876,7 +2878,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>57</v>
       </c>
@@ -2890,12 +2892,12 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
         <v>103</v>
       </c>
@@ -2906,7 +2908,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>59</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>60</v>
       </c>
@@ -2934,12 +2936,12 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
         <v>103</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>164</v>
       </c>
@@ -2964,7 +2966,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>165</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>62</v>
       </c>
@@ -2992,7 +2994,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>45</v>
       </c>
@@ -3006,7 +3008,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>46</v>
       </c>
@@ -3020,7 +3022,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>47</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>63</v>
       </c>
@@ -3048,7 +3050,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>64</v>
       </c>
@@ -3062,12 +3064,12 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
         <v>103</v>
       </c>
@@ -3078,7 +3080,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>66</v>
       </c>
@@ -3092,7 +3094,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>67</v>
       </c>
@@ -3106,7 +3108,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>68</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>69</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>70</v>
       </c>
@@ -3148,7 +3150,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>117</v>
       </c>
@@ -3162,7 +3164,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>89</v>
       </c>
@@ -3176,7 +3178,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>88</v>
       </c>
@@ -3190,7 +3192,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>118</v>
       </c>
@@ -3204,12 +3206,12 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C78" s="6" t="s">
         <v>103</v>
       </c>
@@ -3220,7 +3222,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>120</v>
       </c>
@@ -3234,7 +3236,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>121</v>
       </c>
@@ -3248,7 +3250,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>122</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>123</v>
       </c>
@@ -3276,7 +3278,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>124</v>
       </c>
@@ -3290,7 +3292,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
         <v>125</v>
       </c>
@@ -3304,7 +3306,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>126</v>
       </c>
@@ -3319,7 +3321,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3331,7 +3332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AA91"/>
   <sheetViews>
@@ -3339,9 +3340,9 @@
       <selection activeCell="AD82" sqref="AD82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>127</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>107</v>
       </c>
@@ -3489,12 +3490,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C8" s="6">
         <v>2000</v>
       </c>
@@ -3568,7 +3569,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>107</v>
       </c>
@@ -3634,12 +3635,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C14" s="6">
         <v>2000</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>107</v>
       </c>
@@ -3779,12 +3780,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C20" s="6">
         <v>2000</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>107</v>
       </c>
@@ -3890,12 +3891,12 @@
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C26" s="6">
         <v>2000</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>107</v>
       </c>
@@ -4001,12 +4002,12 @@
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C32" s="6">
         <v>2000</v>
       </c>
@@ -4080,7 +4081,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>107</v>
       </c>
@@ -4112,12 +4113,12 @@
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C38" s="6">
         <v>2000</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>107</v>
       </c>
@@ -4223,12 +4224,12 @@
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C44" s="6">
         <v>2000</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>107</v>
       </c>
@@ -4334,12 +4335,12 @@
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C50" s="6">
         <v>2000</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>107</v>
       </c>
@@ -4445,12 +4446,12 @@
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C56" s="6">
         <v>2000</v>
       </c>
@@ -4524,7 +4525,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>107</v>
       </c>
@@ -4556,12 +4557,12 @@
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C62" s="6">
         <v>2000</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>107</v>
       </c>
@@ -4667,12 +4668,12 @@
       <c r="Z63" s="10"/>
       <c r="AA63" s="10"/>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C68" s="6">
         <v>2000</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>107</v>
       </c>
@@ -4778,12 +4779,12 @@
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C74" s="6">
         <v>2000</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>164</v>
       </c>
@@ -4887,17 +4888,17 @@
       <c r="X75" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Y75" s="25">
+      <c r="Y75" s="24">
         <v>0.03</v>
       </c>
-      <c r="Z75" s="25">
+      <c r="Z75" s="24">
         <v>0.02</v>
       </c>
-      <c r="AA75" s="25">
+      <c r="AA75" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>165</v>
       </c>
@@ -4927,17 +4928,17 @@
       <c r="X76" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Y76" s="25">
+      <c r="Y76" s="24">
         <v>0.03</v>
       </c>
-      <c r="Z76" s="25">
+      <c r="Z76" s="24">
         <v>0.02</v>
       </c>
-      <c r="AA76" s="25">
+      <c r="AA76" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
         <v>62</v>
       </c>
@@ -4967,17 +4968,17 @@
       <c r="X77" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Y77" s="25">
+      <c r="Y77" s="24">
         <v>0.03</v>
       </c>
-      <c r="Z77" s="25">
+      <c r="Z77" s="24">
         <v>0.02</v>
       </c>
-      <c r="AA77" s="25">
+      <c r="AA77" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>45</v>
       </c>
@@ -5007,17 +5008,17 @@
       <c r="X78" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Y78" s="25">
+      <c r="Y78" s="24">
         <v>0.03</v>
       </c>
-      <c r="Z78" s="25">
+      <c r="Z78" s="24">
         <v>0.02</v>
       </c>
-      <c r="AA78" s="25">
+      <c r="AA78" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
         <v>46</v>
       </c>
@@ -5047,17 +5048,17 @@
       <c r="X79" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Y79" s="25">
+      <c r="Y79" s="24">
         <v>0.03</v>
       </c>
-      <c r="Z79" s="25">
+      <c r="Z79" s="24">
         <v>0.02</v>
       </c>
-      <c r="AA79" s="25">
+      <c r="AA79" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>47</v>
       </c>
@@ -5087,32 +5088,32 @@
       <c r="X80" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Y80" s="25">
+      <c r="Y80" s="24">
         <v>0.03</v>
       </c>
-      <c r="Z80" s="25">
+      <c r="Z80" s="24">
         <v>0.02</v>
       </c>
-      <c r="AA80" s="25">
+      <c r="AA80" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
-      <c r="Y81" s="26"/>
-    </row>
-    <row r="82" spans="1:27">
-      <c r="Y82" s="26"/>
-    </row>
-    <row r="83" spans="1:27">
-      <c r="Y83" s="26"/>
-    </row>
-    <row r="84" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y81" s="25"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y82" s="25"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y83" s="25"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Y84" s="26"/>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="Y84" s="25"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C85" s="6">
         <v>2000</v>
       </c>
@@ -5176,17 +5177,17 @@
       <c r="W85" s="6">
         <v>2020</v>
       </c>
-      <c r="Y85" s="27" t="s">
+      <c r="Y85" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="Z85" s="27" t="s">
+      <c r="Z85" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="AA85" s="27" t="s">
+      <c r="AA85" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
         <v>164</v>
       </c>
@@ -5216,17 +5217,17 @@
       <c r="X86" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Y86" s="25">
+      <c r="Y86" s="24">
         <v>0.03</v>
       </c>
-      <c r="Z86" s="25">
+      <c r="Z86" s="24">
         <v>0.02</v>
       </c>
-      <c r="AA86" s="25">
+      <c r="AA86" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
         <v>165</v>
       </c>
@@ -5256,17 +5257,17 @@
       <c r="X87" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Y87" s="25">
+      <c r="Y87" s="24">
         <v>0.03</v>
       </c>
-      <c r="Z87" s="25">
+      <c r="Z87" s="24">
         <v>0.02</v>
       </c>
-      <c r="AA87" s="25">
+      <c r="AA87" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>62</v>
       </c>
@@ -5296,17 +5297,17 @@
       <c r="X88" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Y88" s="25">
+      <c r="Y88" s="24">
         <v>0.03</v>
       </c>
-      <c r="Z88" s="25">
+      <c r="Z88" s="24">
         <v>0.02</v>
       </c>
-      <c r="AA88" s="25">
+      <c r="AA88" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
         <v>45</v>
       </c>
@@ -5336,17 +5337,17 @@
       <c r="X89" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Y89" s="25">
+      <c r="Y89" s="24">
         <v>0.03</v>
       </c>
-      <c r="Z89" s="25">
+      <c r="Z89" s="24">
         <v>0.02</v>
       </c>
-      <c r="AA89" s="25">
+      <c r="AA89" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
         <v>46</v>
       </c>
@@ -5376,17 +5377,17 @@
       <c r="X90" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Y90" s="25">
+      <c r="Y90" s="24">
         <v>0.03</v>
       </c>
-      <c r="Z90" s="25">
+      <c r="Z90" s="24">
         <v>0.02</v>
       </c>
-      <c r="AA90" s="25">
+      <c r="AA90" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>47</v>
       </c>
@@ -5416,18 +5417,17 @@
       <c r="X91" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Y91" s="25">
+      <c r="Y91" s="24">
         <v>0.03</v>
       </c>
-      <c r="Z91" s="25">
+      <c r="Z91" s="24">
         <v>0.02</v>
       </c>
-      <c r="AA91" s="25">
+      <c r="AA91" s="24">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5439,27 +5439,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="40.75" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="9" width="16.75" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -5648,12 +5648,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>1</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>2</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>3</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>4</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>5</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>6</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>7</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>8</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>9</v>
       </c>
@@ -5761,7 +5761,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5773,7 +5772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z28"/>
   <sheetViews>
@@ -5781,17 +5780,17 @@
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="6">
         <v>2000</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$13</f>
         <v>SBCC</v>
@@ -5895,7 +5894,7 @@
       </c>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$13</f>
         <v>SBCC</v>
@@ -5931,7 +5930,7 @@
       </c>
       <c r="Z4" s="10"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>FSW programs</v>
@@ -5967,7 +5966,7 @@
       </c>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>FSW programs</v>
@@ -6003,7 +6002,7 @@
       </c>
       <c r="Z7" s="10"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>MSM programs</v>
@@ -6039,7 +6038,7 @@
       </c>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>MSM programs</v>
@@ -6075,7 +6074,7 @@
       </c>
       <c r="Z10" s="10"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>HTC</v>
@@ -6111,7 +6110,7 @@
       </c>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>HTC</v>
@@ -6147,7 +6146,7 @@
       </c>
       <c r="Z13" s="10"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>ART</v>
@@ -6183,7 +6182,7 @@
       </c>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>ART</v>
@@ -6219,7 +6218,7 @@
       </c>
       <c r="Z16" s="10"/>
     </row>
-    <row r="18" spans="2:26">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>PMTCT</v>
@@ -6255,7 +6254,7 @@
       </c>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>PMTCT</v>
@@ -6291,7 +6290,7 @@
       </c>
       <c r="Z19" s="10"/>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>MGMT</v>
@@ -6325,7 +6324,7 @@
       </c>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="2:26">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>MGMT</v>
@@ -6361,7 +6360,7 @@
       </c>
       <c r="Z22" s="10"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>M&amp;E</v>
@@ -6395,7 +6394,7 @@
       </c>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
         <v>M&amp;E</v>
@@ -6431,7 +6430,7 @@
       </c>
       <c r="Z25" s="10"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="str">
         <f>'Populations &amp; programs'!$C$21</f>
         <v>PLHIV support</v>
@@ -6465,7 +6464,7 @@
       </c>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="str">
         <f>'Populations &amp; programs'!$C$21</f>
         <v>PLHIV support</v>
@@ -6502,7 +6501,6 @@
       <c r="Z28" s="10"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6515,7 +6513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z46"/>
   <sheetViews>
@@ -6523,14 +6521,14 @@
       <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="6">
         <v>2000</v>
       </c>
@@ -6598,7 +6596,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -6632,7 +6630,7 @@
       </c>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -6688,7 +6686,7 @@
       </c>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -6722,7 +6720,7 @@
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -6756,7 +6754,7 @@
       </c>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -6812,7 +6810,7 @@
       </c>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -6846,7 +6844,7 @@
       </c>
       <c r="Z9" s="10"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -6880,7 +6878,7 @@
       </c>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -6936,7 +6934,7 @@
       </c>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -6970,7 +6968,7 @@
       </c>
       <c r="Z13" s="10"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -7004,7 +7002,7 @@
       </c>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -7060,7 +7058,7 @@
       </c>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -7094,7 +7092,7 @@
       </c>
       <c r="Z17" s="10"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -7128,7 +7126,7 @@
       </c>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -7184,7 +7182,7 @@
       </c>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -7218,12 +7216,12 @@
       </c>
       <c r="Z21" s="10"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D27" s="6">
         <v>2000</v>
       </c>
@@ -7291,7 +7289,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -7325,7 +7323,7 @@
       </c>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -7361,7 +7359,7 @@
       </c>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -7395,7 +7393,7 @@
       </c>
       <c r="Z30" s="8"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -7429,7 +7427,7 @@
       </c>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" spans="2:26">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -7465,7 +7463,7 @@
       </c>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34" spans="2:26">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -7499,7 +7497,7 @@
       </c>
       <c r="Z34" s="8"/>
     </row>
-    <row r="36" spans="2:26">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -7533,7 +7531,7 @@
       </c>
       <c r="Z36" s="8"/>
     </row>
-    <row r="37" spans="2:26">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -7569,7 +7567,7 @@
       </c>
       <c r="Z37" s="8"/>
     </row>
-    <row r="38" spans="2:26">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -7603,7 +7601,7 @@
       </c>
       <c r="Z38" s="8"/>
     </row>
-    <row r="40" spans="2:26">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -7637,7 +7635,7 @@
       </c>
       <c r="Z40" s="8"/>
     </row>
-    <row r="41" spans="2:26">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -7677,7 +7675,7 @@
       </c>
       <c r="Z41" s="8"/>
     </row>
-    <row r="42" spans="2:26">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -7711,7 +7709,7 @@
       </c>
       <c r="Z42" s="8"/>
     </row>
-    <row r="44" spans="2:26">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -7745,7 +7743,7 @@
       </c>
       <c r="Z44" s="8"/>
     </row>
-    <row r="45" spans="2:26">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -7785,7 +7783,7 @@
       </c>
       <c r="Z45" s="8"/>
     </row>
-    <row r="46" spans="2:26">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -7820,7 +7818,6 @@
       <c r="Z46" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7833,7 +7830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
@@ -7841,14 +7838,14 @@
       <selection activeCell="C27" sqref="C27:P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -7916,7 +7913,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>107</v>
       </c>
@@ -7960,12 +7957,12 @@
       </c>
       <c r="Y3" s="11"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="6">
         <v>2000</v>
       </c>
@@ -8033,7 +8030,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>107</v>
       </c>
@@ -8065,12 +8062,12 @@
       </c>
       <c r="Y9" s="11"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C14" s="6">
         <v>2000</v>
       </c>
@@ -8138,7 +8135,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>107</v>
       </c>
@@ -8196,12 +8193,12 @@
       </c>
       <c r="Y15" s="11"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C20" s="6">
         <v>2000</v>
       </c>
@@ -8269,7 +8266,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>107</v>
       </c>
@@ -8327,12 +8324,12 @@
       </c>
       <c r="Y21" s="11"/>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C26" s="6">
         <v>2000</v>
       </c>
@@ -8400,7 +8397,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>107</v>
       </c>
@@ -8458,12 +8455,12 @@
       </c>
       <c r="Y27" s="11"/>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C32" s="6">
         <v>2000</v>
       </c>
@@ -8531,7 +8528,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="2:25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>107</v>
       </c>
@@ -8562,7 +8559,6 @@
       <c r="Y33" s="11"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8575,7 +8571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y37"/>
   <sheetViews>
@@ -8583,14 +8579,14 @@
       <selection activeCell="O36" sqref="O36:O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -8658,7 +8654,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -8691,7 +8687,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -8724,7 +8720,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -8757,7 +8753,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -8790,7 +8786,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -8823,12 +8819,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C12" s="6">
         <v>2000</v>
       </c>
@@ -8896,7 +8892,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -8929,7 +8925,7 @@
       </c>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -8962,7 +8958,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -8995,7 +8991,7 @@
       </c>
       <c r="Y15" s="8"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -9028,7 +9024,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -9061,12 +9057,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C22" s="6">
         <v>2000</v>
       </c>
@@ -9134,7 +9130,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -9167,7 +9163,7 @@
       </c>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -9200,7 +9196,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -9233,7 +9229,7 @@
       </c>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -9266,7 +9262,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -9299,12 +9295,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C32" s="6">
         <v>2000</v>
       </c>
@@ -9372,7 +9368,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="2:25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -9406,7 +9402,7 @@
       </c>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" spans="2:25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -9440,7 +9436,7 @@
       </c>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" spans="2:25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -9474,7 +9470,7 @@
       </c>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" spans="2:25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -9508,7 +9504,7 @@
       </c>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="2:25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -9543,7 +9539,6 @@
       <c r="Y37" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9556,22 +9551,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -9639,7 +9634,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -9674,7 +9669,7 @@
       </c>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -9707,7 +9702,7 @@
       </c>
       <c r="Y4" s="12"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -9740,7 +9735,7 @@
       </c>
       <c r="Y5" s="12"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -9773,7 +9768,7 @@
       </c>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -9806,12 +9801,12 @@
       </c>
       <c r="Y7" s="12"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C12" s="6">
         <v>2000</v>
       </c>
@@ -9879,7 +9874,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
@@ -9911,12 +9906,12 @@
       </c>
       <c r="Y13" s="7"/>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C18" s="6">
         <v>2000</v>
       </c>
@@ -9984,7 +9979,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>107</v>
       </c>
@@ -10026,12 +10021,12 @@
       </c>
       <c r="Y19" s="7"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C24" s="6">
         <v>2000</v>
       </c>
@@ -10099,9 +10094,1456 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>107</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7">
+        <v>4</v>
+      </c>
+      <c r="L25" s="7">
+        <v>25</v>
+      </c>
+      <c r="M25" s="7">
+        <v>50</v>
+      </c>
+      <c r="N25" s="7">
+        <v>79</v>
+      </c>
+      <c r="O25" s="7">
+        <v>142</v>
+      </c>
+      <c r="P25" s="7">
+        <v>221</v>
+      </c>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y25" s="7"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C30" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2002</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2003</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2004</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2005</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2006</v>
+      </c>
+      <c r="J30" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K30" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L30" s="6">
+        <v>2009</v>
+      </c>
+      <c r="M30" s="6">
+        <v>2010</v>
+      </c>
+      <c r="N30" s="6">
+        <v>2011</v>
+      </c>
+      <c r="O30" s="6">
+        <v>2012</v>
+      </c>
+      <c r="P30" s="6">
+        <v>2013</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>2014</v>
+      </c>
+      <c r="R30" s="6">
+        <v>2015</v>
+      </c>
+      <c r="S30" s="6">
+        <v>2016</v>
+      </c>
+      <c r="T30" s="6">
+        <v>2017</v>
+      </c>
+      <c r="U30" s="6">
+        <v>2018</v>
+      </c>
+      <c r="V30" s="6">
+        <v>2019</v>
+      </c>
+      <c r="W30" s="6">
+        <v>2020</v>
+      </c>
+      <c r="Y30" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7">
+        <v>200</v>
+      </c>
+      <c r="H31" s="7">
+        <v>200</v>
+      </c>
+      <c r="I31" s="7">
+        <v>200</v>
+      </c>
+      <c r="J31" s="7">
+        <v>200</v>
+      </c>
+      <c r="K31" s="7">
+        <v>200</v>
+      </c>
+      <c r="L31" s="7">
+        <v>200</v>
+      </c>
+      <c r="M31" s="7">
+        <v>200</v>
+      </c>
+      <c r="N31" s="7">
+        <v>350</v>
+      </c>
+      <c r="O31" s="7">
+        <v>350</v>
+      </c>
+      <c r="P31" s="7">
+        <v>350</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>500</v>
+      </c>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y31" s="7"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C36" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E36" s="6">
+        <v>2002</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2003</v>
+      </c>
+      <c r="G36" s="6">
+        <v>2004</v>
+      </c>
+      <c r="H36" s="6">
+        <v>2005</v>
+      </c>
+      <c r="I36" s="6">
+        <v>2006</v>
+      </c>
+      <c r="J36" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K36" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L36" s="6">
+        <v>2009</v>
+      </c>
+      <c r="M36" s="6">
+        <v>2010</v>
+      </c>
+      <c r="N36" s="6">
+        <v>2011</v>
+      </c>
+      <c r="O36" s="6">
+        <v>2012</v>
+      </c>
+      <c r="P36" s="6">
+        <v>2013</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>2014</v>
+      </c>
+      <c r="R36" s="6">
+        <v>2015</v>
+      </c>
+      <c r="S36" s="6">
+        <v>2016</v>
+      </c>
+      <c r="T36" s="6">
+        <v>2017</v>
+      </c>
+      <c r="U36" s="6">
+        <v>2018</v>
+      </c>
+      <c r="V36" s="6">
+        <v>2019</v>
+      </c>
+      <c r="W36" s="6">
+        <v>2020</v>
+      </c>
+      <c r="Y36" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Males 15-49</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Females 15-49</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C46" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E46" s="6">
+        <v>2002</v>
+      </c>
+      <c r="F46" s="6">
+        <v>2003</v>
+      </c>
+      <c r="G46" s="6">
+        <v>2004</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2005</v>
+      </c>
+      <c r="I46" s="6">
+        <v>2006</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K46" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L46" s="6">
+        <v>2009</v>
+      </c>
+      <c r="M46" s="6">
+        <v>2010</v>
+      </c>
+      <c r="N46" s="6">
+        <v>2011</v>
+      </c>
+      <c r="O46" s="6">
+        <v>2012</v>
+      </c>
+      <c r="P46" s="6">
+        <v>2013</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>2014</v>
+      </c>
+      <c r="R46" s="6">
+        <v>2015</v>
+      </c>
+      <c r="S46" s="6">
+        <v>2016</v>
+      </c>
+      <c r="T46" s="6">
+        <v>2017</v>
+      </c>
+      <c r="U46" s="6">
+        <v>2018</v>
+      </c>
+      <c r="V46" s="6">
+        <v>2019</v>
+      </c>
+      <c r="W46" s="6">
+        <v>2020</v>
+      </c>
+      <c r="Y46" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="19">
+        <v>1.49E-2</v>
+      </c>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19">
+        <v>3.4294379020984679E-2</v>
+      </c>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y47" s="7"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C52" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E52" s="6">
+        <v>2002</v>
+      </c>
+      <c r="F52" s="6">
+        <v>2003</v>
+      </c>
+      <c r="G52" s="6">
+        <v>2004</v>
+      </c>
+      <c r="H52" s="6">
+        <v>2005</v>
+      </c>
+      <c r="I52" s="6">
+        <v>2006</v>
+      </c>
+      <c r="J52" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K52" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L52" s="6">
+        <v>2009</v>
+      </c>
+      <c r="M52" s="6">
+        <v>2010</v>
+      </c>
+      <c r="N52" s="6">
+        <v>2011</v>
+      </c>
+      <c r="O52" s="6">
+        <v>2012</v>
+      </c>
+      <c r="P52" s="6">
+        <v>2013</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>2014</v>
+      </c>
+      <c r="R52" s="6">
+        <v>2015</v>
+      </c>
+      <c r="S52" s="6">
+        <v>2016</v>
+      </c>
+      <c r="T52" s="6">
+        <v>2017</v>
+      </c>
+      <c r="U52" s="6">
+        <v>2018</v>
+      </c>
+      <c r="V52" s="6">
+        <v>2019</v>
+      </c>
+      <c r="W52" s="6">
+        <v>2020</v>
+      </c>
+      <c r="Y52" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C53" s="20">
+        <v>8.030907489744625E-2</v>
+      </c>
+      <c r="D53" s="20">
+        <v>7.8294185449517606E-2</v>
+      </c>
+      <c r="E53" s="20">
+        <v>7.8286885882934865E-2</v>
+      </c>
+      <c r="F53" s="20">
+        <v>7.8280170289988515E-2</v>
+      </c>
+      <c r="G53" s="20">
+        <v>7.6267826974256173E-2</v>
+      </c>
+      <c r="H53" s="20">
+        <v>7.6264478449110371E-2</v>
+      </c>
+      <c r="I53" s="20">
+        <v>7.4256159694359503E-2</v>
+      </c>
+      <c r="J53" s="20">
+        <v>7.2249366972133966E-2</v>
+      </c>
+      <c r="K53" s="20">
+        <v>7.2250164656174135E-2</v>
+      </c>
+      <c r="L53" s="20">
+        <v>7.0243675967987362E-2</v>
+      </c>
+      <c r="M53" s="20">
+        <v>7.0243163645362289E-2</v>
+      </c>
+      <c r="N53" s="20">
+        <v>6.8236216112637652E-2</v>
+      </c>
+      <c r="O53" s="20">
+        <v>6.8236216112637652E-2</v>
+      </c>
+      <c r="P53" s="20">
+        <v>6.8236216112637665E-2</v>
+      </c>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y53" s="11"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Females 15-49</v>
+      </c>
+      <c r="C54" s="20">
+        <v>8.030907489744625E-2</v>
+      </c>
+      <c r="D54" s="20">
+        <v>7.8294185449517606E-2</v>
+      </c>
+      <c r="E54" s="20">
+        <v>7.8286885882934865E-2</v>
+      </c>
+      <c r="F54" s="20">
+        <v>7.8280170289988515E-2</v>
+      </c>
+      <c r="G54" s="20">
+        <v>7.6267826974256173E-2</v>
+      </c>
+      <c r="H54" s="20">
+        <v>7.6264478449110371E-2</v>
+      </c>
+      <c r="I54" s="20">
+        <v>7.4256159694359503E-2</v>
+      </c>
+      <c r="J54" s="20">
+        <v>7.2249366972133966E-2</v>
+      </c>
+      <c r="K54" s="20">
+        <v>7.2250164656174135E-2</v>
+      </c>
+      <c r="L54" s="20">
+        <v>7.0243675967987362E-2</v>
+      </c>
+      <c r="M54" s="20">
+        <v>7.0243163645362289E-2</v>
+      </c>
+      <c r="N54" s="20">
+        <v>6.8236216112637652E-2</v>
+      </c>
+      <c r="O54" s="20">
+        <v>6.8236216112637652E-2</v>
+      </c>
+      <c r="P54" s="20">
+        <v>6.8236216112637665E-2</v>
+      </c>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y54" s="11"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C59" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D59" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E59" s="6">
+        <v>2002</v>
+      </c>
+      <c r="F59" s="6">
+        <v>2003</v>
+      </c>
+      <c r="G59" s="6">
+        <v>2004</v>
+      </c>
+      <c r="H59" s="6">
+        <v>2005</v>
+      </c>
+      <c r="I59" s="6">
+        <v>2006</v>
+      </c>
+      <c r="J59" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K59" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L59" s="6">
+        <v>2009</v>
+      </c>
+      <c r="M59" s="6">
+        <v>2010</v>
+      </c>
+      <c r="N59" s="6">
+        <v>2011</v>
+      </c>
+      <c r="O59" s="6">
+        <v>2012</v>
+      </c>
+      <c r="P59" s="6">
+        <v>2013</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>2014</v>
+      </c>
+      <c r="R59" s="6">
+        <v>2015</v>
+      </c>
+      <c r="S59" s="6">
+        <v>2016</v>
+      </c>
+      <c r="T59" s="6">
+        <v>2017</v>
+      </c>
+      <c r="U59" s="6">
+        <v>2018</v>
+      </c>
+      <c r="V59" s="6">
+        <v>2019</v>
+      </c>
+      <c r="W59" s="6">
+        <v>2020</v>
+      </c>
+      <c r="Y59" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="17">
+        <v>0.876</v>
+      </c>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y60" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:Y65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63:M65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2003</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2004</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2005</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2006</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L2" s="6">
+        <v>2009</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2010</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2011</v>
+      </c>
+      <c r="O2" s="6">
+        <v>2012</v>
+      </c>
+      <c r="P2" s="6">
+        <v>2013</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>2014</v>
+      </c>
+      <c r="R2" s="6">
+        <v>2015</v>
+      </c>
+      <c r="S2" s="6">
+        <v>2016</v>
+      </c>
+      <c r="T2" s="6">
+        <v>2017</v>
+      </c>
+      <c r="U2" s="6">
+        <v>2018</v>
+      </c>
+      <c r="V2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="W2" s="6">
+        <v>2020</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y3" s="7"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Males 15-49</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Females 15-49</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C12" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2002</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2003</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2004</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2005</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2006</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L12" s="6">
+        <v>2009</v>
+      </c>
+      <c r="M12" s="6">
+        <v>2010</v>
+      </c>
+      <c r="N12" s="6">
+        <v>2011</v>
+      </c>
+      <c r="O12" s="6">
+        <v>2012</v>
+      </c>
+      <c r="P12" s="6">
+        <v>2013</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>2014</v>
+      </c>
+      <c r="R12" s="6">
+        <v>2015</v>
+      </c>
+      <c r="S12" s="6">
+        <v>2016</v>
+      </c>
+      <c r="T12" s="6">
+        <v>2017</v>
+      </c>
+      <c r="U12" s="6">
+        <v>2018</v>
+      </c>
+      <c r="V12" s="6">
+        <v>2019</v>
+      </c>
+      <c r="W12" s="6">
+        <v>2020</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y14" s="7"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Males 15-49</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Females 15-49</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y17" s="7"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C22" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2002</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2003</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2004</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2005</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2006</v>
+      </c>
+      <c r="J22" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K22" s="6">
+        <v>2008</v>
+      </c>
+      <c r="L22" s="6">
+        <v>2009</v>
+      </c>
+      <c r="M22" s="6">
+        <v>2010</v>
+      </c>
+      <c r="N22" s="6">
+        <v>2011</v>
+      </c>
+      <c r="O22" s="6">
+        <v>2012</v>
+      </c>
+      <c r="P22" s="6">
+        <v>2013</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>2014</v>
+      </c>
+      <c r="R22" s="6">
+        <v>2015</v>
+      </c>
+      <c r="S22" s="6">
+        <v>2016</v>
+      </c>
+      <c r="T22" s="6">
+        <v>2017</v>
+      </c>
+      <c r="U22" s="6">
+        <v>2018</v>
+      </c>
+      <c r="V22" s="6">
+        <v>2019</v>
+      </c>
+      <c r="W22" s="6">
+        <v>2020</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7">
+        <v>436</v>
+      </c>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y24" s="7"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>MSM</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -10127,1447 +11569,9 @@
       <c r="X25" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Y25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="C30" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E30" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F30" s="6">
-        <v>2003</v>
-      </c>
-      <c r="G30" s="6">
-        <v>2004</v>
-      </c>
-      <c r="H30" s="6">
-        <v>2005</v>
-      </c>
-      <c r="I30" s="6">
-        <v>2006</v>
-      </c>
-      <c r="J30" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K30" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L30" s="6">
-        <v>2009</v>
-      </c>
-      <c r="M30" s="6">
-        <v>2010</v>
-      </c>
-      <c r="N30" s="6">
-        <v>2011</v>
-      </c>
-      <c r="O30" s="6">
-        <v>2012</v>
-      </c>
-      <c r="P30" s="6">
-        <v>2013</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>2014</v>
-      </c>
-      <c r="R30" s="6">
-        <v>2015</v>
-      </c>
-      <c r="S30" s="6">
-        <v>2016</v>
-      </c>
-      <c r="T30" s="6">
-        <v>2017</v>
-      </c>
-      <c r="U30" s="6">
-        <v>2018</v>
-      </c>
-      <c r="V30" s="6">
-        <v>2019</v>
-      </c>
-      <c r="W30" s="6">
-        <v>2020</v>
-      </c>
-      <c r="Y30" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="B31" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7">
-        <v>200</v>
-      </c>
-      <c r="H31" s="7">
-        <v>200</v>
-      </c>
-      <c r="I31" s="7">
-        <v>200</v>
-      </c>
-      <c r="J31" s="7">
-        <v>200</v>
-      </c>
-      <c r="K31" s="7">
-        <v>200</v>
-      </c>
-      <c r="L31" s="7">
-        <v>200</v>
-      </c>
-      <c r="M31" s="7">
-        <v>200</v>
-      </c>
-      <c r="N31" s="7">
-        <v>350</v>
-      </c>
-      <c r="O31" s="7">
-        <v>350</v>
-      </c>
-      <c r="P31" s="7">
-        <v>350</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>500</v>
-      </c>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y31" s="7"/>
-    </row>
-    <row r="35" spans="1:25">
-      <c r="A35" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25">
-      <c r="C36" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D36" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E36" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F36" s="6">
-        <v>2003</v>
-      </c>
-      <c r="G36" s="6">
-        <v>2004</v>
-      </c>
-      <c r="H36" s="6">
-        <v>2005</v>
-      </c>
-      <c r="I36" s="6">
-        <v>2006</v>
-      </c>
-      <c r="J36" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K36" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L36" s="6">
-        <v>2009</v>
-      </c>
-      <c r="M36" s="6">
-        <v>2010</v>
-      </c>
-      <c r="N36" s="6">
-        <v>2011</v>
-      </c>
-      <c r="O36" s="6">
-        <v>2012</v>
-      </c>
-      <c r="P36" s="6">
-        <v>2013</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>2014</v>
-      </c>
-      <c r="R36" s="6">
-        <v>2015</v>
-      </c>
-      <c r="S36" s="6">
-        <v>2016</v>
-      </c>
-      <c r="T36" s="6">
-        <v>2017</v>
-      </c>
-      <c r="U36" s="6">
-        <v>2018</v>
-      </c>
-      <c r="V36" s="6">
-        <v>2019</v>
-      </c>
-      <c r="W36" s="6">
-        <v>2020</v>
-      </c>
-      <c r="Y36" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
-      <c r="B37" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y37" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25">
-      <c r="B38" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25">
-      <c r="B39" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
-      <c r="B40" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Males 15-49</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25">
-      <c r="B41" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Females 15-49</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y41" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25">
-      <c r="A45" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25">
-      <c r="C46" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D46" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E46" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F46" s="6">
-        <v>2003</v>
-      </c>
-      <c r="G46" s="6">
-        <v>2004</v>
-      </c>
-      <c r="H46" s="6">
-        <v>2005</v>
-      </c>
-      <c r="I46" s="6">
-        <v>2006</v>
-      </c>
-      <c r="J46" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K46" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L46" s="6">
-        <v>2009</v>
-      </c>
-      <c r="M46" s="6">
-        <v>2010</v>
-      </c>
-      <c r="N46" s="6">
-        <v>2011</v>
-      </c>
-      <c r="O46" s="6">
-        <v>2012</v>
-      </c>
-      <c r="P46" s="6">
-        <v>2013</v>
-      </c>
-      <c r="Q46" s="6">
-        <v>2014</v>
-      </c>
-      <c r="R46" s="6">
-        <v>2015</v>
-      </c>
-      <c r="S46" s="6">
-        <v>2016</v>
-      </c>
-      <c r="T46" s="6">
-        <v>2017</v>
-      </c>
-      <c r="U46" s="6">
-        <v>2018</v>
-      </c>
-      <c r="V46" s="6">
-        <v>2019</v>
-      </c>
-      <c r="W46" s="6">
-        <v>2020</v>
-      </c>
-      <c r="Y46" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25">
-      <c r="B47" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="19">
-        <v>1.49E-2</v>
-      </c>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19">
-        <v>3.4294379020984679E-2</v>
-      </c>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y47" s="7"/>
-    </row>
-    <row r="51" spans="1:25">
-      <c r="A51" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25">
-      <c r="C52" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D52" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E52" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F52" s="6">
-        <v>2003</v>
-      </c>
-      <c r="G52" s="6">
-        <v>2004</v>
-      </c>
-      <c r="H52" s="6">
-        <v>2005</v>
-      </c>
-      <c r="I52" s="6">
-        <v>2006</v>
-      </c>
-      <c r="J52" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K52" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L52" s="6">
-        <v>2009</v>
-      </c>
-      <c r="M52" s="6">
-        <v>2010</v>
-      </c>
-      <c r="N52" s="6">
-        <v>2011</v>
-      </c>
-      <c r="O52" s="6">
-        <v>2012</v>
-      </c>
-      <c r="P52" s="6">
-        <v>2013</v>
-      </c>
-      <c r="Q52" s="6">
-        <v>2014</v>
-      </c>
-      <c r="R52" s="6">
-        <v>2015</v>
-      </c>
-      <c r="S52" s="6">
-        <v>2016</v>
-      </c>
-      <c r="T52" s="6">
-        <v>2017</v>
-      </c>
-      <c r="U52" s="6">
-        <v>2018</v>
-      </c>
-      <c r="V52" s="6">
-        <v>2019</v>
-      </c>
-      <c r="W52" s="6">
-        <v>2020</v>
-      </c>
-      <c r="Y52" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25">
-      <c r="B53" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C53" s="20">
-        <v>8.030907489744625E-2</v>
-      </c>
-      <c r="D53" s="20">
-        <v>7.8294185449517606E-2</v>
-      </c>
-      <c r="E53" s="20">
-        <v>7.8286885882934865E-2</v>
-      </c>
-      <c r="F53" s="20">
-        <v>7.8280170289988515E-2</v>
-      </c>
-      <c r="G53" s="20">
-        <v>7.6267826974256173E-2</v>
-      </c>
-      <c r="H53" s="20">
-        <v>7.6264478449110371E-2</v>
-      </c>
-      <c r="I53" s="20">
-        <v>7.4256159694359503E-2</v>
-      </c>
-      <c r="J53" s="20">
-        <v>7.2249366972133966E-2</v>
-      </c>
-      <c r="K53" s="20">
-        <v>7.2250164656174135E-2</v>
-      </c>
-      <c r="L53" s="20">
-        <v>7.0243675967987362E-2</v>
-      </c>
-      <c r="M53" s="20">
-        <v>7.0243163645362289E-2</v>
-      </c>
-      <c r="N53" s="20">
-        <v>6.8236216112637652E-2</v>
-      </c>
-      <c r="O53" s="20">
-        <v>6.8236216112637652E-2</v>
-      </c>
-      <c r="P53" s="20">
-        <v>6.8236216112637665E-2</v>
-      </c>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y53" s="11"/>
-    </row>
-    <row r="54" spans="1:25">
-      <c r="B54" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Females 15-49</v>
-      </c>
-      <c r="C54" s="20">
-        <v>8.030907489744625E-2</v>
-      </c>
-      <c r="D54" s="20">
-        <v>7.8294185449517606E-2</v>
-      </c>
-      <c r="E54" s="20">
-        <v>7.8286885882934865E-2</v>
-      </c>
-      <c r="F54" s="20">
-        <v>7.8280170289988515E-2</v>
-      </c>
-      <c r="G54" s="20">
-        <v>7.6267826974256173E-2</v>
-      </c>
-      <c r="H54" s="20">
-        <v>7.6264478449110371E-2</v>
-      </c>
-      <c r="I54" s="20">
-        <v>7.4256159694359503E-2</v>
-      </c>
-      <c r="J54" s="20">
-        <v>7.2249366972133966E-2</v>
-      </c>
-      <c r="K54" s="20">
-        <v>7.2250164656174135E-2</v>
-      </c>
-      <c r="L54" s="20">
-        <v>7.0243675967987362E-2</v>
-      </c>
-      <c r="M54" s="20">
-        <v>7.0243163645362289E-2</v>
-      </c>
-      <c r="N54" s="20">
-        <v>6.8236216112637652E-2</v>
-      </c>
-      <c r="O54" s="20">
-        <v>6.8236216112637652E-2</v>
-      </c>
-      <c r="P54" s="20">
-        <v>6.8236216112637665E-2</v>
-      </c>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y54" s="11"/>
-    </row>
-    <row r="58" spans="1:25">
-      <c r="A58" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25">
-      <c r="C59" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D59" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E59" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F59" s="6">
-        <v>2003</v>
-      </c>
-      <c r="G59" s="6">
-        <v>2004</v>
-      </c>
-      <c r="H59" s="6">
-        <v>2005</v>
-      </c>
-      <c r="I59" s="6">
-        <v>2006</v>
-      </c>
-      <c r="J59" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K59" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L59" s="6">
-        <v>2009</v>
-      </c>
-      <c r="M59" s="6">
-        <v>2010</v>
-      </c>
-      <c r="N59" s="6">
-        <v>2011</v>
-      </c>
-      <c r="O59" s="6">
-        <v>2012</v>
-      </c>
-      <c r="P59" s="6">
-        <v>2013</v>
-      </c>
-      <c r="Q59" s="6">
-        <v>2014</v>
-      </c>
-      <c r="R59" s="6">
-        <v>2015</v>
-      </c>
-      <c r="S59" s="6">
-        <v>2016</v>
-      </c>
-      <c r="T59" s="6">
-        <v>2017</v>
-      </c>
-      <c r="U59" s="6">
-        <v>2018</v>
-      </c>
-      <c r="V59" s="6">
-        <v>2019</v>
-      </c>
-      <c r="W59" s="6">
-        <v>2020</v>
-      </c>
-      <c r="Y59" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25">
-      <c r="B60" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="17">
-        <v>0.876</v>
-      </c>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
-      <c r="V60" s="12"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y60" s="12"/>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:Y65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63:M65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="C2" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2003</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2004</v>
-      </c>
-      <c r="H2" s="6">
-        <v>2005</v>
-      </c>
-      <c r="I2" s="6">
-        <v>2006</v>
-      </c>
-      <c r="J2" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K2" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L2" s="6">
-        <v>2009</v>
-      </c>
-      <c r="M2" s="6">
-        <v>2010</v>
-      </c>
-      <c r="N2" s="6">
-        <v>2011</v>
-      </c>
-      <c r="O2" s="6">
-        <v>2012</v>
-      </c>
-      <c r="P2" s="6">
-        <v>2013</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>2014</v>
-      </c>
-      <c r="R2" s="6">
-        <v>2015</v>
-      </c>
-      <c r="S2" s="6">
-        <v>2016</v>
-      </c>
-      <c r="T2" s="6">
-        <v>2017</v>
-      </c>
-      <c r="U2" s="6">
-        <v>2018</v>
-      </c>
-      <c r="V2" s="6">
-        <v>2019</v>
-      </c>
-      <c r="W2" s="6">
-        <v>2020</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="B3" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y3" s="7"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="B4" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" s="7"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="B5" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y5" s="7"/>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="B6" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Males 15-49</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y6" s="7"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="B7" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Females 15-49</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y7" s="7"/>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="C12" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2003</v>
-      </c>
-      <c r="G12" s="6">
-        <v>2004</v>
-      </c>
-      <c r="H12" s="6">
-        <v>2005</v>
-      </c>
-      <c r="I12" s="6">
-        <v>2006</v>
-      </c>
-      <c r="J12" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K12" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L12" s="6">
-        <v>2009</v>
-      </c>
-      <c r="M12" s="6">
-        <v>2010</v>
-      </c>
-      <c r="N12" s="6">
-        <v>2011</v>
-      </c>
-      <c r="O12" s="6">
-        <v>2012</v>
-      </c>
-      <c r="P12" s="6">
-        <v>2013</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>2014</v>
-      </c>
-      <c r="R12" s="6">
-        <v>2015</v>
-      </c>
-      <c r="S12" s="6">
-        <v>2016</v>
-      </c>
-      <c r="T12" s="6">
-        <v>2017</v>
-      </c>
-      <c r="U12" s="6">
-        <v>2018</v>
-      </c>
-      <c r="V12" s="6">
-        <v>2019</v>
-      </c>
-      <c r="W12" s="6">
-        <v>2020</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="B13" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y13" s="7"/>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="B14" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="B15" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="B16" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Males 15-49</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y16" s="7"/>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="B17" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Females 15-49</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y17" s="7"/>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="C22" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2002</v>
-      </c>
-      <c r="F22" s="6">
-        <v>2003</v>
-      </c>
-      <c r="G22" s="6">
-        <v>2004</v>
-      </c>
-      <c r="H22" s="6">
-        <v>2005</v>
-      </c>
-      <c r="I22" s="6">
-        <v>2006</v>
-      </c>
-      <c r="J22" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K22" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L22" s="6">
-        <v>2009</v>
-      </c>
-      <c r="M22" s="6">
-        <v>2010</v>
-      </c>
-      <c r="N22" s="6">
-        <v>2011</v>
-      </c>
-      <c r="O22" s="6">
-        <v>2012</v>
-      </c>
-      <c r="P22" s="6">
-        <v>2013</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>2014</v>
-      </c>
-      <c r="R22" s="6">
-        <v>2015</v>
-      </c>
-      <c r="S22" s="6">
-        <v>2016</v>
-      </c>
-      <c r="T22" s="6">
-        <v>2017</v>
-      </c>
-      <c r="U22" s="6">
-        <v>2018</v>
-      </c>
-      <c r="V22" s="6">
-        <v>2019</v>
-      </c>
-      <c r="W22" s="6">
-        <v>2020</v>
-      </c>
-      <c r="Y22" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="B23" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>FSW</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7">
-        <v>436</v>
-      </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y23" s="7"/>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="B24" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Clients</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7">
-        <v>61</v>
-      </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y24" s="7"/>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="B25" s="6" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>MSM</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -11598,7 +11602,7 @@
       </c>
       <c r="Y26" s="7"/>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -11629,12 +11633,12 @@
       </c>
       <c r="Y27" s="7"/>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C32" s="6">
         <v>2000</v>
       </c>
@@ -11702,7 +11706,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -11735,7 +11739,7 @@
       </c>
       <c r="Y33" s="12"/>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -11768,7 +11772,7 @@
       </c>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -11801,7 +11805,7 @@
       </c>
       <c r="Y35" s="12"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -11834,7 +11838,7 @@
       </c>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -11867,12 +11871,12 @@
       </c>
       <c r="Y37" s="12"/>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C42" s="6">
         <v>2000</v>
       </c>
@@ -11940,7 +11944,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -11973,7 +11977,7 @@
       </c>
       <c r="Y43" s="12"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -12006,7 +12010,7 @@
       </c>
       <c r="Y44" s="12"/>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -12039,7 +12043,7 @@
       </c>
       <c r="Y45" s="12"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -12072,7 +12076,7 @@
       </c>
       <c r="Y46" s="12"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -12105,12 +12109,12 @@
       </c>
       <c r="Y47" s="12"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C52" s="6">
         <v>2000</v>
       </c>
@@ -12178,7 +12182,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -12211,7 +12215,7 @@
       </c>
       <c r="Y53" s="12"/>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -12244,7 +12248,7 @@
       </c>
       <c r="Y54" s="12"/>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -12277,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -12310,7 +12314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -12343,12 +12347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C62" s="6">
         <v>2000</v>
       </c>
@@ -12416,7 +12420,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -12449,7 +12453,7 @@
       </c>
       <c r="Y63" s="12"/>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -12482,7 +12486,7 @@
       </c>
       <c r="Y64" s="12"/>
     </row>
-    <row r="65" spans="2:25">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -12516,7 +12520,6 @@
       <c r="Y65" s="12"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12529,7 +12532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y23"/>
   <sheetViews>
@@ -12537,14 +12540,14 @@
       <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -12612,7 +12615,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -12645,7 +12648,7 @@
       </c>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -12678,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -12711,7 +12714,7 @@
       </c>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -12744,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -12777,12 +12780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C12" s="6">
         <v>2000</v>
       </c>
@@ -12850,7 +12853,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -12883,7 +12886,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -12916,7 +12919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -12949,7 +12952,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -12982,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -13015,12 +13018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C22" s="6">
         <v>2000</v>
       </c>
@@ -13088,7 +13091,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
@@ -13121,7 +13124,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/server/src/static/sudanexample.xlsx
+++ b/server/src/static/sudanexample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="21240" windowHeight="13305" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="21240" windowHeight="13305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -728,7 +728,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="167">
   <si>
     <t>* For each parameter (as in, row in the worksheet), there needs to be at least one data point entered. The only exception to this is the sheet "Optional indicators", which may be left blank. If data are not available for a particular indicator, enter an assumption in the "Assumption" column, with a comment explaining how that value was derived.</t>
   </si>
@@ -1015,9 +1015,6 @@
     <t>Monitoring, evaluation, surveillance, and research</t>
   </si>
   <si>
-    <t>PLHIV support</t>
-  </si>
-  <si>
     <t>Cost &amp; coverage</t>
   </si>
   <si>
@@ -1226,6 +1223,12 @@
   </si>
   <si>
     <t>CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>Other costs</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -1948,7 +1951,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2042,7 +2045,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2136,7 +2139,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2220,7 +2223,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2331,7 +2334,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2413,7 +2416,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2522,23 +2525,23 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="8">
         <v>4.0000000000000002E-4</v>
@@ -2552,7 +2555,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="8">
         <v>8.0000000000000004E-4</v>
@@ -2566,7 +2569,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="8">
         <v>1.38E-2</v>
@@ -2580,7 +2583,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="8">
         <v>1.1000000000000001E-3</v>
@@ -2594,7 +2597,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="8">
         <v>8.0000000000000002E-3</v>
@@ -2608,7 +2611,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="8">
         <v>0.36699999999999999</v>
@@ -2622,7 +2625,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="8">
         <v>0.20499999999999999</v>
@@ -2636,23 +2639,23 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="11">
         <v>26.03</v>
@@ -2666,7 +2669,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
@@ -2741,13 +2744,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2827,13 +2830,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="E35" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2899,13 +2902,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="E44" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2943,18 +2946,18 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="E51" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" s="8">
         <v>3.5999999999999999E-3</v>
@@ -2968,7 +2971,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="8">
         <v>3.5999999999999999E-3</v>
@@ -3071,13 +3074,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="E64" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3152,7 +3155,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" s="12">
         <v>0.46</v>
@@ -3194,7 +3197,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C73" s="12">
         <v>0.27500000000000002</v>
@@ -3208,23 +3211,23 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C78" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="E78" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C79" s="11">
         <v>0.14599999999999999</v>
@@ -3238,7 +3241,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C80" s="11">
         <v>8.0000000000000002E-3</v>
@@ -3252,7 +3255,7 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C81" s="11">
         <v>0.02</v>
@@ -3266,7 +3269,7 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -3280,7 +3283,7 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C83" s="11">
         <v>0.26500000000000001</v>
@@ -3294,7 +3297,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C84" s="11">
         <v>0.54700000000000004</v>
@@ -3308,7 +3311,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C85" s="11">
         <v>5.2999999999999999E-2</v>
@@ -3344,10 +3347,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -3415,18 +3418,18 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AA2" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="22">
         <v>41.670326870927902</v>
@@ -3478,7 +3481,7 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y3" s="12">
         <v>0.2</v>
@@ -3492,7 +3495,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -3560,18 +3563,18 @@
         <v>2020</v>
       </c>
       <c r="Y8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z8" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AA8" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="23">
         <v>0.482758166845627</v>
@@ -3623,7 +3626,7 @@
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
       <c r="X9" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y9" s="12">
         <v>0.4</v>
@@ -3637,7 +3640,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -3705,18 +3708,18 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z14" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AA14" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="13">
         <v>12257299147.293604</v>
@@ -3768,7 +3771,7 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y15" s="12">
         <v>0.05</v>
@@ -3782,7 +3785,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -3850,18 +3853,18 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z20" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z20" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AA20" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -3885,7 +3888,7 @@
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -3961,18 +3964,18 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z26" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AA26" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -3996,7 +3999,7 @@
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
       <c r="X27" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
@@ -4004,7 +4007,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -4072,18 +4075,18 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z32" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z32" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AA32" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -4107,7 +4110,7 @@
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
@@ -4115,7 +4118,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
@@ -4183,18 +4186,18 @@
         <v>2020</v>
       </c>
       <c r="Y38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z38" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z38" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AA38" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -4218,7 +4221,7 @@
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
       <c r="X39" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
@@ -4226,7 +4229,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -4294,18 +4297,18 @@
         <v>2020</v>
       </c>
       <c r="Y44" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z44" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z44" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AA44" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -4329,7 +4332,7 @@
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
       <c r="X45" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
@@ -4337,7 +4340,7 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
@@ -4405,18 +4408,18 @@
         <v>2020</v>
       </c>
       <c r="Y50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z50" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z50" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AA50" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -4440,7 +4443,7 @@
       <c r="V51" s="10"/>
       <c r="W51" s="10"/>
       <c r="X51" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
@@ -4448,7 +4451,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
@@ -4516,18 +4519,18 @@
         <v>2020</v>
       </c>
       <c r="Y56" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z56" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z56" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AA56" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -4551,7 +4554,7 @@
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
       <c r="X57" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
@@ -4559,7 +4562,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
@@ -4627,18 +4630,18 @@
         <v>2020</v>
       </c>
       <c r="Y62" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z62" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z62" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AA62" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -4662,7 +4665,7 @@
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
       <c r="X63" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
@@ -4670,7 +4673,7 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
@@ -4738,18 +4741,18 @@
         <v>2020</v>
       </c>
       <c r="Y68" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z68" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z68" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AA68" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -4773,7 +4776,7 @@
       <c r="V69" s="10"/>
       <c r="W69" s="10"/>
       <c r="X69" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
@@ -4781,7 +4784,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
@@ -4849,18 +4852,18 @@
         <v>2020</v>
       </c>
       <c r="Y74" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z74" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z74" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="AA74" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -4886,7 +4889,7 @@
       <c r="V75" s="11"/>
       <c r="W75" s="11"/>
       <c r="X75" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y75" s="24">
         <v>0.03</v>
@@ -4900,7 +4903,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -4926,7 +4929,7 @@
       <c r="V76" s="11"/>
       <c r="W76" s="11"/>
       <c r="X76" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y76" s="24">
         <v>0.03</v>
@@ -4966,7 +4969,7 @@
       <c r="V77" s="11"/>
       <c r="W77" s="11"/>
       <c r="X77" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y77" s="24">
         <v>0.03</v>
@@ -5006,7 +5009,7 @@
       <c r="V78" s="11"/>
       <c r="W78" s="11"/>
       <c r="X78" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y78" s="24">
         <v>0.03</v>
@@ -5046,7 +5049,7 @@
       <c r="V79" s="11"/>
       <c r="W79" s="11"/>
       <c r="X79" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y79" s="24">
         <v>0.03</v>
@@ -5086,7 +5089,7 @@
       <c r="V80" s="11"/>
       <c r="W80" s="11"/>
       <c r="X80" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y80" s="24">
         <v>0.03</v>
@@ -5109,7 +5112,7 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y84" s="25"/>
     </row>
@@ -5178,18 +5181,18 @@
         <v>2020</v>
       </c>
       <c r="Y85" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z85" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="Z85" s="26" t="s">
-        <v>104</v>
-      </c>
       <c r="AA85" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -5215,7 +5218,7 @@
       <c r="V86" s="11"/>
       <c r="W86" s="11"/>
       <c r="X86" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y86" s="24">
         <v>0.03</v>
@@ -5229,7 +5232,7 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -5255,7 +5258,7 @@
       <c r="V87" s="11"/>
       <c r="W87" s="11"/>
       <c r="X87" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y87" s="24">
         <v>0.03</v>
@@ -5295,7 +5298,7 @@
       <c r="V88" s="11"/>
       <c r="W88" s="11"/>
       <c r="X88" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y88" s="24">
         <v>0.03</v>
@@ -5335,7 +5338,7 @@
       <c r="V89" s="11"/>
       <c r="W89" s="11"/>
       <c r="X89" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y89" s="24">
         <v>0.03</v>
@@ -5375,7 +5378,7 @@
       <c r="V90" s="11"/>
       <c r="W90" s="11"/>
       <c r="X90" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y90" s="24">
         <v>0.03</v>
@@ -5415,7 +5418,7 @@
       <c r="V91" s="11"/>
       <c r="W91" s="11"/>
       <c r="X91" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y91" s="24">
         <v>0.03</v>
@@ -5443,7 +5446,9 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5754,10 +5759,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5787,7 +5792,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -5855,7 +5860,7 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -5864,7 +5869,7 @@
         <v>SBCC</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -5890,7 +5895,7 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z3" s="8"/>
     </row>
@@ -5900,7 +5905,7 @@
         <v>SBCC</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -5926,7 +5931,7 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z4" s="10"/>
     </row>
@@ -5936,7 +5941,7 @@
         <v>FSW programs</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -5962,7 +5967,7 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z6" s="8"/>
     </row>
@@ -5972,7 +5977,7 @@
         <v>FSW programs</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -5998,7 +6003,7 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z7" s="10"/>
     </row>
@@ -6008,7 +6013,7 @@
         <v>MSM programs</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -6034,7 +6039,7 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z9" s="8"/>
     </row>
@@ -6044,7 +6049,7 @@
         <v>MSM programs</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6070,7 +6075,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z10" s="10"/>
     </row>
@@ -6080,7 +6085,7 @@
         <v>HTC</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -6106,7 +6111,7 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z12" s="8"/>
     </row>
@@ -6116,7 +6121,7 @@
         <v>HTC</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6142,7 +6147,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z13" s="10"/>
     </row>
@@ -6152,7 +6157,7 @@
         <v>ART</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -6178,7 +6183,7 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z15" s="8"/>
     </row>
@@ -6188,7 +6193,7 @@
         <v>ART</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -6214,7 +6219,7 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z16" s="10"/>
     </row>
@@ -6224,7 +6229,7 @@
         <v>PMTCT</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -6250,7 +6255,7 @@
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z18" s="8"/>
     </row>
@@ -6260,7 +6265,7 @@
         <v>PMTCT</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6286,7 +6291,7 @@
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z19" s="10"/>
     </row>
@@ -6296,7 +6301,7 @@
         <v>MGMT</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -6320,7 +6325,7 @@
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z21" s="8"/>
     </row>
@@ -6330,7 +6335,7 @@
         <v>MGMT</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6356,7 +6361,7 @@
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z22" s="10"/>
     </row>
@@ -6366,7 +6371,7 @@
         <v>M&amp;E</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -6390,7 +6395,7 @@
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z24" s="8"/>
     </row>
@@ -6400,7 +6405,7 @@
         <v>M&amp;E</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -6426,17 +6431,17 @@
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z25" s="10"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="str">
         <f>'Populations &amp; programs'!$C$21</f>
-        <v>PLHIV support</v>
+        <v>Other</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -6460,17 +6465,17 @@
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z27" s="8"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="str">
         <f>'Populations &amp; programs'!$C$21</f>
-        <v>PLHIV support</v>
+        <v>Other</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -6496,7 +6501,7 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z28" s="10"/>
     </row>
@@ -6525,7 +6530,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -6593,7 +6598,7 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -6602,7 +6607,7 @@
         <v>FSW</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -6626,7 +6631,7 @@
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z3" s="10"/>
     </row>
@@ -6636,7 +6641,7 @@
         <v>FSW</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="13">
         <v>139172.68199999997</v>
@@ -6682,7 +6687,7 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z4" s="10"/>
     </row>
@@ -6692,7 +6697,7 @@
         <v>FSW</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -6716,7 +6721,7 @@
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z5" s="10"/>
     </row>
@@ -6726,7 +6731,7 @@
         <v>Clients</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6750,7 +6755,7 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z7" s="10"/>
     </row>
@@ -6760,7 +6765,7 @@
         <v>Clients</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="13">
         <v>979330.74050000007</v>
@@ -6806,7 +6811,7 @@
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z8" s="10"/>
     </row>
@@ -6816,7 +6821,7 @@
         <v>Clients</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -6840,7 +6845,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z9" s="10"/>
     </row>
@@ -6850,7 +6855,7 @@
         <v>MSM</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -6874,7 +6879,7 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z11" s="10"/>
     </row>
@@ -6884,7 +6889,7 @@
         <v>MSM</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="13">
         <v>96306.278800000015</v>
@@ -6930,7 +6935,7 @@
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z12" s="10"/>
     </row>
@@ -6940,7 +6945,7 @@
         <v>MSM</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6964,7 +6969,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z13" s="10"/>
     </row>
@@ -6974,7 +6979,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -6998,7 +7003,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z15" s="10"/>
     </row>
@@ -7008,7 +7013,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="10">
         <v>5431543.9807000002</v>
@@ -7054,7 +7059,7 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z16" s="10"/>
     </row>
@@ -7064,7 +7069,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -7088,7 +7093,7 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z17" s="10"/>
     </row>
@@ -7098,7 +7103,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -7122,7 +7127,7 @@
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z19" s="10"/>
     </row>
@@ -7132,7 +7137,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="10">
         <v>6333671.4559585694</v>
@@ -7178,7 +7183,7 @@
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z20" s="10"/>
     </row>
@@ -7188,7 +7193,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -7212,13 +7217,13 @@
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z21" s="10"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -7286,7 +7291,7 @@
         <v>2020</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -7295,7 +7300,7 @@
         <v>FSW</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -7319,7 +7324,7 @@
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z28" s="8"/>
     </row>
@@ -7329,7 +7334,7 @@
         <v>FSW</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -7355,7 +7360,7 @@
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z29" s="8"/>
     </row>
@@ -7365,7 +7370,7 @@
         <v>FSW</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -7389,7 +7394,7 @@
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z30" s="8"/>
     </row>
@@ -7399,7 +7404,7 @@
         <v>Clients</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -7423,7 +7428,7 @@
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z32" s="8"/>
     </row>
@@ -7433,7 +7438,7 @@
         <v>Clients</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -7459,7 +7464,7 @@
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z33" s="8"/>
     </row>
@@ -7469,7 +7474,7 @@
         <v>Clients</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -7493,7 +7498,7 @@
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z34" s="8"/>
     </row>
@@ -7503,7 +7508,7 @@
         <v>MSM</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -7527,7 +7532,7 @@
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z36" s="8"/>
     </row>
@@ -7537,7 +7542,7 @@
         <v>MSM</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -7563,7 +7568,7 @@
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z37" s="8"/>
     </row>
@@ -7573,7 +7578,7 @@
         <v>MSM</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -7597,7 +7602,7 @@
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z38" s="8"/>
     </row>
@@ -7607,7 +7612,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -7631,7 +7636,7 @@
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z40" s="8"/>
     </row>
@@ -7641,7 +7646,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -7671,7 +7676,7 @@
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z41" s="8"/>
     </row>
@@ -7681,7 +7686,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -7705,7 +7710,7 @@
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z42" s="8"/>
     </row>
@@ -7715,7 +7720,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -7739,7 +7744,7 @@
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z44" s="8"/>
     </row>
@@ -7749,7 +7754,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -7779,7 +7784,7 @@
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z45" s="8"/>
     </row>
@@ -7789,7 +7794,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -7813,7 +7818,7 @@
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z46" s="8"/>
     </row>
@@ -7842,7 +7847,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -7910,12 +7915,12 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -7953,13 +7958,13 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y3" s="11"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -8027,12 +8032,12 @@
         <v>2020</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -8058,13 +8063,13 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y9" s="11"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -8132,12 +8137,12 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="16">
         <v>3121.27</v>
@@ -8189,13 +8194,13 @@
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y15" s="11"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -8263,12 +8268,12 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="11">
         <v>0.11</v>
@@ -8320,13 +8325,13 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y21" s="11"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -8394,12 +8399,12 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="16">
         <v>714</v>
@@ -8451,13 +8456,13 @@
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y27" s="11"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -8525,12 +8530,12 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -8554,7 +8559,7 @@
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y33" s="11"/>
     </row>
@@ -8583,7 +8588,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -8651,7 +8656,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -8681,7 +8686,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y3" s="8">
         <v>0.01</v>
@@ -8714,7 +8719,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y4" s="8">
         <v>0.01</v>
@@ -8747,7 +8752,7 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y5" s="8">
         <v>0.01</v>
@@ -8780,7 +8785,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y6" s="8">
         <v>0.01</v>
@@ -8813,7 +8818,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y7" s="8">
         <v>0.01</v>
@@ -8821,7 +8826,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -8889,7 +8894,7 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -8921,7 +8926,7 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y13" s="8"/>
     </row>
@@ -8952,7 +8957,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="8">
         <v>0.02</v>
@@ -8987,7 +8992,7 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y15" s="8"/>
     </row>
@@ -9018,7 +9023,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y16" s="8">
         <v>0.01</v>
@@ -9051,7 +9056,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y17" s="8">
         <v>0.01</v>
@@ -9059,7 +9064,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -9127,7 +9132,7 @@
         <v>2020</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -9159,7 +9164,7 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y23" s="8"/>
     </row>
@@ -9190,7 +9195,7 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y24" s="8">
         <v>0.05</v>
@@ -9225,7 +9230,7 @@
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y25" s="8"/>
     </row>
@@ -9256,7 +9261,7 @@
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y26" s="8">
         <v>0.01</v>
@@ -9289,7 +9294,7 @@
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
       <c r="X27" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y27" s="8">
         <v>0.02</v>
@@ -9297,7 +9302,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -9365,7 +9370,7 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
@@ -9398,7 +9403,7 @@
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
       <c r="X33" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y33" s="8"/>
     </row>
@@ -9432,7 +9437,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
       <c r="X34" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y34" s="8"/>
     </row>
@@ -9466,7 +9471,7 @@
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
       <c r="X35" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y35" s="8"/>
     </row>
@@ -9500,7 +9505,7 @@
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
       <c r="X36" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y36" s="8"/>
     </row>
@@ -9534,7 +9539,7 @@
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
       <c r="X37" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y37" s="8"/>
     </row>
@@ -9555,7 +9560,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -9631,7 +9636,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -9665,7 +9670,7 @@
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
       <c r="X3" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y3" s="12"/>
     </row>
@@ -9698,7 +9703,7 @@
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y4" s="12"/>
     </row>
@@ -9731,7 +9736,7 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y5" s="12"/>
     </row>
@@ -9764,7 +9769,7 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y6" s="12"/>
     </row>
@@ -9797,7 +9802,7 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y7" s="12"/>
     </row>
@@ -9871,7 +9876,7 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -9902,7 +9907,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y13" s="7"/>
     </row>
@@ -9976,12 +9981,12 @@
         <v>2020</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -10017,7 +10022,7 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y19" s="7"/>
     </row>
@@ -10091,12 +10096,12 @@
         <v>2020</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -10132,7 +10137,7 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y25" s="7"/>
     </row>
@@ -10206,12 +10211,12 @@
         <v>2020</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -10257,7 +10262,7 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y31" s="7"/>
     </row>
@@ -10331,7 +10336,7 @@
         <v>2020</v>
       </c>
       <c r="Y36" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -10361,7 +10366,7 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y37" s="12">
         <v>0</v>
@@ -10394,7 +10399,7 @@
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
       <c r="X38" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y38" s="12">
         <v>0</v>
@@ -10427,7 +10432,7 @@
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
       <c r="X39" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y39" s="12">
         <v>0</v>
@@ -10460,7 +10465,7 @@
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y40" s="12">
         <v>0</v>
@@ -10493,7 +10498,7 @@
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
       <c r="X41" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y41" s="12">
         <v>0</v>
@@ -10569,12 +10574,12 @@
         <v>2020</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10602,7 +10607,7 @@
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
       <c r="X47" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y47" s="7"/>
     </row>
@@ -10676,7 +10681,7 @@
         <v>2020</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -10734,7 +10739,7 @@
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
       <c r="X53" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y53" s="11"/>
     </row>
@@ -10793,7 +10798,7 @@
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
       <c r="X54" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y54" s="11"/>
     </row>
@@ -10867,12 +10872,12 @@
         <v>2020</v>
       </c>
       <c r="Y59" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -10898,7 +10903,7 @@
       <c r="V60" s="12"/>
       <c r="W60" s="12"/>
       <c r="X60" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y60" s="12"/>
     </row>
@@ -10995,7 +11000,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -11027,7 +11032,7 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y3" s="7"/>
     </row>
@@ -11060,7 +11065,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y4" s="7"/>
     </row>
@@ -11093,7 +11098,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y5" s="7"/>
     </row>
@@ -11126,7 +11131,7 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y6" s="7"/>
     </row>
@@ -11159,7 +11164,7 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y7" s="7"/>
     </row>
@@ -11233,7 +11238,7 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -11265,7 +11270,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y13" s="7"/>
     </row>
@@ -11298,7 +11303,7 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="7"/>
     </row>
@@ -11331,7 +11336,7 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y15" s="7"/>
     </row>
@@ -11364,7 +11369,7 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y16" s="7"/>
     </row>
@@ -11397,7 +11402,7 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y17" s="7"/>
     </row>
@@ -11471,7 +11476,7 @@
         <v>2020</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -11503,7 +11508,7 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y23" s="7"/>
     </row>
@@ -11536,7 +11541,7 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y24" s="7"/>
     </row>
@@ -11567,7 +11572,7 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y25" s="7"/>
     </row>
@@ -11598,7 +11603,7 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y26" s="7"/>
     </row>
@@ -11629,7 +11634,7 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y27" s="7"/>
     </row>
@@ -11703,7 +11708,7 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -11735,7 +11740,7 @@
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="X33" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y33" s="12"/>
     </row>
@@ -11768,7 +11773,7 @@
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y34" s="12"/>
     </row>
@@ -11801,7 +11806,7 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y35" s="12"/>
     </row>
@@ -11834,7 +11839,7 @@
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="X36" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y36" s="12"/>
     </row>
@@ -11867,13 +11872,13 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y37" s="12"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -11941,7 +11946,7 @@
         <v>2020</v>
       </c>
       <c r="Y42" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -11973,7 +11978,7 @@
       <c r="V43" s="12"/>
       <c r="W43" s="12"/>
       <c r="X43" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y43" s="12"/>
     </row>
@@ -12006,7 +12011,7 @@
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
       <c r="X44" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y44" s="12"/>
     </row>
@@ -12039,7 +12044,7 @@
       <c r="V45" s="12"/>
       <c r="W45" s="12"/>
       <c r="X45" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y45" s="12"/>
     </row>
@@ -12072,7 +12077,7 @@
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
       <c r="X46" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y46" s="12"/>
     </row>
@@ -12105,13 +12110,13 @@
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
       <c r="X47" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y47" s="12"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -12179,7 +12184,7 @@
         <v>2020</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -12211,7 +12216,7 @@
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
       <c r="X53" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y53" s="12"/>
     </row>
@@ -12244,7 +12249,7 @@
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
       <c r="X54" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y54" s="12"/>
     </row>
@@ -12275,7 +12280,7 @@
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
       <c r="X55" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y55" s="12">
         <v>0</v>
@@ -12308,7 +12313,7 @@
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
       <c r="X56" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y56" s="12">
         <v>0</v>
@@ -12341,7 +12346,7 @@
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
       <c r="X57" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y57" s="12">
         <v>0</v>
@@ -12349,7 +12354,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -12417,7 +12422,7 @@
         <v>2020</v>
       </c>
       <c r="Y62" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -12449,7 +12454,7 @@
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
       <c r="X63" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y63" s="12"/>
     </row>
@@ -12482,7 +12487,7 @@
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
       <c r="X64" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y64" s="12"/>
     </row>
@@ -12515,7 +12520,7 @@
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
       <c r="X65" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y65" s="12"/>
     </row>
@@ -12544,7 +12549,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -12612,7 +12617,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -12644,7 +12649,7 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y3" s="7"/>
     </row>
@@ -12675,7 +12680,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y4" s="7">
         <v>0</v>
@@ -12710,7 +12715,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y5" s="7"/>
     </row>
@@ -12741,7 +12746,7 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y6" s="7">
         <v>0</v>
@@ -12774,7 +12779,7 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y7" s="7">
         <v>0</v>
@@ -12782,7 +12787,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -12850,7 +12855,7 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -12880,7 +12885,7 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y13" s="12">
         <v>0.2</v>
@@ -12913,7 +12918,7 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="12">
         <v>0</v>
@@ -12946,7 +12951,7 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y15" s="12">
         <v>0.2</v>
@@ -12979,7 +12984,7 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y16" s="12">
         <v>0</v>
@@ -13012,7 +13017,7 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y17" s="12">
         <v>0</v>
@@ -13020,7 +13025,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -13088,7 +13093,7 @@
         <v>2020</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -13117,7 +13122,7 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y23" s="7">
         <v>0</v>

--- a/server/src/static/sudanexample.xlsx
+++ b/server/src/static/sudanexample.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="21240" windowHeight="13305" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="21240" windowHeight="13300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Constants" sheetId="12" r:id="rId12"/>
     <sheet name="Economics and costs" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="130000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -730,6 +730,395 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="167">
   <si>
+    <t>Number of people who inject drugs who are on opiate substitution therapy</t>
+  </si>
+  <si>
+    <t>Interactions between regular partners</t>
+  </si>
+  <si>
+    <t>Interactions between casual partners</t>
+  </si>
+  <si>
+    <t>Interactions between commercial partners</t>
+  </si>
+  <si>
+    <t>Interactions between people who inject drugs</t>
+  </si>
+  <si>
+    <t>Age-related population transitions (average number of years before movement)</t>
+  </si>
+  <si>
+    <t>Risk-related population transitions (average number of years before movement)</t>
+  </si>
+  <si>
+    <t>Interaction-related transmissibility (% per act)</t>
+  </si>
+  <si>
+    <t>Insertive penile-vaginal intercourse</t>
+  </si>
+  <si>
+    <t>Receptive penile-vaginal intercourse</t>
+  </si>
+  <si>
+    <t>Insertive penile-anal intercourse</t>
+  </si>
+  <si>
+    <t>Receptive penile-anal intercourse</t>
+  </si>
+  <si>
+    <t>Intravenous injection</t>
+  </si>
+  <si>
+    <t>Mother-to-child (breastfeeding)</t>
+  </si>
+  <si>
+    <t>Mother-to-child (non-breastfeeding)</t>
+  </si>
+  <si>
+    <t>Relative disease-related transmissibility</t>
+  </si>
+  <si>
+    <t>Acute infection</t>
+  </si>
+  <si>
+    <t>CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>Other costs</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Enabling environment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antiretroviral therapy</t>
+  </si>
+  <si>
+    <t>PMTCT</t>
+  </si>
+  <si>
+    <t>Prevention of mother-to-child transmission</t>
+  </si>
+  <si>
+    <t>MGMT</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Cost &amp; coverage</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Population size</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>HIV prevalence</t>
+  </si>
+  <si>
+    <t>Number of HIV tests per year</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Number of HIV diagnoses per year</t>
+  </si>
+  <si>
+    <t>Modeled estimate of new HIV infections per year</t>
+  </si>
+  <si>
+    <t>Modeled estimate of HIV prevalence</t>
+  </si>
+  <si>
+    <t>Number of HIV-related deaths</t>
+  </si>
+  <si>
+    <t>Number of people initiating ART each year</t>
+  </si>
+  <si>
+    <t>Percentage of people who die from non-HIV-related causes per year</t>
+  </si>
+  <si>
+    <t>Prevalence of any ulcerative STIs</t>
+  </si>
+  <si>
+    <t>Prevalence of any discharging STIs</t>
+  </si>
+  <si>
+    <t>Tuberculosis prevalence</t>
+  </si>
+  <si>
+    <t>Opiate substitution therapy</t>
+  </si>
+  <si>
+    <t>Pre-exposure prophylaxis</t>
+  </si>
+  <si>
+    <t>Disutility weights</t>
+  </si>
+  <si>
+    <t>Untreated HIV, acute</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(350-500)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(200-350)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(50-200)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(&lt;50)</t>
+  </si>
+  <si>
+    <t>Treated HIV</t>
+  </si>
+  <si>
+    <t>Consumer price index</t>
+  </si>
+  <si>
+    <t>Growth assumptions</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>Purchasing power parity</t>
+  </si>
+  <si>
+    <t>Gross domestic product</t>
+  </si>
+  <si>
+    <t>Government revenue</t>
+  </si>
+  <si>
+    <t>Government expenditure</t>
+  </si>
+  <si>
+    <t>Total domestic and international health expenditure</t>
+  </si>
+  <si>
+    <t>General government health expenditure</t>
+  </si>
+  <si>
+    <t>Domestic HIV spending</t>
+  </si>
+  <si>
+    <t>Global Fund HIV commitments</t>
+  </si>
+  <si>
+    <t>PEPFAR HIV commitments</t>
+  </si>
+  <si>
+    <t>Other international HIV commitments</t>
+  </si>
+  <si>
+    <t>Private HIV spending</t>
+  </si>
+  <si>
+    <t>HIV-related health care costs (excluding treatment)</t>
+  </si>
+  <si>
+    <t>Social mitigation costs</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with casual partners</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with commercial partners</t>
+  </si>
+  <si>
+    <t>Percentage of males who have been circumcised</t>
+  </si>
+  <si>
+    <t>Average number of injections per person per year</t>
+  </si>
+  <si>
+    <t>Average percentage of people who receptively shared a needle/syringe at last injection</t>
+  </si>
+  <si>
+    <t>This spreadsheet is divided into 12 sheets. All sheets need to be completed, except where noted below.</t>
+  </si>
+  <si>
+    <t>II. HOW TO ENTER DATA</t>
+  </si>
+  <si>
+    <t>Do not enter anything except actual data, apart from the small number of instances which allows optional input of output from other models for comparison and verification! Optima will fit to actual data and will interpolate between data points, so only enter data in the years that they belong. In addition, please feel free to add notes (either as comments for a given cell or in the blank cells to the right of each row) about the source of the data.</t>
+  </si>
+  <si>
+    <t>III. WHAT CAN BE LEFT BLANK</t>
+  </si>
+  <si>
+    <t>It can be confusing what can and cannot be left blank, but here are a few general principles:</t>
+  </si>
+  <si>
+    <t>* Nothing on the "Populations and programs" sheet can be blank.</t>
+  </si>
+  <si>
+    <t>CD4(500) to CD4(350-500)</t>
+  </si>
+  <si>
+    <t>CD4(200-350)</t>
+  </si>
+  <si>
+    <t>CD4(50-200)</t>
+  </si>
+  <si>
+    <t>CD4(&lt;50)</t>
+  </si>
+  <si>
+    <t>Disease progression rate (% per year)</t>
+  </si>
+  <si>
+    <t>Acute to CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(350,500) to CD4(200-350)</t>
+  </si>
+  <si>
+    <t>CD4(200-350) to CD4(50-200)</t>
+  </si>
+  <si>
+    <t>CD4(50-200) to CD4(&lt;50)</t>
+  </si>
+  <si>
+    <t>Treatment recovery rate (% per year)</t>
+  </si>
+  <si>
+    <t>CD4(350-500) to CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(200-350) to CD4(350-500)</t>
+  </si>
+  <si>
+    <t>CD4(50-200) to CD4(200-350)</t>
+  </si>
+  <si>
+    <t>CD4(&lt;50) to CD4(50-200)</t>
+  </si>
+  <si>
+    <t>Treatment failure rate (% per year)</t>
+  </si>
+  <si>
+    <t>First-line treatment</t>
+  </si>
+  <si>
+    <t>Second-line treatment</t>
+  </si>
+  <si>
+    <t>Death rate (% mortality per year)</t>
+  </si>
+  <si>
+    <t>CD4(350-500)</t>
+  </si>
+  <si>
+    <t>On treatment</t>
+  </si>
+  <si>
+    <t>Tuberculosis cofactor</t>
+  </si>
+  <si>
+    <t>Relative transmissibility</t>
+  </si>
+  <si>
+    <t>Condom use</t>
+  </si>
+  <si>
+    <t>Circumcision</t>
+  </si>
+  <si>
+    <t>Diagnosis behavior change</t>
+  </si>
+  <si>
+    <t>Ulcerative STI cofactor increase</t>
+  </si>
+  <si>
+    <t>Discharging STI cofactor increase</t>
+  </si>
+  <si>
+    <t>Clients of sex workers</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>Men who have sex with men</t>
+  </si>
+  <si>
+    <t>Males 15-49</t>
+  </si>
+  <si>
+    <t>Other males (15-49)</t>
+  </si>
+  <si>
+    <t>Females 15-49</t>
+  </si>
+  <si>
+    <t>Other females (15-49)</t>
+  </si>
+  <si>
+    <t>Programs</t>
+  </si>
+  <si>
+    <t>SBCC</t>
+  </si>
+  <si>
+    <t>General population prevention</t>
+  </si>
+  <si>
+    <t>FSW programs</t>
+  </si>
+  <si>
+    <t>Programs for female sex workers and clients</t>
+  </si>
+  <si>
+    <t>MSM programs</t>
+  </si>
+  <si>
+    <t>Programs for men who have sex with men</t>
+  </si>
+  <si>
+    <t>HTC</t>
+  </si>
+  <si>
+    <t>HIV testing and counseling</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
     <t>* For each parameter (as in, row in the worksheet), there needs to be at least one data point entered. The only exception to this is the sheet "Optional indicators", which may be left blank. If data are not available for a particular indicator, enter an assumption in the "Assumption" column, with a comment explaining how that value was derived.</t>
   </si>
   <si>
@@ -842,407 +1231,19 @@
   </si>
   <si>
     <t>I. LAYOUT OF THE SPREADSHEET</t>
-  </si>
-  <si>
-    <t>This spreadsheet is divided into 12 sheets. All sheets need to be completed, except where noted below.</t>
-  </si>
-  <si>
-    <t>II. HOW TO ENTER DATA</t>
-  </si>
-  <si>
-    <t>Do not enter anything except actual data, apart from the small number of instances which allows optional input of output from other models for comparison and verification! Optima will fit to actual data and will interpolate between data points, so only enter data in the years that they belong. In addition, please feel free to add notes (either as comments for a given cell or in the blank cells to the right of each row) about the source of the data.</t>
-  </si>
-  <si>
-    <t>III. WHAT CAN BE LEFT BLANK</t>
-  </si>
-  <si>
-    <t>It can be confusing what can and cannot be left blank, but here are a few general principles:</t>
-  </si>
-  <si>
-    <t>* Nothing on the "Populations and programs" sheet can be blank.</t>
-  </si>
-  <si>
-    <t>CD4(500) to CD4(350-500)</t>
-  </si>
-  <si>
-    <t>CD4(200-350)</t>
-  </si>
-  <si>
-    <t>CD4(50-200)</t>
-  </si>
-  <si>
-    <t>CD4(&lt;50)</t>
-  </si>
-  <si>
-    <t>Disease progression rate (% per year)</t>
-  </si>
-  <si>
-    <t>Acute to CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(350,500) to CD4(200-350)</t>
-  </si>
-  <si>
-    <t>CD4(200-350) to CD4(50-200)</t>
-  </si>
-  <si>
-    <t>CD4(50-200) to CD4(&lt;50)</t>
-  </si>
-  <si>
-    <t>Treatment recovery rate (% per year)</t>
-  </si>
-  <si>
-    <t>CD4(350-500) to CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(200-350) to CD4(350-500)</t>
-  </si>
-  <si>
-    <t>CD4(50-200) to CD4(200-350)</t>
-  </si>
-  <si>
-    <t>CD4(&lt;50) to CD4(50-200)</t>
-  </si>
-  <si>
-    <t>Treatment failure rate (% per year)</t>
-  </si>
-  <si>
-    <t>First-line treatment</t>
-  </si>
-  <si>
-    <t>Second-line treatment</t>
-  </si>
-  <si>
-    <t>Death rate (% mortality per year)</t>
-  </si>
-  <si>
-    <t>CD4(350-500)</t>
-  </si>
-  <si>
-    <t>On treatment</t>
-  </si>
-  <si>
-    <t>Tuberculosis cofactor</t>
-  </si>
-  <si>
-    <t>Relative transmissibility</t>
-  </si>
-  <si>
-    <t>Condom use</t>
-  </si>
-  <si>
-    <t>Circumcision</t>
-  </si>
-  <si>
-    <t>Diagnosis behavior change</t>
-  </si>
-  <si>
-    <t>Ulcerative STI cofactor increase</t>
-  </si>
-  <si>
-    <t>Discharging STI cofactor increase</t>
-  </si>
-  <si>
-    <t>Clients of sex workers</t>
-  </si>
-  <si>
-    <t>MSM</t>
-  </si>
-  <si>
-    <t>Men who have sex with men</t>
-  </si>
-  <si>
-    <t>Males 15-49</t>
-  </si>
-  <si>
-    <t>Other males (15-49)</t>
-  </si>
-  <si>
-    <t>Females 15-49</t>
-  </si>
-  <si>
-    <t>Other females (15-49)</t>
-  </si>
-  <si>
-    <t>Programs</t>
-  </si>
-  <si>
-    <t>SBCC</t>
-  </si>
-  <si>
-    <t>General population prevention</t>
-  </si>
-  <si>
-    <t>FSW programs</t>
-  </si>
-  <si>
-    <t>Programs for female sex workers and clients</t>
-  </si>
-  <si>
-    <t>MSM programs</t>
-  </si>
-  <si>
-    <t>Programs for men who have sex with men</t>
-  </si>
-  <si>
-    <t>HTC</t>
-  </si>
-  <si>
-    <t>HIV testing and counseling</t>
-  </si>
-  <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy</t>
-  </si>
-  <si>
-    <t>PMTCT</t>
-  </si>
-  <si>
-    <t>Prevention of mother-to-child transmission</t>
-  </si>
-  <si>
-    <t>MGMT</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>M&amp;E</t>
-  </si>
-  <si>
-    <t>Monitoring, evaluation, surveillance, and research</t>
-  </si>
-  <si>
-    <t>Cost &amp; coverage</t>
-  </si>
-  <si>
-    <t>Assumption</t>
-  </si>
-  <si>
-    <t>Coverage</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Population size</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>HIV prevalence</t>
-  </si>
-  <si>
-    <t>Number of HIV tests per year</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Number of HIV diagnoses per year</t>
-  </si>
-  <si>
-    <t>Modeled estimate of new HIV infections per year</t>
-  </si>
-  <si>
-    <t>Modeled estimate of HIV prevalence</t>
-  </si>
-  <si>
-    <t>Number of HIV-related deaths</t>
-  </si>
-  <si>
-    <t>Number of people initiating ART each year</t>
-  </si>
-  <si>
-    <t>Percentage of people who die from non-HIV-related causes per year</t>
-  </si>
-  <si>
-    <t>Prevalence of any ulcerative STIs</t>
-  </si>
-  <si>
-    <t>Prevalence of any discharging STIs</t>
-  </si>
-  <si>
-    <t>Tuberculosis prevalence</t>
-  </si>
-  <si>
-    <t>Opiate substitution therapy</t>
-  </si>
-  <si>
-    <t>Pre-exposure prophylaxis</t>
-  </si>
-  <si>
-    <t>Disutility weights</t>
-  </si>
-  <si>
-    <t>Untreated HIV, acute</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(350-500)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(200-350)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(50-200)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(&lt;50)</t>
-  </si>
-  <si>
-    <t>Treated HIV</t>
-  </si>
-  <si>
-    <t>Consumer price index</t>
-  </si>
-  <si>
-    <t>Growth assumptions</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>Purchasing power parity</t>
-  </si>
-  <si>
-    <t>Gross domestic product</t>
-  </si>
-  <si>
-    <t>Government revenue</t>
-  </si>
-  <si>
-    <t>Government expenditure</t>
-  </si>
-  <si>
-    <t>Total domestic and international health expenditure</t>
-  </si>
-  <si>
-    <t>General government health expenditure</t>
-  </si>
-  <si>
-    <t>Domestic HIV spending</t>
-  </si>
-  <si>
-    <t>Global Fund HIV commitments</t>
-  </si>
-  <si>
-    <t>PEPFAR HIV commitments</t>
-  </si>
-  <si>
-    <t>Other international HIV commitments</t>
-  </si>
-  <si>
-    <t>Private HIV spending</t>
-  </si>
-  <si>
-    <t>HIV-related health care costs (excluding treatment)</t>
-  </si>
-  <si>
-    <t>Social mitigation costs</t>
-  </si>
-  <si>
-    <t>Percentage of people who used a condom at last act with casual partners</t>
-  </si>
-  <si>
-    <t>Percentage of people who used a condom at last act with commercial partners</t>
-  </si>
-  <si>
-    <t>Percentage of males who have been circumcised</t>
-  </si>
-  <si>
-    <t>Average number of injections per person per year</t>
-  </si>
-  <si>
-    <t>Average percentage of people who receptively shared a needle/syringe at last injection</t>
-  </si>
-  <si>
-    <t>Number of people who inject drugs who are on opiate substitution therapy</t>
-  </si>
-  <si>
-    <t>Interactions between regular partners</t>
-  </si>
-  <si>
-    <t>Interactions between casual partners</t>
-  </si>
-  <si>
-    <t>Interactions between commercial partners</t>
-  </si>
-  <si>
-    <t>Interactions between people who inject drugs</t>
-  </si>
-  <si>
-    <t>Age-related population transitions (average number of years before movement)</t>
-  </si>
-  <si>
-    <t>Risk-related population transitions (average number of years before movement)</t>
-  </si>
-  <si>
-    <t>Interaction-related transmissibility (% per act)</t>
-  </si>
-  <si>
-    <t>Insertive penile-vaginal intercourse</t>
-  </si>
-  <si>
-    <t>Receptive penile-vaginal intercourse</t>
-  </si>
-  <si>
-    <t>Insertive penile-anal intercourse</t>
-  </si>
-  <si>
-    <t>Receptive penile-anal intercourse</t>
-  </si>
-  <si>
-    <t>Intravenous injection</t>
-  </si>
-  <si>
-    <t>Mother-to-child (breastfeeding)</t>
-  </si>
-  <si>
-    <t>Mother-to-child (non-breastfeeding)</t>
-  </si>
-  <si>
-    <t>Relative disease-related transmissibility</t>
-  </si>
-  <si>
-    <t>Acute infection</t>
-  </si>
-  <si>
-    <t>CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>Other costs</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1788,7 +1789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A29"/>
   <sheetViews>
@@ -1796,129 +1797,130 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="27"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="27"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="65" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="80" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="57" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:A3"/>
   </mergeCells>
@@ -1936,25 +1938,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+    <col min="3" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="C2" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -1976,7 +1978,7 @@
         <v>Females 15-49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -1987,7 +1989,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -2002,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -2017,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -2032,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -2043,12 +2045,12 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="C12" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2070,7 +2072,7 @@
         <v>Females 15-49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="B13" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2081,7 +2083,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="B14" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -2096,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="B15" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -2111,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="B16" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -2126,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="B17" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -2137,12 +2139,12 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="C22" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2164,7 +2166,7 @@
         <v>Females 15-49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="B23" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2175,7 +2177,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="B24" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -2188,7 +2190,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="B25" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -2199,7 +2201,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="B26" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -2210,7 +2212,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="B27" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -2221,12 +2223,12 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="C32" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2248,7 +2250,7 @@
         <v>Females 15-49</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2261,7 +2263,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -2272,7 +2274,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7">
       <c r="B35" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -2285,7 +2287,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7">
       <c r="B36" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -2296,7 +2298,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="B37" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -2308,6 +2310,7 @@
       <c r="G37" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2319,7 +2322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -2327,17 +2330,17 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+    <col min="3" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="C2" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2359,7 +2362,7 @@
         <v>Females 15-49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2370,7 +2373,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -2381,7 +2384,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -2392,7 +2395,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -2403,7 +2406,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -2414,12 +2417,12 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="C12" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2441,7 +2444,7 @@
         <v>Females 15-49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="B13" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -2454,7 +2457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="B14" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -2467,7 +2470,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="B15" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -2478,7 +2481,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="B16" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -2489,7 +2492,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -2501,6 +2504,7 @@
       <c r="G17" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2512,36 +2516,36 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="C2" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" s="5" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8">
         <v>4.0000000000000002E-4</v>
@@ -2553,9 +2557,9 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="B4" s="5" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8">
         <v>8.0000000000000004E-4</v>
@@ -2567,9 +2571,9 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="B5" s="5" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="C5" s="8">
         <v>1.38E-2</v>
@@ -2581,9 +2585,9 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="C6" s="8">
         <v>1.1000000000000001E-3</v>
@@ -2595,9 +2599,9 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7" s="5" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8">
         <v>8.0000000000000002E-3</v>
@@ -2609,9 +2613,9 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8" s="5" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8">
         <v>0.36699999999999999</v>
@@ -2623,9 +2627,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9" s="5" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C9" s="8">
         <v>0.20499999999999999</v>
@@ -2637,25 +2641,25 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="C14" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="B15" s="5" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="C15" s="11">
         <v>26.03</v>
@@ -2667,9 +2671,9 @@
         <v>48.02</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16" s="5" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
@@ -2681,9 +2685,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
@@ -2695,9 +2699,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C18" s="11">
         <v>1</v>
@@ -2709,9 +2713,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C19" s="11">
         <v>3.49</v>
@@ -2723,9 +2727,9 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C20" s="11">
         <v>7.17</v>
@@ -2737,25 +2741,25 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="C25" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C26" s="12">
         <v>4.1399999999999997</v>
@@ -2767,9 +2771,9 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="B27" s="5" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C27" s="12">
         <v>1.05</v>
@@ -2781,9 +2785,9 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="B28" s="5" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C28" s="12">
         <v>0.33</v>
@@ -2795,9 +2799,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C29" s="12">
         <v>0.27</v>
@@ -2809,9 +2813,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C30" s="12">
         <v>0.67</v>
@@ -2823,25 +2827,25 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="C35" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C36" s="12">
         <v>0.45</v>
@@ -2853,9 +2857,9 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="B37" s="5" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C37" s="12">
         <v>0.7</v>
@@ -2867,9 +2871,9 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="B38" s="5" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C38" s="12">
         <v>0.47</v>
@@ -2881,9 +2885,9 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="B39" s="5" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C39" s="12">
         <v>1.52</v>
@@ -2895,25 +2899,25 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="C44" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="B45" s="5" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C45" s="12">
         <v>0.1</v>
@@ -2925,9 +2929,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="B46" s="5" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C46" s="12">
         <v>0.16</v>
@@ -2939,25 +2943,25 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="C51" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="B52" s="5" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="C52" s="8">
         <v>3.5999999999999999E-3</v>
@@ -2969,9 +2973,9 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="B53" s="5" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="C53" s="8">
         <v>3.5999999999999999E-3</v>
@@ -2983,9 +2987,9 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="B54" s="5" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C54" s="8">
         <v>5.7999999999999996E-3</v>
@@ -2997,9 +3001,9 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="B55" s="5" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C55" s="8">
         <v>8.8000000000000005E-3</v>
@@ -3011,9 +3015,9 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="B56" s="5" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C56" s="8">
         <v>5.8999999999999997E-2</v>
@@ -3025,9 +3029,9 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="B57" s="5" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C57" s="8">
         <v>0.32300000000000001</v>
@@ -3039,9 +3043,9 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="B58" s="5" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C58" s="8">
         <v>0.23</v>
@@ -3053,9 +3057,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="B59" s="5" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C59" s="8">
         <v>2.17</v>
@@ -3067,25 +3071,25 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="C64" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="B65" s="5" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C65" s="12">
         <v>0.05</v>
@@ -3097,9 +3101,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="B66" s="5" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C66" s="12">
         <v>0.42</v>
@@ -3111,9 +3115,9 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="B67" s="5" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C67" s="12">
         <v>1</v>
@@ -3125,9 +3129,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="B68" s="5" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C68" s="12">
         <v>2.65</v>
@@ -3139,9 +3143,9 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="B69" s="5" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C69" s="12">
         <v>1</v>
@@ -3153,9 +3157,9 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="B70" s="5" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="C70" s="12">
         <v>0.46</v>
@@ -3167,9 +3171,9 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="B71" s="5" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="C71" s="12">
         <v>0.1</v>
@@ -3181,9 +3185,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="B72" s="5" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="C72" s="12">
         <v>0.3</v>
@@ -3195,9 +3199,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="B73" s="5" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="C73" s="12">
         <v>0.27500000000000002</v>
@@ -3209,25 +3213,25 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="C78" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="B79" s="5" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C79" s="11">
         <v>0.14599999999999999</v>
@@ -3239,9 +3243,9 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="B80" s="5" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="C80" s="11">
         <v>8.0000000000000002E-3</v>
@@ -3253,9 +3257,9 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5">
       <c r="B81" s="5" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C81" s="11">
         <v>0.02</v>
@@ -3267,9 +3271,9 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5">
       <c r="B82" s="5" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -3281,9 +3285,9 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5">
       <c r="B83" s="5" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C83" s="11">
         <v>0.26500000000000001</v>
@@ -3295,9 +3299,9 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5">
       <c r="B84" s="5" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="C84" s="11">
         <v>0.54700000000000004</v>
@@ -3309,9 +3313,9 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5">
       <c r="B85" s="5" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C85" s="11">
         <v>5.2999999999999999E-2</v>
@@ -3324,6 +3328,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3335,7 +3340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AA91"/>
   <sheetViews>
@@ -3343,17 +3348,17 @@
       <selection activeCell="AD82" sqref="AD82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" s="4" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -3418,18 +3423,18 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="B3" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C3" s="22">
         <v>41.670326870927902</v>
@@ -3481,7 +3486,7 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y3" s="12">
         <v>0.2</v>
@@ -3493,12 +3498,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="A7" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="C8" s="6">
         <v>2000</v>
       </c>
@@ -3563,18 +3568,18 @@
         <v>2020</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="B9" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C9" s="23">
         <v>0.482758166845627</v>
@@ -3626,7 +3631,7 @@
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
       <c r="X9" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y9" s="12">
         <v>0.4</v>
@@ -3638,12 +3643,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="A13" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="C14" s="6">
         <v>2000</v>
       </c>
@@ -3708,18 +3713,18 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="B15" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C15" s="13">
         <v>12257299147.293604</v>
@@ -3771,7 +3776,7 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y15" s="12">
         <v>0.05</v>
@@ -3783,12 +3788,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27">
       <c r="A19" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="C20" s="6">
         <v>2000</v>
       </c>
@@ -3853,18 +3858,18 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="B21" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -3888,18 +3893,18 @@
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="A25" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="C26" s="6">
         <v>2000</v>
       </c>
@@ -3964,18 +3969,18 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="B27" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -3999,18 +4004,18 @@
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
       <c r="X27" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27">
       <c r="A31" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="C32" s="6">
         <v>2000</v>
       </c>
@@ -4075,18 +4080,18 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="B33" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -4110,18 +4115,18 @@
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27">
       <c r="A37" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="C38" s="6">
         <v>2000</v>
       </c>
@@ -4186,18 +4191,18 @@
         <v>2020</v>
       </c>
       <c r="Y38" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="B39" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -4221,18 +4226,18 @@
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
       <c r="X39" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27">
       <c r="A43" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="C44" s="6">
         <v>2000</v>
       </c>
@@ -4297,18 +4302,18 @@
         <v>2020</v>
       </c>
       <c r="Y44" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="B45" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -4332,18 +4337,18 @@
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
       <c r="X45" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27">
       <c r="A49" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="C50" s="6">
         <v>2000</v>
       </c>
@@ -4408,18 +4413,18 @@
         <v>2020</v>
       </c>
       <c r="Y50" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA50" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="B51" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -4443,18 +4448,18 @@
       <c r="V51" s="10"/>
       <c r="W51" s="10"/>
       <c r="X51" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27">
       <c r="A55" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="C56" s="6">
         <v>2000</v>
       </c>
@@ -4519,18 +4524,18 @@
         <v>2020</v>
       </c>
       <c r="Y56" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z56" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="B57" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -4554,18 +4559,18 @@
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
       <c r="X57" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27">
       <c r="A61" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="C62" s="6">
         <v>2000</v>
       </c>
@@ -4630,18 +4635,18 @@
         <v>2020</v>
       </c>
       <c r="Y62" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z62" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA62" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="B63" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -4665,18 +4670,18 @@
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
       <c r="X63" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
       <c r="AA63" s="10"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27">
       <c r="A67" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="C68" s="6">
         <v>2000</v>
       </c>
@@ -4741,18 +4746,18 @@
         <v>2020</v>
       </c>
       <c r="Y68" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z68" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA68" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="B69" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -4776,18 +4781,18 @@
       <c r="V69" s="10"/>
       <c r="W69" s="10"/>
       <c r="X69" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27">
       <c r="A73" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="C74" s="6">
         <v>2000</v>
       </c>
@@ -4852,18 +4857,18 @@
         <v>2020</v>
       </c>
       <c r="Y74" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z74" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="B75" s="6" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -4889,7 +4894,7 @@
       <c r="V75" s="11"/>
       <c r="W75" s="11"/>
       <c r="X75" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y75" s="24">
         <v>0.03</v>
@@ -4901,9 +4906,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27">
       <c r="B76" s="6" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -4929,7 +4934,7 @@
       <c r="V76" s="11"/>
       <c r="W76" s="11"/>
       <c r="X76" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y76" s="24">
         <v>0.03</v>
@@ -4941,9 +4946,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27">
       <c r="B77" s="6" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -4969,7 +4974,7 @@
       <c r="V77" s="11"/>
       <c r="W77" s="11"/>
       <c r="X77" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y77" s="24">
         <v>0.03</v>
@@ -4981,9 +4986,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27">
       <c r="B78" s="6" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -5009,7 +5014,7 @@
       <c r="V78" s="11"/>
       <c r="W78" s="11"/>
       <c r="X78" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y78" s="24">
         <v>0.03</v>
@@ -5021,9 +5026,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27">
       <c r="B79" s="6" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -5049,7 +5054,7 @@
       <c r="V79" s="11"/>
       <c r="W79" s="11"/>
       <c r="X79" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y79" s="24">
         <v>0.03</v>
@@ -5061,9 +5066,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27">
       <c r="B80" s="6" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -5089,7 +5094,7 @@
       <c r="V80" s="11"/>
       <c r="W80" s="11"/>
       <c r="X80" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y80" s="24">
         <v>0.03</v>
@@ -5101,22 +5106,22 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27">
       <c r="Y81" s="25"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27">
       <c r="Y82" s="25"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27">
       <c r="Y83" s="25"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27">
       <c r="A84" s="4" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="Y84" s="25"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27">
       <c r="C85" s="6">
         <v>2000</v>
       </c>
@@ -5181,18 +5186,18 @@
         <v>2020</v>
       </c>
       <c r="Y85" s="26" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Z85" s="26" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="AA85" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
       <c r="B86" s="6" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -5218,7 +5223,7 @@
       <c r="V86" s="11"/>
       <c r="W86" s="11"/>
       <c r="X86" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y86" s="24">
         <v>0.03</v>
@@ -5230,9 +5235,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27">
       <c r="B87" s="6" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -5258,7 +5263,7 @@
       <c r="V87" s="11"/>
       <c r="W87" s="11"/>
       <c r="X87" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y87" s="24">
         <v>0.03</v>
@@ -5270,9 +5275,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27">
       <c r="B88" s="6" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -5298,7 +5303,7 @@
       <c r="V88" s="11"/>
       <c r="W88" s="11"/>
       <c r="X88" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y88" s="24">
         <v>0.03</v>
@@ -5310,9 +5315,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27">
       <c r="B89" s="6" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -5338,7 +5343,7 @@
       <c r="V89" s="11"/>
       <c r="W89" s="11"/>
       <c r="X89" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y89" s="24">
         <v>0.03</v>
@@ -5350,9 +5355,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27">
       <c r="B90" s="6" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -5378,7 +5383,7 @@
       <c r="V90" s="11"/>
       <c r="W90" s="11"/>
       <c r="X90" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y90" s="24">
         <v>0.03</v>
@@ -5390,9 +5395,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27">
       <c r="B91" s="6" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -5418,7 +5423,7 @@
       <c r="V91" s="11"/>
       <c r="W91" s="11"/>
       <c r="X91" s="9" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="Y91" s="24">
         <v>0.03</v>
@@ -5431,6 +5436,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5442,330 +5448,331 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="40.75" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="C12" s="5" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="B15" s="6">
         <v>3</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16" s="6">
         <v>4</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="6">
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="6">
         <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="6">
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="6">
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="6">
         <v>9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5777,25 +5784,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="D2" s="6">
         <v>2000</v>
       </c>
@@ -5860,16 +5867,16 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$13</f>
         <v>SBCC</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -5895,17 +5902,17 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$13</f>
         <v>SBCC</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -5931,17 +5938,17 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="10"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="B6" s="6" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>FSW programs</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -5967,17 +5974,17 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$14</f>
         <v>FSW programs</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6003,17 +6010,17 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z7" s="10"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="B9" s="6" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>MSM programs</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -6039,17 +6046,17 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="B10" s="6" t="str">
         <f>'Populations &amp; programs'!$C$15</f>
         <v>MSM programs</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6075,17 +6082,17 @@
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z10" s="10"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="B12" s="6" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>HTC</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -6111,17 +6118,17 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="B13" s="6" t="str">
         <f>'Populations &amp; programs'!$C$16</f>
         <v>HTC</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6147,17 +6154,17 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z13" s="10"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="6" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>ART</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -6183,17 +6190,17 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="6" t="str">
         <f>'Populations &amp; programs'!$C$17</f>
         <v>ART</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -6219,17 +6226,17 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z16" s="10"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26">
       <c r="B18" s="6" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>PMTCT</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -6255,17 +6262,17 @@
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="B19" s="6" t="str">
         <f>'Populations &amp; programs'!$C$18</f>
         <v>PMTCT</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6291,17 +6298,17 @@
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z19" s="10"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21" s="6" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>MGMT</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -6325,17 +6332,17 @@
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26">
       <c r="B22" s="6" t="str">
         <f>'Populations &amp; programs'!$C$19</f>
         <v>MGMT</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6361,17 +6368,17 @@
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z22" s="10"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="B24" s="6" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
-        <v>M&amp;E</v>
+        <v>ENV</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -6395,17 +6402,17 @@
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25" s="6" t="str">
         <f>'Populations &amp; programs'!$C$20</f>
-        <v>M&amp;E</v>
+        <v>ENV</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -6431,17 +6438,17 @@
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z25" s="10"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26">
       <c r="B27" s="6" t="str">
         <f>'Populations &amp; programs'!$C$21</f>
         <v>Other</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -6465,17 +6472,17 @@
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26">
       <c r="B28" s="6" t="str">
         <f>'Populations &amp; programs'!$C$21</f>
         <v>Other</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -6501,11 +6508,12 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z28" s="10"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6518,22 +6526,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="D2" s="6">
         <v>2000</v>
       </c>
@@ -6598,16 +6606,16 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -6631,17 +6639,17 @@
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D4" s="13">
         <v>139172.68199999997</v>
@@ -6687,17 +6695,17 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="B5" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -6721,17 +6729,17 @@
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6755,17 +6763,17 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D8" s="13">
         <v>979330.74050000007</v>
@@ -6811,17 +6819,17 @@
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="B9" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -6845,17 +6853,17 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z9" s="10"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="B11" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -6879,17 +6887,17 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="B12" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D12" s="13">
         <v>96306.278800000015</v>
@@ -6935,17 +6943,17 @@
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="B13" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6969,17 +6977,17 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z13" s="10"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -7003,17 +7011,17 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D16" s="10">
         <v>5431543.9807000002</v>
@@ -7059,17 +7067,17 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="B17" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -7093,17 +7101,17 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z17" s="10"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="B19" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -7127,17 +7135,17 @@
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="B20" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D20" s="10">
         <v>6333671.4559585694</v>
@@ -7183,17 +7191,17 @@
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="B21" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -7217,16 +7225,16 @@
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z21" s="10"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="D27" s="6">
         <v>2000</v>
       </c>
@@ -7291,16 +7299,16 @@
         <v>2020</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="B28" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -7324,17 +7332,17 @@
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="B29" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -7360,17 +7368,17 @@
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="B30" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -7394,17 +7402,17 @@
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z30" s="8"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="B32" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -7428,17 +7436,17 @@
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26">
       <c r="B33" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -7464,17 +7472,17 @@
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26">
       <c r="B34" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -7498,17 +7506,17 @@
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z34" s="8"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26">
       <c r="B36" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -7532,17 +7540,17 @@
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z36" s="8"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26">
       <c r="B37" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -7568,17 +7576,17 @@
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z37" s="8"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26">
       <c r="B38" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -7602,17 +7610,17 @@
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z38" s="8"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26">
       <c r="B40" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -7636,17 +7644,17 @@
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z40" s="8"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26">
       <c r="B41" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -7676,17 +7684,17 @@
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z41" s="8"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26">
       <c r="B42" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -7710,17 +7718,17 @@
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z42" s="8"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26">
       <c r="B44" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -7744,17 +7752,17 @@
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z44" s="8"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26">
       <c r="B45" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -7784,17 +7792,17 @@
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z45" s="8"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26">
       <c r="B46" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -7818,11 +7826,12 @@
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Z46" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7835,7 +7844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
@@ -7843,14 +7852,14 @@
       <selection activeCell="C27" sqref="C27:P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -7915,12 +7924,12 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -7958,16 +7967,16 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="11"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="C8" s="6">
         <v>2000</v>
       </c>
@@ -8032,12 +8041,12 @@
         <v>2020</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="B9" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -8063,16 +8072,16 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y9" s="11"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="C14" s="6">
         <v>2000</v>
       </c>
@@ -8137,12 +8146,12 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="B15" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C15" s="16">
         <v>3121.27</v>
@@ -8194,16 +8203,16 @@
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y15" s="11"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="C20" s="6">
         <v>2000</v>
       </c>
@@ -8268,12 +8277,12 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="B21" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C21" s="11">
         <v>0.11</v>
@@ -8325,16 +8334,16 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y21" s="11"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="C26" s="6">
         <v>2000</v>
       </c>
@@ -8399,12 +8408,12 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="B27" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C27" s="16">
         <v>714</v>
@@ -8456,16 +8465,16 @@
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y27" s="11"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="C32" s="6">
         <v>2000</v>
       </c>
@@ -8530,12 +8539,12 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25">
       <c r="B33" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -8559,11 +8568,12 @@
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y33" s="11"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8576,7 +8586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y37"/>
   <sheetViews>
@@ -8584,14 +8594,14 @@
       <selection activeCell="O36" sqref="O36:O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -8656,10 +8666,10 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -8686,13 +8696,13 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -8719,13 +8729,13 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -8752,13 +8762,13 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -8785,13 +8795,13 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y6" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -8818,18 +8828,18 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y7" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="C12" s="6">
         <v>2000</v>
       </c>
@@ -8894,10 +8904,10 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="B13" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -8926,11 +8936,11 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="B14" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -8957,13 +8967,13 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y14" s="8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="B15" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -8992,11 +9002,11 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y15" s="8"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="B16" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -9023,13 +9033,13 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y16" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -9056,18 +9066,18 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y17" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="C22" s="6">
         <v>2000</v>
       </c>
@@ -9132,10 +9142,10 @@
         <v>2020</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="B23" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -9164,11 +9174,11 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="B24" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -9195,13 +9205,13 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y24" s="8">
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="B25" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -9230,11 +9240,11 @@
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="B26" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -9261,13 +9271,13 @@
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y26" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="B27" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -9294,18 +9304,18 @@
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
       <c r="X27" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y27" s="8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="C32" s="6">
         <v>2000</v>
       </c>
@@ -9370,10 +9380,10 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25">
       <c r="B33" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -9403,11 +9413,11 @@
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
       <c r="X33" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25">
       <c r="B34" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -9437,11 +9447,11 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
       <c r="X34" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25">
       <c r="B35" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -9471,11 +9481,11 @@
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
       <c r="X35" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25">
       <c r="B36" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -9505,11 +9515,11 @@
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
       <c r="X36" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25">
       <c r="B37" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -9539,11 +9549,12 @@
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
       <c r="X37" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y37" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9556,7 +9567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y60"/>
   <sheetViews>
@@ -9564,14 +9575,14 @@
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -9636,10 +9647,10 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -9670,11 +9681,11 @@
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
       <c r="X3" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -9703,11 +9714,11 @@
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="12"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -9736,11 +9747,11 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="12"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -9769,11 +9780,11 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -9802,16 +9813,16 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y7" s="12"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="C12" s="6">
         <v>2000</v>
       </c>
@@ -9876,12 +9887,12 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -9907,16 +9918,16 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y13" s="7"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="C18" s="6">
         <v>2000</v>
       </c>
@@ -9981,12 +9992,12 @@
         <v>2020</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="B19" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -10022,16 +10033,16 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y19" s="7"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="C24" s="6">
         <v>2000</v>
       </c>
@@ -10096,12 +10107,12 @@
         <v>2020</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="B25" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -10137,16 +10148,16 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y25" s="7"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="C30" s="6">
         <v>2000</v>
       </c>
@@ -10211,12 +10222,12 @@
         <v>2020</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="B31" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -10262,16 +10273,16 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y31" s="7"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="C36" s="6">
         <v>2000</v>
       </c>
@@ -10336,10 +10347,10 @@
         <v>2020</v>
       </c>
       <c r="Y36" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="B37" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -10366,13 +10377,13 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y37" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="B38" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -10399,13 +10410,13 @@
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
       <c r="X38" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y38" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="B39" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -10432,13 +10443,13 @@
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
       <c r="X39" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y39" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="B40" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -10465,13 +10476,13 @@
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y40" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="B41" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -10498,18 +10509,18 @@
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
       <c r="X41" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y41" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="C46" s="6">
         <v>2000</v>
       </c>
@@ -10574,12 +10585,12 @@
         <v>2020</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="B47" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10607,16 +10618,16 @@
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
       <c r="X47" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y47" s="7"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="C52" s="6">
         <v>2000</v>
       </c>
@@ -10681,10 +10692,10 @@
         <v>2020</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="B53" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -10739,11 +10750,11 @@
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
       <c r="X53" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y53" s="11"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="B54" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -10798,16 +10809,16 @@
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
       <c r="X54" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y54" s="11"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="A58" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="C59" s="6">
         <v>2000</v>
       </c>
@@ -10872,12 +10883,12 @@
         <v>2020</v>
       </c>
       <c r="Y59" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="B60" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -10903,11 +10914,12 @@
       <c r="V60" s="12"/>
       <c r="W60" s="12"/>
       <c r="X60" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y60" s="12"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10920,7 +10932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y65"/>
   <sheetViews>
@@ -10928,14 +10940,14 @@
       <selection activeCell="M63" sqref="M63:M65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -11000,10 +11012,10 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -11032,11 +11044,11 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -11065,11 +11077,11 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -11098,11 +11110,11 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -11131,11 +11143,11 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -11164,16 +11176,16 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y7" s="7"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="C12" s="6">
         <v>2000</v>
       </c>
@@ -11238,10 +11250,10 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="B13" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -11270,11 +11282,11 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="B14" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -11303,11 +11315,11 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="B15" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -11336,11 +11348,11 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="B16" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -11369,11 +11381,11 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y16" s="7"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -11402,16 +11414,16 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y17" s="7"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="C22" s="6">
         <v>2000</v>
       </c>
@@ -11476,10 +11488,10 @@
         <v>2020</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="B23" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -11508,11 +11520,11 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="B24" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -11541,11 +11553,11 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y24" s="7"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="B25" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -11572,11 +11584,11 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="B26" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -11603,11 +11615,11 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y26" s="7"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="B27" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -11634,16 +11646,16 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y27" s="7"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="C32" s="6">
         <v>2000</v>
       </c>
@@ -11708,10 +11720,10 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="B33" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -11740,11 +11752,11 @@
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="X33" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y33" s="12"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="B34" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -11773,11 +11785,11 @@
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="B35" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -11806,11 +11818,11 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y35" s="12"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="B36" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -11839,11 +11851,11 @@
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="X36" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="B37" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -11872,16 +11884,16 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y37" s="12"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="A41" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="C42" s="6">
         <v>2000</v>
       </c>
@@ -11946,10 +11958,10 @@
         <v>2020</v>
       </c>
       <c r="Y42" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="B43" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -11978,11 +11990,11 @@
       <c r="V43" s="12"/>
       <c r="W43" s="12"/>
       <c r="X43" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y43" s="12"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="B44" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -12011,11 +12023,11 @@
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
       <c r="X44" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y44" s="12"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="B45" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -12044,11 +12056,11 @@
       <c r="V45" s="12"/>
       <c r="W45" s="12"/>
       <c r="X45" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y45" s="12"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="B46" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -12077,11 +12089,11 @@
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
       <c r="X46" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y46" s="12"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="B47" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -12110,16 +12122,16 @@
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
       <c r="X47" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y47" s="12"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="C52" s="6">
         <v>2000</v>
       </c>
@@ -12184,10 +12196,10 @@
         <v>2020</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="B53" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -12216,11 +12228,11 @@
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
       <c r="X53" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y53" s="12"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="B54" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -12249,11 +12261,11 @@
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
       <c r="X54" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y54" s="12"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="B55" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -12280,13 +12292,13 @@
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
       <c r="X55" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y55" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="B56" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -12313,13 +12325,13 @@
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
       <c r="X56" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y56" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="B57" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -12346,18 +12358,18 @@
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
       <c r="X57" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y57" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="C62" s="6">
         <v>2000</v>
       </c>
@@ -12422,10 +12434,10 @@
         <v>2020</v>
       </c>
       <c r="Y62" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="B63" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -12454,11 +12466,11 @@
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
       <c r="X63" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y63" s="12"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="B64" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -12487,11 +12499,11 @@
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
       <c r="X64" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y64" s="12"/>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:25">
       <c r="B65" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -12520,11 +12532,12 @@
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
       <c r="X65" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y65" s="12"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12537,7 +12550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y23"/>
   <sheetViews>
@@ -12545,14 +12558,14 @@
       <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="C2" s="6">
         <v>2000</v>
       </c>
@@ -12617,10 +12630,10 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -12649,11 +12662,11 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="B4" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -12680,13 +12693,13 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -12715,11 +12728,11 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -12746,13 +12759,13 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y6" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -12779,18 +12792,18 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="C12" s="6">
         <v>2000</v>
       </c>
@@ -12855,10 +12868,10 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="B13" s="6" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>FSW</v>
@@ -12885,13 +12898,13 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y13" s="12">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="B14" s="6" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Clients</v>
@@ -12918,13 +12931,13 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y14" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="B15" s="6" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>MSM</v>
@@ -12951,13 +12964,13 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y15" s="12">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="B16" s="6" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Males 15-49</v>
@@ -12984,13 +12997,13 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y16" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="B17" s="6" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Females 15-49</v>
@@ -13017,18 +13030,18 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y17" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="C22" s="6">
         <v>2000</v>
       </c>
@@ -13093,12 +13106,12 @@
         <v>2020</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="B23" s="6" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -13122,13 +13135,14 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="Y23" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/server/src/static/sudanexample.xlsx
+++ b/server/src/static/sudanexample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="21240" windowHeight="13300" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="21240" windowHeight="13300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -730,6 +730,321 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="167">
   <si>
+    <t>Number (or percentage) of women on PMTCT (Option B/B+)</t>
+  </si>
+  <si>
+    <t>Birth rate (births per woman per year)</t>
+  </si>
+  <si>
+    <t>Percentage of HIV-positive women who breastfeed</t>
+  </si>
+  <si>
+    <t>Average number of acts with regular partners per person per year</t>
+  </si>
+  <si>
+    <t>Average number of acts with casual partners per person per year</t>
+  </si>
+  <si>
+    <t>Average number of acts with commercial partners per person per year</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with regular partners</t>
+  </si>
+  <si>
+    <t>O P T I M A</t>
+  </si>
+  <si>
+    <t>Welcome to the Optima data entry spreadsheet. This is where all data for the model will be entered. At first glance the spreadsheet looks complicated and confusing. Unfortunately, it is. So please ask someone from the Optima development team if you need help, or use the default contact (info@optimamodel.com).</t>
+  </si>
+  <si>
+    <t>I. LAYOUT OF THE SPREADSHEET</t>
+  </si>
+  <si>
+    <t>Treatment failure rate (% per year)</t>
+  </si>
+  <si>
+    <t>First-line treatment</t>
+  </si>
+  <si>
+    <t>Second-line treatment</t>
+  </si>
+  <si>
+    <t>Death rate (% mortality per year)</t>
+  </si>
+  <si>
+    <t>CD4(350-500)</t>
+  </si>
+  <si>
+    <t>On treatment</t>
+  </si>
+  <si>
+    <t>Tuberculosis cofactor</t>
+  </si>
+  <si>
+    <t>Relative transmissibility</t>
+  </si>
+  <si>
+    <t>Condom use</t>
+  </si>
+  <si>
+    <t>Circumcision</t>
+  </si>
+  <si>
+    <t>Diagnosis behavior change</t>
+  </si>
+  <si>
+    <t>Ulcerative STI cofactor increase</t>
+  </si>
+  <si>
+    <t>Discharging STI cofactor increase</t>
+  </si>
+  <si>
+    <t>Clients of sex workers</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>Men who have sex with men</t>
+  </si>
+  <si>
+    <t>Males 15-49</t>
+  </si>
+  <si>
+    <t>Other males (15-49)</t>
+  </si>
+  <si>
+    <t>Females 15-49</t>
+  </si>
+  <si>
+    <t>Other females (15-49)</t>
+  </si>
+  <si>
+    <t>Programs</t>
+  </si>
+  <si>
+    <t>SBCC</t>
+  </si>
+  <si>
+    <t>General population prevention</t>
+  </si>
+  <si>
+    <t>FSW programs</t>
+  </si>
+  <si>
+    <t>Programs for female sex workers and clients</t>
+  </si>
+  <si>
+    <t>MSM programs</t>
+  </si>
+  <si>
+    <t>Programs for men who have sex with men</t>
+  </si>
+  <si>
+    <t>HTC</t>
+  </si>
+  <si>
+    <t>HIV testing and counseling</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>* For each parameter (as in, row in the worksheet), there needs to be at least one data point entered. The only exception to this is the sheet "Optional indicators", which may be left blank. If data are not available for a particular indicator, enter an assumption in the "Assumption" column, with a comment explaining how that value was derived.</t>
+  </si>
+  <si>
+    <t>* Economic data only need to be entered if you are performing economic analyses.</t>
+  </si>
+  <si>
+    <t>If a parameter is left completely blank, it will be assumed to be zero.</t>
+  </si>
+  <si>
+    <t>IV. QUESTIONS</t>
+  </si>
+  <si>
+    <t>If you have any questions, please contact us on</t>
+  </si>
+  <si>
+    <t>info@optimamodel.com</t>
+  </si>
+  <si>
+    <t>Populations</t>
+  </si>
+  <si>
+    <t>Short name</t>
+  </si>
+  <si>
+    <t>Long name</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Injects</t>
+  </si>
+  <si>
+    <t>Has sex with men</t>
+  </si>
+  <si>
+    <t>Has sex with women</t>
+  </si>
+  <si>
+    <t>Sex worker</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>FSW</t>
+  </si>
+  <si>
+    <t>Female sex workers</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Percentage of population tested for HIV in the last 12 months</t>
+  </si>
+  <si>
+    <t>Probability of a person with CD4 &lt;200 being tested per year</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Number of people on first-line treatment</t>
+  </si>
+  <si>
+    <t>Number of people on subsequent lines of treatment</t>
+  </si>
+  <si>
+    <t>Treatment eligibility criterion</t>
+  </si>
+  <si>
+    <t>Percentage of people covered by pre-exposure prophylaxis</t>
+  </si>
+  <si>
+    <t>Gross domestic product</t>
+  </si>
+  <si>
+    <t>Government revenue</t>
+  </si>
+  <si>
+    <t>Government expenditure</t>
+  </si>
+  <si>
+    <t>Total domestic and international health expenditure</t>
+  </si>
+  <si>
+    <t>General government health expenditure</t>
+  </si>
+  <si>
+    <t>Domestic HIV spending</t>
+  </si>
+  <si>
+    <t>Global Fund HIV commitments</t>
+  </si>
+  <si>
+    <t>PEPFAR HIV commitments</t>
+  </si>
+  <si>
+    <t>Other international HIV commitments</t>
+  </si>
+  <si>
+    <t>Private HIV spending</t>
+  </si>
+  <si>
+    <t>HIV-related health care costs (excluding treatment)</t>
+  </si>
+  <si>
+    <t>Social mitigation costs</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with casual partners</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with commercial partners</t>
+  </si>
+  <si>
+    <t>Percentage of males who have been circumcised</t>
+  </si>
+  <si>
+    <t>Average number of injections per person per year</t>
+  </si>
+  <si>
+    <t>Average percentage of people who receptively shared a needle/syringe at last injection</t>
+  </si>
+  <si>
+    <t>This spreadsheet is divided into 12 sheets. All sheets need to be completed, except where noted below.</t>
+  </si>
+  <si>
+    <t>II. HOW TO ENTER DATA</t>
+  </si>
+  <si>
+    <t>Do not enter anything except actual data, apart from the small number of instances which allows optional input of output from other models for comparison and verification! Optima will fit to actual data and will interpolate between data points, so only enter data in the years that they belong. In addition, please feel free to add notes (either as comments for a given cell or in the blank cells to the right of each row) about the source of the data.</t>
+  </si>
+  <si>
+    <t>III. WHAT CAN BE LEFT BLANK</t>
+  </si>
+  <si>
+    <t>It can be confusing what can and cannot be left blank, but here are a few general principles:</t>
+  </si>
+  <si>
+    <t>* Nothing on the "Populations and programs" sheet can be blank.</t>
+  </si>
+  <si>
+    <t>CD4(500) to CD4(350-500)</t>
+  </si>
+  <si>
+    <t>CD4(200-350)</t>
+  </si>
+  <si>
+    <t>CD4(50-200)</t>
+  </si>
+  <si>
+    <t>CD4(&lt;50)</t>
+  </si>
+  <si>
+    <t>Disease progression rate (% per year)</t>
+  </si>
+  <si>
+    <t>Acute to CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(350,500) to CD4(200-350)</t>
+  </si>
+  <si>
+    <t>CD4(200-350) to CD4(50-200)</t>
+  </si>
+  <si>
+    <t>CD4(50-200) to CD4(&lt;50)</t>
+  </si>
+  <si>
+    <t>Treatment recovery rate (% per year)</t>
+  </si>
+  <si>
+    <t>CD4(350-500) to CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(200-350) to CD4(350-500)</t>
+  </si>
+  <si>
+    <t>CD4(50-200) to CD4(200-350)</t>
+  </si>
+  <si>
+    <t>CD4(&lt;50) to CD4(50-200)</t>
+  </si>
+  <si>
     <t>Number of people who inject drugs who are on opiate substitution therapy</t>
   </si>
   <si>
@@ -916,321 +1231,6 @@
   </si>
   <si>
     <t>Purchasing power parity</t>
-  </si>
-  <si>
-    <t>Gross domestic product</t>
-  </si>
-  <si>
-    <t>Government revenue</t>
-  </si>
-  <si>
-    <t>Government expenditure</t>
-  </si>
-  <si>
-    <t>Total domestic and international health expenditure</t>
-  </si>
-  <si>
-    <t>General government health expenditure</t>
-  </si>
-  <si>
-    <t>Domestic HIV spending</t>
-  </si>
-  <si>
-    <t>Global Fund HIV commitments</t>
-  </si>
-  <si>
-    <t>PEPFAR HIV commitments</t>
-  </si>
-  <si>
-    <t>Other international HIV commitments</t>
-  </si>
-  <si>
-    <t>Private HIV spending</t>
-  </si>
-  <si>
-    <t>HIV-related health care costs (excluding treatment)</t>
-  </si>
-  <si>
-    <t>Social mitigation costs</t>
-  </si>
-  <si>
-    <t>Percentage of people who used a condom at last act with casual partners</t>
-  </si>
-  <si>
-    <t>Percentage of people who used a condom at last act with commercial partners</t>
-  </si>
-  <si>
-    <t>Percentage of males who have been circumcised</t>
-  </si>
-  <si>
-    <t>Average number of injections per person per year</t>
-  </si>
-  <si>
-    <t>Average percentage of people who receptively shared a needle/syringe at last injection</t>
-  </si>
-  <si>
-    <t>This spreadsheet is divided into 12 sheets. All sheets need to be completed, except where noted below.</t>
-  </si>
-  <si>
-    <t>II. HOW TO ENTER DATA</t>
-  </si>
-  <si>
-    <t>Do not enter anything except actual data, apart from the small number of instances which allows optional input of output from other models for comparison and verification! Optima will fit to actual data and will interpolate between data points, so only enter data in the years that they belong. In addition, please feel free to add notes (either as comments for a given cell or in the blank cells to the right of each row) about the source of the data.</t>
-  </si>
-  <si>
-    <t>III. WHAT CAN BE LEFT BLANK</t>
-  </si>
-  <si>
-    <t>It can be confusing what can and cannot be left blank, but here are a few general principles:</t>
-  </si>
-  <si>
-    <t>* Nothing on the "Populations and programs" sheet can be blank.</t>
-  </si>
-  <si>
-    <t>CD4(500) to CD4(350-500)</t>
-  </si>
-  <si>
-    <t>CD4(200-350)</t>
-  </si>
-  <si>
-    <t>CD4(50-200)</t>
-  </si>
-  <si>
-    <t>CD4(&lt;50)</t>
-  </si>
-  <si>
-    <t>Disease progression rate (% per year)</t>
-  </si>
-  <si>
-    <t>Acute to CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(350,500) to CD4(200-350)</t>
-  </si>
-  <si>
-    <t>CD4(200-350) to CD4(50-200)</t>
-  </si>
-  <si>
-    <t>CD4(50-200) to CD4(&lt;50)</t>
-  </si>
-  <si>
-    <t>Treatment recovery rate (% per year)</t>
-  </si>
-  <si>
-    <t>CD4(350-500) to CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(200-350) to CD4(350-500)</t>
-  </si>
-  <si>
-    <t>CD4(50-200) to CD4(200-350)</t>
-  </si>
-  <si>
-    <t>CD4(&lt;50) to CD4(50-200)</t>
-  </si>
-  <si>
-    <t>Treatment failure rate (% per year)</t>
-  </si>
-  <si>
-    <t>First-line treatment</t>
-  </si>
-  <si>
-    <t>Second-line treatment</t>
-  </si>
-  <si>
-    <t>Death rate (% mortality per year)</t>
-  </si>
-  <si>
-    <t>CD4(350-500)</t>
-  </si>
-  <si>
-    <t>On treatment</t>
-  </si>
-  <si>
-    <t>Tuberculosis cofactor</t>
-  </si>
-  <si>
-    <t>Relative transmissibility</t>
-  </si>
-  <si>
-    <t>Condom use</t>
-  </si>
-  <si>
-    <t>Circumcision</t>
-  </si>
-  <si>
-    <t>Diagnosis behavior change</t>
-  </si>
-  <si>
-    <t>Ulcerative STI cofactor increase</t>
-  </si>
-  <si>
-    <t>Discharging STI cofactor increase</t>
-  </si>
-  <si>
-    <t>Clients of sex workers</t>
-  </si>
-  <si>
-    <t>MSM</t>
-  </si>
-  <si>
-    <t>Men who have sex with men</t>
-  </si>
-  <si>
-    <t>Males 15-49</t>
-  </si>
-  <si>
-    <t>Other males (15-49)</t>
-  </si>
-  <si>
-    <t>Females 15-49</t>
-  </si>
-  <si>
-    <t>Other females (15-49)</t>
-  </si>
-  <si>
-    <t>Programs</t>
-  </si>
-  <si>
-    <t>SBCC</t>
-  </si>
-  <si>
-    <t>General population prevention</t>
-  </si>
-  <si>
-    <t>FSW programs</t>
-  </si>
-  <si>
-    <t>Programs for female sex workers and clients</t>
-  </si>
-  <si>
-    <t>MSM programs</t>
-  </si>
-  <si>
-    <t>Programs for men who have sex with men</t>
-  </si>
-  <si>
-    <t>HTC</t>
-  </si>
-  <si>
-    <t>HIV testing and counseling</t>
-  </si>
-  <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>* For each parameter (as in, row in the worksheet), there needs to be at least one data point entered. The only exception to this is the sheet "Optional indicators", which may be left blank. If data are not available for a particular indicator, enter an assumption in the "Assumption" column, with a comment explaining how that value was derived.</t>
-  </si>
-  <si>
-    <t>* Economic data only need to be entered if you are performing economic analyses.</t>
-  </si>
-  <si>
-    <t>If a parameter is left completely blank, it will be assumed to be zero.</t>
-  </si>
-  <si>
-    <t>IV. QUESTIONS</t>
-  </si>
-  <si>
-    <t>If you have any questions, please contact us on</t>
-  </si>
-  <si>
-    <t>info@optimamodel.com</t>
-  </si>
-  <si>
-    <t>Populations</t>
-  </si>
-  <si>
-    <t>Short name</t>
-  </si>
-  <si>
-    <t>Long name</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Injects</t>
-  </si>
-  <si>
-    <t>Has sex with men</t>
-  </si>
-  <si>
-    <t>Has sex with women</t>
-  </si>
-  <si>
-    <t>Sex worker</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>FSW</t>
-  </si>
-  <si>
-    <t>Female sex workers</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Clients</t>
-  </si>
-  <si>
-    <t>Percentage of population tested for HIV in the last 12 months</t>
-  </si>
-  <si>
-    <t>Probability of a person with CD4 &lt;200 being tested per year</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Number of people on first-line treatment</t>
-  </si>
-  <si>
-    <t>Number of people on subsequent lines of treatment</t>
-  </si>
-  <si>
-    <t>Treatment eligibility criterion</t>
-  </si>
-  <si>
-    <t>Percentage of people covered by pre-exposure prophylaxis</t>
-  </si>
-  <si>
-    <t>Number (or percentage) of women on PMTCT (Option B/B+)</t>
-  </si>
-  <si>
-    <t>Birth rate (births per woman per year)</t>
-  </si>
-  <si>
-    <t>Percentage of HIV-positive women who breastfeed</t>
-  </si>
-  <si>
-    <t>Average number of acts with regular partners per person per year</t>
-  </si>
-  <si>
-    <t>Average number of acts with casual partners per person per year</t>
-  </si>
-  <si>
-    <t>Average number of acts with commercial partners per person per year</t>
-  </si>
-  <si>
-    <t>Percentage of people who used a condom at last act with regular partners</t>
-  </si>
-  <si>
-    <t>O P T I M A</t>
-  </si>
-  <si>
-    <t>Welcome to the Optima data entry spreadsheet. This is where all data for the model will be entered. At first glance the spreadsheet looks complicated and confusing. Unfortunately, it is. So please ask someone from the Optima development team if you need help, or use the default contact (info@optimamodel.com).</t>
-  </si>
-  <si>
-    <t>I. LAYOUT OF THE SPREADSHEET</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1408,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1487,6 +1487,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1804,7 +1807,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="27" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1818,7 +1821,7 @@
     </row>
     <row r="5" spans="1:1" ht="65" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1826,7 +1829,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1834,7 +1837,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -1842,7 +1845,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -1850,7 +1853,7 @@
     </row>
     <row r="13" spans="1:1" ht="80" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1858,7 +1861,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -1866,22 +1869,22 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="57" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -1889,7 +1892,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -1897,7 +1900,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -1905,7 +1908,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -1913,14 +1916,13 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:A3"/>
   </mergeCells>
@@ -1953,7 +1955,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2047,7 +2049,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2141,7 +2143,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2225,7 +2227,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2310,7 +2312,6 @@
       <c r="G37" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2337,7 +2338,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2419,7 +2420,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2504,7 +2505,6 @@
       <c r="G17" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2529,23 +2529,23 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="C3" s="8">
         <v>4.0000000000000002E-4</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="C4" s="8">
         <v>8.0000000000000004E-4</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C5" s="8">
         <v>1.38E-2</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="C6" s="8">
         <v>1.1000000000000001E-3</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="C7" s="8">
         <v>8.0000000000000002E-3</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="C8" s="8">
         <v>0.36699999999999999</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C9" s="8">
         <v>0.20499999999999999</v>
@@ -2643,23 +2643,23 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="C15" s="11">
         <v>26.03</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="B18" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C18" s="11">
         <v>1</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C19" s="11">
         <v>3.49</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C20" s="11">
         <v>7.17</v>
@@ -2743,23 +2743,23 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="C25" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C26" s="12">
         <v>4.1399999999999997</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C27" s="12">
         <v>1.05</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C28" s="12">
         <v>0.33</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C29" s="12">
         <v>0.27</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C30" s="12">
         <v>0.67</v>
@@ -2829,23 +2829,23 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="C35" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C36" s="12">
         <v>0.45</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C37" s="12">
         <v>0.7</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C38" s="12">
         <v>0.47</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="B39" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C39" s="12">
         <v>1.52</v>
@@ -2901,23 +2901,23 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="C44" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="B45" s="5" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C45" s="12">
         <v>0.1</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="B46" s="5" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="C46" s="12">
         <v>0.16</v>
@@ -2945,23 +2945,23 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="C51" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="B52" s="5" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="C52" s="8">
         <v>3.5999999999999999E-3</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="B53" s="5" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C53" s="8">
         <v>3.5999999999999999E-3</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="B54" s="5" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="C54" s="8">
         <v>5.7999999999999996E-3</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="B55" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C55" s="8">
         <v>8.8000000000000005E-3</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="B56" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C56" s="8">
         <v>5.8999999999999997E-2</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="B57" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C57" s="8">
         <v>0.32300000000000001</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="B58" s="5" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C58" s="8">
         <v>0.23</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="B59" s="5" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="C59" s="8">
         <v>2.17</v>
@@ -3073,23 +3073,23 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="C64" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="B65" s="5" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="C65" s="12">
         <v>0.05</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="B66" s="5" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="C66" s="12">
         <v>0.42</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="B67" s="5" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="C67" s="12">
         <v>1</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="B68" s="5" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="C68" s="12">
         <v>2.65</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="B69" s="5" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="C69" s="12">
         <v>1</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="B70" s="5" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="C70" s="12">
         <v>0.46</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="B71" s="5" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="C71" s="12">
         <v>0.1</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="B72" s="5" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="C72" s="12">
         <v>0.3</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="B73" s="5" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C73" s="12">
         <v>0.27500000000000002</v>
@@ -3215,23 +3215,23 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="C78" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="B79" s="5" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="C79" s="11">
         <v>0.14599999999999999</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="B80" s="5" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="C80" s="11">
         <v>8.0000000000000002E-3</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="5" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="C81" s="11">
         <v>0.02</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="5" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="C82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="5" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="C83" s="11">
         <v>0.26500000000000001</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="5" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="C84" s="11">
         <v>0.54700000000000004</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="5" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="C85" s="11">
         <v>5.2999999999999999E-2</v>
@@ -3328,7 +3328,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3352,10 +3351,10 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="4" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -3423,18 +3422,18 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C3" s="22">
         <v>41.670326870927902</v>
@@ -3486,7 +3485,7 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y3" s="12">
         <v>0.2</v>
@@ -3500,7 +3499,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -3568,18 +3567,18 @@
         <v>2020</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C9" s="23">
         <v>0.482758166845627</v>
@@ -3631,7 +3630,7 @@
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
       <c r="X9" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y9" s="12">
         <v>0.4</v>
@@ -3645,7 +3644,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -3713,18 +3712,18 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C15" s="13">
         <v>12257299147.293604</v>
@@ -3776,7 +3775,7 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y15" s="12">
         <v>0.05</v>
@@ -3790,7 +3789,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -3858,18 +3857,18 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -3893,7 +3892,7 @@
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -3901,7 +3900,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -3969,18 +3968,18 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="B27" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -4004,7 +4003,7 @@
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
       <c r="X27" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
@@ -4012,7 +4011,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -4080,18 +4079,18 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="B33" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -4115,7 +4114,7 @@
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
@@ -4123,7 +4122,7 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -4191,18 +4190,18 @@
         <v>2020</v>
       </c>
       <c r="Y38" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="B39" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -4226,7 +4225,7 @@
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
       <c r="X39" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
@@ -4234,7 +4233,7 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -4302,18 +4301,18 @@
         <v>2020</v>
       </c>
       <c r="Y44" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:27">
       <c r="B45" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -4337,7 +4336,7 @@
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
       <c r="X45" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
@@ -4345,7 +4344,7 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -4413,18 +4412,18 @@
         <v>2020</v>
       </c>
       <c r="Y50" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA50" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:27">
       <c r="B51" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -4448,7 +4447,7 @@
       <c r="V51" s="10"/>
       <c r="W51" s="10"/>
       <c r="X51" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
@@ -4456,7 +4455,7 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -4524,18 +4523,18 @@
         <v>2020</v>
       </c>
       <c r="Y56" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z56" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:27">
       <c r="B57" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -4559,7 +4558,7 @@
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
       <c r="X57" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
@@ -4567,7 +4566,7 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -4635,18 +4634,18 @@
         <v>2020</v>
       </c>
       <c r="Y62" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z62" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA62" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:27">
       <c r="B63" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -4670,7 +4669,7 @@
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
       <c r="X63" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
@@ -4678,7 +4677,7 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -4746,18 +4745,18 @@
         <v>2020</v>
       </c>
       <c r="Y68" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z68" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA68" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:27">
       <c r="B69" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -4781,7 +4780,7 @@
       <c r="V69" s="10"/>
       <c r="W69" s="10"/>
       <c r="X69" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
@@ -4789,7 +4788,7 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -4857,18 +4856,18 @@
         <v>2020</v>
       </c>
       <c r="Y74" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z74" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:27">
       <c r="B75" s="6" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -4894,7 +4893,7 @@
       <c r="V75" s="11"/>
       <c r="W75" s="11"/>
       <c r="X75" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y75" s="24">
         <v>0.03</v>
@@ -4908,7 +4907,7 @@
     </row>
     <row r="76" spans="1:27">
       <c r="B76" s="6" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -4934,7 +4933,7 @@
       <c r="V76" s="11"/>
       <c r="W76" s="11"/>
       <c r="X76" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y76" s="24">
         <v>0.03</v>
@@ -4948,7 +4947,7 @@
     </row>
     <row r="77" spans="1:27">
       <c r="B77" s="6" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -4974,7 +4973,7 @@
       <c r="V77" s="11"/>
       <c r="W77" s="11"/>
       <c r="X77" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y77" s="24">
         <v>0.03</v>
@@ -4988,7 +4987,7 @@
     </row>
     <row r="78" spans="1:27">
       <c r="B78" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -5014,7 +5013,7 @@
       <c r="V78" s="11"/>
       <c r="W78" s="11"/>
       <c r="X78" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y78" s="24">
         <v>0.03</v>
@@ -5028,7 +5027,7 @@
     </row>
     <row r="79" spans="1:27">
       <c r="B79" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -5054,7 +5053,7 @@
       <c r="V79" s="11"/>
       <c r="W79" s="11"/>
       <c r="X79" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y79" s="24">
         <v>0.03</v>
@@ -5068,7 +5067,7 @@
     </row>
     <row r="80" spans="1:27">
       <c r="B80" s="6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -5094,7 +5093,7 @@
       <c r="V80" s="11"/>
       <c r="W80" s="11"/>
       <c r="X80" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y80" s="24">
         <v>0.03</v>
@@ -5117,7 +5116,7 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Y84" s="25"/>
     </row>
@@ -5186,18 +5185,18 @@
         <v>2020</v>
       </c>
       <c r="Y85" s="26" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Z85" s="26" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="AA85" s="26" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:27">
       <c r="B86" s="6" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -5223,7 +5222,7 @@
       <c r="V86" s="11"/>
       <c r="W86" s="11"/>
       <c r="X86" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y86" s="24">
         <v>0.03</v>
@@ -5237,7 +5236,7 @@
     </row>
     <row r="87" spans="1:27">
       <c r="B87" s="6" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -5263,7 +5262,7 @@
       <c r="V87" s="11"/>
       <c r="W87" s="11"/>
       <c r="X87" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y87" s="24">
         <v>0.03</v>
@@ -5277,7 +5276,7 @@
     </row>
     <row r="88" spans="1:27">
       <c r="B88" s="6" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -5303,7 +5302,7 @@
       <c r="V88" s="11"/>
       <c r="W88" s="11"/>
       <c r="X88" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y88" s="24">
         <v>0.03</v>
@@ -5317,7 +5316,7 @@
     </row>
     <row r="89" spans="1:27">
       <c r="B89" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -5343,7 +5342,7 @@
       <c r="V89" s="11"/>
       <c r="W89" s="11"/>
       <c r="X89" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y89" s="24">
         <v>0.03</v>
@@ -5357,7 +5356,7 @@
     </row>
     <row r="90" spans="1:27">
       <c r="B90" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -5383,7 +5382,7 @@
       <c r="V90" s="11"/>
       <c r="W90" s="11"/>
       <c r="X90" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y90" s="24">
         <v>0.03</v>
@@ -5397,7 +5396,7 @@
     </row>
     <row r="91" spans="1:27">
       <c r="B91" s="6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -5423,7 +5422,7 @@
       <c r="V91" s="11"/>
       <c r="W91" s="11"/>
       <c r="X91" s="9" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y91" s="24">
         <v>0.03</v>
@@ -5436,7 +5435,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5452,7 +5450,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -5467,36 +5465,36 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="C2" s="5" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5504,31 +5502,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5536,31 +5534,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5568,31 +5566,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5600,31 +5598,31 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5632,44 +5630,44 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="C12" s="5" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5677,10 +5675,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5688,10 +5686,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5699,10 +5697,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5710,10 +5708,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -5721,10 +5719,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -5732,10 +5730,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -5743,10 +5741,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -5754,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -5765,14 +5763,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5788,8 +5785,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
@@ -5799,7 +5796,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -5867,7 +5864,7 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -5876,7 +5873,7 @@
         <v>SBCC</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -5902,7 +5899,7 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z3" s="8"/>
     </row>
@@ -5912,7 +5909,7 @@
         <v>SBCC</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -5938,7 +5935,7 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z4" s="10"/>
     </row>
@@ -5948,7 +5945,7 @@
         <v>FSW programs</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -5974,7 +5971,7 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z6" s="8"/>
     </row>
@@ -5984,7 +5981,7 @@
         <v>FSW programs</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6010,7 +6007,7 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z7" s="10"/>
     </row>
@@ -6020,7 +6017,7 @@
         <v>MSM programs</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -6035,8 +6032,8 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="8">
-        <v>4.9000000000000002E-2</v>
+      <c r="Q9" s="28">
+        <v>400000</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -6046,7 +6043,7 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z9" s="8"/>
     </row>
@@ -6056,7 +6053,7 @@
         <v>MSM programs</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6082,7 +6079,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z10" s="10"/>
     </row>
@@ -6092,7 +6089,7 @@
         <v>HTC</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -6118,7 +6115,7 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z12" s="8"/>
     </row>
@@ -6128,7 +6125,7 @@
         <v>HTC</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6154,7 +6151,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z13" s="10"/>
     </row>
@@ -6164,7 +6161,7 @@
         <v>ART</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -6190,7 +6187,7 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z15" s="8"/>
     </row>
@@ -6200,7 +6197,7 @@
         <v>ART</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -6226,7 +6223,7 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z16" s="10"/>
     </row>
@@ -6236,7 +6233,7 @@
         <v>PMTCT</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -6262,7 +6259,7 @@
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z18" s="8"/>
     </row>
@@ -6272,7 +6269,7 @@
         <v>PMTCT</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6298,7 +6295,7 @@
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z19" s="10"/>
     </row>
@@ -6308,7 +6305,7 @@
         <v>MGMT</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -6332,7 +6329,7 @@
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z21" s="8"/>
     </row>
@@ -6342,7 +6339,7 @@
         <v>MGMT</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6368,7 +6365,7 @@
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z22" s="10"/>
     </row>
@@ -6378,7 +6375,7 @@
         <v>ENV</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -6402,7 +6399,7 @@
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z24" s="8"/>
     </row>
@@ -6412,7 +6409,7 @@
         <v>ENV</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -6438,7 +6435,7 @@
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z25" s="10"/>
     </row>
@@ -6448,7 +6445,7 @@
         <v>Other</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -6472,7 +6469,7 @@
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z27" s="8"/>
     </row>
@@ -6482,7 +6479,7 @@
         <v>Other</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -6508,12 +6505,11 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z28" s="10"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6538,7 +6534,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -6606,7 +6602,7 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -6615,7 +6611,7 @@
         <v>FSW</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -6639,7 +6635,7 @@
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z3" s="10"/>
     </row>
@@ -6649,7 +6645,7 @@
         <v>FSW</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D4" s="13">
         <v>139172.68199999997</v>
@@ -6695,7 +6691,7 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z4" s="10"/>
     </row>
@@ -6705,7 +6701,7 @@
         <v>FSW</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -6729,7 +6725,7 @@
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z5" s="10"/>
     </row>
@@ -6739,7 +6735,7 @@
         <v>Clients</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6763,7 +6759,7 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z7" s="10"/>
     </row>
@@ -6773,7 +6769,7 @@
         <v>Clients</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D8" s="13">
         <v>979330.74050000007</v>
@@ -6819,7 +6815,7 @@
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z8" s="10"/>
     </row>
@@ -6829,7 +6825,7 @@
         <v>Clients</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -6853,7 +6849,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z9" s="10"/>
     </row>
@@ -6863,7 +6859,7 @@
         <v>MSM</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -6887,7 +6883,7 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z11" s="10"/>
     </row>
@@ -6897,7 +6893,7 @@
         <v>MSM</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D12" s="13">
         <v>96306.278800000015</v>
@@ -6943,7 +6939,7 @@
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z12" s="10"/>
     </row>
@@ -6953,7 +6949,7 @@
         <v>MSM</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6977,7 +6973,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z13" s="10"/>
     </row>
@@ -6987,7 +6983,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -7011,7 +7007,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z15" s="10"/>
     </row>
@@ -7021,7 +7017,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D16" s="10">
         <v>5431543.9807000002</v>
@@ -7067,7 +7063,7 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z16" s="10"/>
     </row>
@@ -7077,7 +7073,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -7101,7 +7097,7 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z17" s="10"/>
     </row>
@@ -7111,7 +7107,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -7135,7 +7131,7 @@
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z19" s="10"/>
     </row>
@@ -7145,7 +7141,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D20" s="10">
         <v>6333671.4559585694</v>
@@ -7191,7 +7187,7 @@
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z20" s="10"/>
     </row>
@@ -7201,7 +7197,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -7225,13 +7221,13 @@
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z21" s="10"/>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -7299,7 +7295,7 @@
         <v>2020</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -7308,7 +7304,7 @@
         <v>FSW</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -7332,7 +7328,7 @@
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z28" s="8"/>
     </row>
@@ -7342,7 +7338,7 @@
         <v>FSW</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -7368,7 +7364,7 @@
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z29" s="8"/>
     </row>
@@ -7378,7 +7374,7 @@
         <v>FSW</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -7402,7 +7398,7 @@
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z30" s="8"/>
     </row>
@@ -7412,7 +7408,7 @@
         <v>Clients</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -7436,7 +7432,7 @@
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z32" s="8"/>
     </row>
@@ -7446,7 +7442,7 @@
         <v>Clients</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -7472,7 +7468,7 @@
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z33" s="8"/>
     </row>
@@ -7482,7 +7478,7 @@
         <v>Clients</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -7506,7 +7502,7 @@
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z34" s="8"/>
     </row>
@@ -7516,7 +7512,7 @@
         <v>MSM</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -7540,7 +7536,7 @@
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z36" s="8"/>
     </row>
@@ -7550,7 +7546,7 @@
         <v>MSM</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -7576,7 +7572,7 @@
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z37" s="8"/>
     </row>
@@ -7586,7 +7582,7 @@
         <v>MSM</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -7610,7 +7606,7 @@
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z38" s="8"/>
     </row>
@@ -7620,7 +7616,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -7644,7 +7640,7 @@
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z40" s="8"/>
     </row>
@@ -7654,7 +7650,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -7684,7 +7680,7 @@
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z41" s="8"/>
     </row>
@@ -7694,7 +7690,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -7718,7 +7714,7 @@
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z42" s="8"/>
     </row>
@@ -7728,7 +7724,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -7752,7 +7748,7 @@
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z44" s="8"/>
     </row>
@@ -7762,7 +7758,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -7792,7 +7788,7 @@
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z45" s="8"/>
     </row>
@@ -7802,7 +7798,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -7826,12 +7822,11 @@
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Z46" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7856,7 +7851,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -7924,12 +7919,12 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -7967,13 +7962,13 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y3" s="11"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -8041,12 +8036,12 @@
         <v>2020</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -8072,13 +8067,13 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y9" s="11"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -8146,12 +8141,12 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C15" s="16">
         <v>3121.27</v>
@@ -8203,13 +8198,13 @@
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y15" s="11"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="4" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -8277,12 +8272,12 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C21" s="11">
         <v>0.11</v>
@@ -8334,13 +8329,13 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y21" s="11"/>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="4" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -8408,12 +8403,12 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="B27" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C27" s="16">
         <v>714</v>
@@ -8465,13 +8460,13 @@
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y27" s="11"/>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="4" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -8539,12 +8534,12 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="2:25">
       <c r="B33" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -8568,12 +8563,11 @@
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y33" s="11"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8598,7 +8592,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -8666,7 +8660,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -8696,7 +8690,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y3" s="8">
         <v>0.01</v>
@@ -8729,7 +8723,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y4" s="8">
         <v>0.01</v>
@@ -8762,7 +8756,7 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y5" s="8">
         <v>0.01</v>
@@ -8795,7 +8789,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y6" s="8">
         <v>0.01</v>
@@ -8828,7 +8822,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y7" s="8">
         <v>0.01</v>
@@ -8836,7 +8830,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -8904,7 +8898,7 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -8936,7 +8930,7 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y13" s="8"/>
     </row>
@@ -8967,7 +8961,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y14" s="8">
         <v>0.02</v>
@@ -9002,7 +8996,7 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y15" s="8"/>
     </row>
@@ -9033,7 +9027,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y16" s="8">
         <v>0.01</v>
@@ -9066,7 +9060,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y17" s="8">
         <v>0.01</v>
@@ -9074,7 +9068,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -9142,7 +9136,7 @@
         <v>2020</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -9174,7 +9168,7 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y23" s="8"/>
     </row>
@@ -9205,7 +9199,7 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y24" s="8">
         <v>0.05</v>
@@ -9240,7 +9234,7 @@
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y25" s="8"/>
     </row>
@@ -9271,7 +9265,7 @@
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y26" s="8">
         <v>0.01</v>
@@ -9304,7 +9298,7 @@
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
       <c r="X27" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y27" s="8">
         <v>0.02</v>
@@ -9312,7 +9306,7 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="4" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -9380,7 +9374,7 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="2:25">
@@ -9413,7 +9407,7 @@
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
       <c r="X33" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y33" s="8"/>
     </row>
@@ -9447,7 +9441,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
       <c r="X34" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y34" s="8"/>
     </row>
@@ -9481,7 +9475,7 @@
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
       <c r="X35" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y35" s="8"/>
     </row>
@@ -9515,7 +9509,7 @@
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
       <c r="X36" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y36" s="8"/>
     </row>
@@ -9549,12 +9543,11 @@
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
       <c r="X37" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y37" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9579,7 +9572,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -9647,7 +9640,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -9681,7 +9674,7 @@
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
       <c r="X3" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y3" s="12"/>
     </row>
@@ -9714,7 +9707,7 @@
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y4" s="12"/>
     </row>
@@ -9747,7 +9740,7 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y5" s="12"/>
     </row>
@@ -9780,7 +9773,7 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y6" s="12"/>
     </row>
@@ -9813,13 +9806,13 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y7" s="12"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -9887,12 +9880,12 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="B13" s="6" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -9918,13 +9911,13 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y13" s="7"/>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="4" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -9992,12 +9985,12 @@
         <v>2020</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -10033,13 +10026,13 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y19" s="7"/>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="4" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -10107,12 +10100,12 @@
         <v>2020</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="B25" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -10148,13 +10141,13 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y25" s="7"/>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="4" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -10222,12 +10215,12 @@
         <v>2020</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="B31" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -10273,13 +10266,13 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y31" s="7"/>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="4" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -10347,7 +10340,7 @@
         <v>2020</v>
       </c>
       <c r="Y36" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -10377,7 +10370,7 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y37" s="12">
         <v>0</v>
@@ -10410,7 +10403,7 @@
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
       <c r="X38" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y38" s="12">
         <v>0</v>
@@ -10443,7 +10436,7 @@
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
       <c r="X39" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y39" s="12">
         <v>0</v>
@@ -10476,7 +10469,7 @@
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y40" s="12">
         <v>0</v>
@@ -10509,7 +10502,7 @@
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
       <c r="X41" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y41" s="12">
         <v>0</v>
@@ -10517,7 +10510,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="4" t="s">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -10585,12 +10578,12 @@
         <v>2020</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="B47" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10618,13 +10611,13 @@
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
       <c r="X47" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y47" s="7"/>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="4" t="s">
-        <v>158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -10692,7 +10685,7 @@
         <v>2020</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -10750,7 +10743,7 @@
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
       <c r="X53" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y53" s="11"/>
     </row>
@@ -10809,13 +10802,13 @@
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
       <c r="X54" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y54" s="11"/>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="4" t="s">
-        <v>159</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -10883,12 +10876,12 @@
         <v>2020</v>
       </c>
       <c r="Y59" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="B60" s="6" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -10914,12 +10907,11 @@
       <c r="V60" s="12"/>
       <c r="W60" s="12"/>
       <c r="X60" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y60" s="12"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10944,7 +10936,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -11012,7 +11004,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -11044,7 +11036,7 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y3" s="7"/>
     </row>
@@ -11077,7 +11069,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y4" s="7"/>
     </row>
@@ -11110,7 +11102,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y5" s="7"/>
     </row>
@@ -11143,7 +11135,7 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y6" s="7"/>
     </row>
@@ -11176,13 +11168,13 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y7" s="7"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -11250,7 +11242,7 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -11282,7 +11274,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y13" s="7"/>
     </row>
@@ -11315,7 +11307,7 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y14" s="7"/>
     </row>
@@ -11348,7 +11340,7 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y15" s="7"/>
     </row>
@@ -11381,7 +11373,7 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y16" s="7"/>
     </row>
@@ -11414,13 +11406,13 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y17" s="7"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="4" t="s">
-        <v>162</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -11488,7 +11480,7 @@
         <v>2020</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -11520,7 +11512,7 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y23" s="7"/>
     </row>
@@ -11553,7 +11545,7 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y24" s="7"/>
     </row>
@@ -11584,7 +11576,7 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y25" s="7"/>
     </row>
@@ -11615,7 +11607,7 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y26" s="7"/>
     </row>
@@ -11646,13 +11638,13 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y27" s="7"/>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="4" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -11720,7 +11712,7 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -11752,7 +11744,7 @@
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="X33" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y33" s="12"/>
     </row>
@@ -11785,7 +11777,7 @@
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y34" s="12"/>
     </row>
@@ -11818,7 +11810,7 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y35" s="12"/>
     </row>
@@ -11851,7 +11843,7 @@
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="X36" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y36" s="12"/>
     </row>
@@ -11884,13 +11876,13 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y37" s="12"/>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -11958,7 +11950,7 @@
         <v>2020</v>
       </c>
       <c r="Y42" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -11990,7 +11982,7 @@
       <c r="V43" s="12"/>
       <c r="W43" s="12"/>
       <c r="X43" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y43" s="12"/>
     </row>
@@ -12023,7 +12015,7 @@
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
       <c r="X44" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y44" s="12"/>
     </row>
@@ -12056,7 +12048,7 @@
       <c r="V45" s="12"/>
       <c r="W45" s="12"/>
       <c r="X45" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y45" s="12"/>
     </row>
@@ -12089,7 +12081,7 @@
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
       <c r="X46" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y46" s="12"/>
     </row>
@@ -12122,13 +12114,13 @@
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
       <c r="X47" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y47" s="12"/>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -12196,7 +12188,7 @@
         <v>2020</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -12228,7 +12220,7 @@
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
       <c r="X53" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y53" s="12"/>
     </row>
@@ -12261,7 +12253,7 @@
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
       <c r="X54" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y54" s="12"/>
     </row>
@@ -12292,7 +12284,7 @@
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
       <c r="X55" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y55" s="12">
         <v>0</v>
@@ -12325,7 +12317,7 @@
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
       <c r="X56" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y56" s="12">
         <v>0</v>
@@ -12358,7 +12350,7 @@
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
       <c r="X57" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y57" s="12">
         <v>0</v>
@@ -12366,7 +12358,7 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -12434,7 +12426,7 @@
         <v>2020</v>
       </c>
       <c r="Y62" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -12466,7 +12458,7 @@
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
       <c r="X63" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y63" s="12"/>
     </row>
@@ -12499,7 +12491,7 @@
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
       <c r="X64" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y64" s="12"/>
     </row>
@@ -12532,12 +12524,11 @@
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
       <c r="X65" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y65" s="12"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12562,7 +12553,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -12630,7 +12621,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -12662,7 +12653,7 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y3" s="7"/>
     </row>
@@ -12693,7 +12684,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y4" s="7">
         <v>0</v>
@@ -12728,7 +12719,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y5" s="7"/>
     </row>
@@ -12759,7 +12750,7 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y6" s="7">
         <v>0</v>
@@ -12792,7 +12783,7 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y7" s="7">
         <v>0</v>
@@ -12800,7 +12791,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -12868,7 +12859,7 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -12898,7 +12889,7 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y13" s="12">
         <v>0.2</v>
@@ -12931,7 +12922,7 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y14" s="12">
         <v>0</v>
@@ -12964,7 +12955,7 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y15" s="12">
         <v>0.2</v>
@@ -12997,7 +12988,7 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y16" s="12">
         <v>0</v>
@@ -13030,7 +13021,7 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y17" s="12">
         <v>0</v>
@@ -13038,7 +13029,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="4" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -13106,12 +13097,12 @@
         <v>2020</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="B23" s="6" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -13135,14 +13126,13 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="9" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="Y23" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/server/src/static/sudanexample.xlsx
+++ b/server/src/static/sudanexample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="21240" windowHeight="13300" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="21240" windowHeight="13300" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -730,6 +730,33 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="167">
   <si>
+    <t>HIV-related health care costs (excluding treatment)</t>
+  </si>
+  <si>
+    <t>Social mitigation costs</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with casual partners</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with commercial partners</t>
+  </si>
+  <si>
+    <t>Percentage of males who have been circumcised</t>
+  </si>
+  <si>
+    <t>Average number of injections per person per year</t>
+  </si>
+  <si>
+    <t>Average percentage of people who receptively shared a needle/syringe at last injection</t>
+  </si>
+  <si>
+    <t>This spreadsheet is divided into 12 sheets. All sheets need to be completed, except where noted below.</t>
+  </si>
+  <si>
+    <t>II. HOW TO ENTER DATA</t>
+  </si>
+  <si>
     <t>Number (or percentage) of women on PMTCT (Option B/B+)</t>
   </si>
   <si>
@@ -743,315 +770,6 @@
   </si>
   <si>
     <t>Average number of acts with casual partners per person per year</t>
-  </si>
-  <si>
-    <t>Average number of acts with commercial partners per person per year</t>
-  </si>
-  <si>
-    <t>Percentage of people who used a condom at last act with regular partners</t>
-  </si>
-  <si>
-    <t>O P T I M A</t>
-  </si>
-  <si>
-    <t>Welcome to the Optima data entry spreadsheet. This is where all data for the model will be entered. At first glance the spreadsheet looks complicated and confusing. Unfortunately, it is. So please ask someone from the Optima development team if you need help, or use the default contact (info@optimamodel.com).</t>
-  </si>
-  <si>
-    <t>I. LAYOUT OF THE SPREADSHEET</t>
-  </si>
-  <si>
-    <t>Treatment failure rate (% per year)</t>
-  </si>
-  <si>
-    <t>First-line treatment</t>
-  </si>
-  <si>
-    <t>Second-line treatment</t>
-  </si>
-  <si>
-    <t>Death rate (% mortality per year)</t>
-  </si>
-  <si>
-    <t>CD4(350-500)</t>
-  </si>
-  <si>
-    <t>On treatment</t>
-  </si>
-  <si>
-    <t>Tuberculosis cofactor</t>
-  </si>
-  <si>
-    <t>Relative transmissibility</t>
-  </si>
-  <si>
-    <t>Condom use</t>
-  </si>
-  <si>
-    <t>Circumcision</t>
-  </si>
-  <si>
-    <t>Diagnosis behavior change</t>
-  </si>
-  <si>
-    <t>Ulcerative STI cofactor increase</t>
-  </si>
-  <si>
-    <t>Discharging STI cofactor increase</t>
-  </si>
-  <si>
-    <t>Clients of sex workers</t>
-  </si>
-  <si>
-    <t>MSM</t>
-  </si>
-  <si>
-    <t>Men who have sex with men</t>
-  </si>
-  <si>
-    <t>Males 15-49</t>
-  </si>
-  <si>
-    <t>Other males (15-49)</t>
-  </si>
-  <si>
-    <t>Females 15-49</t>
-  </si>
-  <si>
-    <t>Other females (15-49)</t>
-  </si>
-  <si>
-    <t>Programs</t>
-  </si>
-  <si>
-    <t>SBCC</t>
-  </si>
-  <si>
-    <t>General population prevention</t>
-  </si>
-  <si>
-    <t>FSW programs</t>
-  </si>
-  <si>
-    <t>Programs for female sex workers and clients</t>
-  </si>
-  <si>
-    <t>MSM programs</t>
-  </si>
-  <si>
-    <t>Programs for men who have sex with men</t>
-  </si>
-  <si>
-    <t>HTC</t>
-  </si>
-  <si>
-    <t>HIV testing and counseling</t>
-  </si>
-  <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>* For each parameter (as in, row in the worksheet), there needs to be at least one data point entered. The only exception to this is the sheet "Optional indicators", which may be left blank. If data are not available for a particular indicator, enter an assumption in the "Assumption" column, with a comment explaining how that value was derived.</t>
-  </si>
-  <si>
-    <t>* Economic data only need to be entered if you are performing economic analyses.</t>
-  </si>
-  <si>
-    <t>If a parameter is left completely blank, it will be assumed to be zero.</t>
-  </si>
-  <si>
-    <t>IV. QUESTIONS</t>
-  </si>
-  <si>
-    <t>If you have any questions, please contact us on</t>
-  </si>
-  <si>
-    <t>info@optimamodel.com</t>
-  </si>
-  <si>
-    <t>Populations</t>
-  </si>
-  <si>
-    <t>Short name</t>
-  </si>
-  <si>
-    <t>Long name</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Injects</t>
-  </si>
-  <si>
-    <t>Has sex with men</t>
-  </si>
-  <si>
-    <t>Has sex with women</t>
-  </si>
-  <si>
-    <t>Sex worker</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>FSW</t>
-  </si>
-  <si>
-    <t>Female sex workers</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Clients</t>
-  </si>
-  <si>
-    <t>Percentage of population tested for HIV in the last 12 months</t>
-  </si>
-  <si>
-    <t>Probability of a person with CD4 &lt;200 being tested per year</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Number of people on first-line treatment</t>
-  </si>
-  <si>
-    <t>Number of people on subsequent lines of treatment</t>
-  </si>
-  <si>
-    <t>Treatment eligibility criterion</t>
-  </si>
-  <si>
-    <t>Percentage of people covered by pre-exposure prophylaxis</t>
-  </si>
-  <si>
-    <t>Gross domestic product</t>
-  </si>
-  <si>
-    <t>Government revenue</t>
-  </si>
-  <si>
-    <t>Government expenditure</t>
-  </si>
-  <si>
-    <t>Total domestic and international health expenditure</t>
-  </si>
-  <si>
-    <t>General government health expenditure</t>
-  </si>
-  <si>
-    <t>Domestic HIV spending</t>
-  </si>
-  <si>
-    <t>Global Fund HIV commitments</t>
-  </si>
-  <si>
-    <t>PEPFAR HIV commitments</t>
-  </si>
-  <si>
-    <t>Other international HIV commitments</t>
-  </si>
-  <si>
-    <t>Private HIV spending</t>
-  </si>
-  <si>
-    <t>HIV-related health care costs (excluding treatment)</t>
-  </si>
-  <si>
-    <t>Social mitigation costs</t>
-  </si>
-  <si>
-    <t>Percentage of people who used a condom at last act with casual partners</t>
-  </si>
-  <si>
-    <t>Percentage of people who used a condom at last act with commercial partners</t>
-  </si>
-  <si>
-    <t>Percentage of males who have been circumcised</t>
-  </si>
-  <si>
-    <t>Average number of injections per person per year</t>
-  </si>
-  <si>
-    <t>Average percentage of people who receptively shared a needle/syringe at last injection</t>
-  </si>
-  <si>
-    <t>This spreadsheet is divided into 12 sheets. All sheets need to be completed, except where noted below.</t>
-  </si>
-  <si>
-    <t>II. HOW TO ENTER DATA</t>
-  </si>
-  <si>
-    <t>Do not enter anything except actual data, apart from the small number of instances which allows optional input of output from other models for comparison and verification! Optima will fit to actual data and will interpolate between data points, so only enter data in the years that they belong. In addition, please feel free to add notes (either as comments for a given cell or in the blank cells to the right of each row) about the source of the data.</t>
-  </si>
-  <si>
-    <t>III. WHAT CAN BE LEFT BLANK</t>
-  </si>
-  <si>
-    <t>It can be confusing what can and cannot be left blank, but here are a few general principles:</t>
-  </si>
-  <si>
-    <t>* Nothing on the "Populations and programs" sheet can be blank.</t>
-  </si>
-  <si>
-    <t>CD4(500) to CD4(350-500)</t>
-  </si>
-  <si>
-    <t>CD4(200-350)</t>
-  </si>
-  <si>
-    <t>CD4(50-200)</t>
-  </si>
-  <si>
-    <t>CD4(&lt;50)</t>
-  </si>
-  <si>
-    <t>Disease progression rate (% per year)</t>
-  </si>
-  <si>
-    <t>Acute to CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(350,500) to CD4(200-350)</t>
-  </si>
-  <si>
-    <t>CD4(200-350) to CD4(50-200)</t>
-  </si>
-  <si>
-    <t>CD4(50-200) to CD4(&lt;50)</t>
-  </si>
-  <si>
-    <t>Treatment recovery rate (% per year)</t>
-  </si>
-  <si>
-    <t>CD4(350-500) to CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>CD4(200-350) to CD4(350-500)</t>
-  </si>
-  <si>
-    <t>CD4(50-200) to CD4(200-350)</t>
-  </si>
-  <si>
-    <t>CD4(&lt;50) to CD4(50-200)</t>
-  </si>
-  <si>
-    <t>Number of people who inject drugs who are on opiate substitution therapy</t>
-  </si>
-  <si>
-    <t>Interactions between regular partners</t>
-  </si>
-  <si>
-    <t>Interactions between casual partners</t>
   </si>
   <si>
     <t>Interactions between commercial partners</t>
@@ -1113,6 +831,363 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>* Economic data only need to be entered if you are performing economic analyses.</t>
+  </si>
+  <si>
+    <t>Ulcerative STI cofactor increase</t>
+  </si>
+  <si>
+    <t>Discharging STI cofactor increase</t>
+  </si>
+  <si>
+    <t>Clients of sex workers</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>Men who have sex with men</t>
+  </si>
+  <si>
+    <t>Males 15-49</t>
+  </si>
+  <si>
+    <t>Other males (15-49)</t>
+  </si>
+  <si>
+    <t>Females 15-49</t>
+  </si>
+  <si>
+    <t>Other females (15-49)</t>
+  </si>
+  <si>
+    <t>Programs</t>
+  </si>
+  <si>
+    <t>SBCC</t>
+  </si>
+  <si>
+    <t>General population prevention</t>
+  </si>
+  <si>
+    <t>FSW programs</t>
+  </si>
+  <si>
+    <t>Programs for female sex workers and clients</t>
+  </si>
+  <si>
+    <t>MSM programs</t>
+  </si>
+  <si>
+    <t>Programs for men who have sex with men</t>
+  </si>
+  <si>
+    <t>HTC</t>
+  </si>
+  <si>
+    <t>HIV testing and counseling</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>* For each parameter (as in, row in the worksheet), there needs to be at least one data point entered. The only exception to this is the sheet "Optional indicators", which may be left blank. If data are not available for a particular indicator, enter an assumption in the "Assumption" column, with a comment explaining how that value was derived.</t>
+  </si>
+  <si>
+    <t>Government expenditure</t>
+  </si>
+  <si>
+    <t>Total domestic and international health expenditure</t>
+  </si>
+  <si>
+    <t>General government health expenditure</t>
+  </si>
+  <si>
+    <t>Domestic HIV spending</t>
+  </si>
+  <si>
+    <t>Global Fund HIV commitments</t>
+  </si>
+  <si>
+    <t>PEPFAR HIV commitments</t>
+  </si>
+  <si>
+    <t>Other international HIV commitments</t>
+  </si>
+  <si>
+    <t>Private HIV spending</t>
+  </si>
+  <si>
+    <t>Number of HIV tests per year</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Number of HIV diagnoses per year</t>
+  </si>
+  <si>
+    <t>Modeled estimate of new HIV infections per year</t>
+  </si>
+  <si>
+    <t>Modeled estimate of HIV prevalence</t>
+  </si>
+  <si>
+    <t>Number of HIV-related deaths</t>
+  </si>
+  <si>
+    <t>Number of people initiating ART each year</t>
+  </si>
+  <si>
+    <t>Percentage of people who die from non-HIV-related causes per year</t>
+  </si>
+  <si>
+    <t>Prevalence of any ulcerative STIs</t>
+  </si>
+  <si>
+    <t>Prevalence of any discharging STIs</t>
+  </si>
+  <si>
+    <t>Tuberculosis prevalence</t>
+  </si>
+  <si>
+    <t>Opiate substitution therapy</t>
+  </si>
+  <si>
+    <t>Pre-exposure prophylaxis</t>
+  </si>
+  <si>
+    <t>Disutility weights</t>
+  </si>
+  <si>
+    <t>Untreated HIV, acute</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(350-500)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(200-350)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(50-200)</t>
+  </si>
+  <si>
+    <t>Untreated HIV, CD4(&lt;50)</t>
+  </si>
+  <si>
+    <t>Treated HIV</t>
+  </si>
+  <si>
+    <t>Consumer price index</t>
+  </si>
+  <si>
+    <t>Growth assumptions</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>Purchasing power parity</t>
+  </si>
+  <si>
+    <t>Average number of acts with commercial partners per person per year</t>
+  </si>
+  <si>
+    <t>Percentage of people who used a condom at last act with regular partners</t>
+  </si>
+  <si>
+    <t>O P T I M A</t>
+  </si>
+  <si>
+    <t>Welcome to the Optima data entry spreadsheet. This is where all data for the model will be entered. At first glance the spreadsheet looks complicated and confusing. Unfortunately, it is. So please ask someone from the Optima development team if you need help, or use the default contact (info@optimamodel.com).</t>
+  </si>
+  <si>
+    <t>I. LAYOUT OF THE SPREADSHEET</t>
+  </si>
+  <si>
+    <t>Treatment failure rate (% per year)</t>
+  </si>
+  <si>
+    <t>First-line treatment</t>
+  </si>
+  <si>
+    <t>Second-line treatment</t>
+  </si>
+  <si>
+    <t>Death rate (% mortality per year)</t>
+  </si>
+  <si>
+    <t>CD4(350-500)</t>
+  </si>
+  <si>
+    <t>On treatment</t>
+  </si>
+  <si>
+    <t>Tuberculosis cofactor</t>
+  </si>
+  <si>
+    <t>Relative transmissibility</t>
+  </si>
+  <si>
+    <t>Condom use</t>
+  </si>
+  <si>
+    <t>Circumcision</t>
+  </si>
+  <si>
+    <t>Diagnosis behavior change</t>
+  </si>
+  <si>
+    <t>Treatment recovery rate (% per year)</t>
+  </si>
+  <si>
+    <t>CD4(350-500) to CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(200-350) to CD4(350-500)</t>
+  </si>
+  <si>
+    <t>CD4(50-200) to CD4(200-350)</t>
+  </si>
+  <si>
+    <t>CD4(&lt;50) to CD4(50-200)</t>
+  </si>
+  <si>
+    <t>Number of people who inject drugs who are on opiate substitution therapy</t>
+  </si>
+  <si>
+    <t>Interactions between regular partners</t>
+  </si>
+  <si>
+    <t>Interactions between casual partners</t>
+  </si>
+  <si>
+    <t>Do not enter anything except actual data, apart from the small number of instances which allows optional input of output from other models for comparison and verification! Optima will fit to actual data and will interpolate between data points, so only enter data in the years that they belong. In addition, please feel free to add notes (either as comments for a given cell or in the blank cells to the right of each row) about the source of the data.</t>
+  </si>
+  <si>
+    <t>III. WHAT CAN BE LEFT BLANK</t>
+  </si>
+  <si>
+    <t>It can be confusing what can and cannot be left blank, but here are a few general principles:</t>
+  </si>
+  <si>
+    <t>* Nothing on the "Populations and programs" sheet can be blank.</t>
+  </si>
+  <si>
+    <t>CD4(500) to CD4(350-500)</t>
+  </si>
+  <si>
+    <t>CD4(200-350)</t>
+  </si>
+  <si>
+    <t>CD4(50-200)</t>
+  </si>
+  <si>
+    <t>CD4(&lt;50)</t>
+  </si>
+  <si>
+    <t>Disease progression rate (% per year)</t>
+  </si>
+  <si>
+    <t>Acute to CD4(&gt;500)</t>
+  </si>
+  <si>
+    <t>CD4(350,500) to CD4(200-350)</t>
+  </si>
+  <si>
+    <t>CD4(200-350) to CD4(50-200)</t>
+  </si>
+  <si>
+    <t>CD4(50-200) to CD4(&lt;50)</t>
+  </si>
+  <si>
+    <t>If a parameter is left completely blank, it will be assumed to be zero.</t>
+  </si>
+  <si>
+    <t>IV. QUESTIONS</t>
+  </si>
+  <si>
+    <t>If you have any questions, please contact us on</t>
+  </si>
+  <si>
+    <t>info@optimamodel.com</t>
+  </si>
+  <si>
+    <t>Populations</t>
+  </si>
+  <si>
+    <t>Short name</t>
+  </si>
+  <si>
+    <t>Long name</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Injects</t>
+  </si>
+  <si>
+    <t>Has sex with men</t>
+  </si>
+  <si>
+    <t>Has sex with women</t>
+  </si>
+  <si>
+    <t>Sex worker</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>FSW</t>
+  </si>
+  <si>
+    <t>Female sex workers</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Percentage of population tested for HIV in the last 12 months</t>
+  </si>
+  <si>
+    <t>Probability of a person with CD4 &lt;200 being tested per year</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Number of people on first-line treatment</t>
+  </si>
+  <si>
+    <t>Number of people on subsequent lines of treatment</t>
+  </si>
+  <si>
+    <t>Treatment eligibility criterion</t>
+  </si>
+  <si>
+    <t>Percentage of people covered by pre-exposure prophylaxis</t>
+  </si>
+  <si>
+    <t>Gross domestic product</t>
+  </si>
+  <si>
+    <t>Government revenue</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy</t>
   </si>
   <si>
@@ -1156,81 +1231,6 @@
   </si>
   <si>
     <t>HIV prevalence</t>
-  </si>
-  <si>
-    <t>Number of HIV tests per year</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Number of HIV diagnoses per year</t>
-  </si>
-  <si>
-    <t>Modeled estimate of new HIV infections per year</t>
-  </si>
-  <si>
-    <t>Modeled estimate of HIV prevalence</t>
-  </si>
-  <si>
-    <t>Number of HIV-related deaths</t>
-  </si>
-  <si>
-    <t>Number of people initiating ART each year</t>
-  </si>
-  <si>
-    <t>Percentage of people who die from non-HIV-related causes per year</t>
-  </si>
-  <si>
-    <t>Prevalence of any ulcerative STIs</t>
-  </si>
-  <si>
-    <t>Prevalence of any discharging STIs</t>
-  </si>
-  <si>
-    <t>Tuberculosis prevalence</t>
-  </si>
-  <si>
-    <t>Opiate substitution therapy</t>
-  </si>
-  <si>
-    <t>Pre-exposure prophylaxis</t>
-  </si>
-  <si>
-    <t>Disutility weights</t>
-  </si>
-  <si>
-    <t>Untreated HIV, acute</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(&gt;500)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(350-500)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(200-350)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(50-200)</t>
-  </si>
-  <si>
-    <t>Untreated HIV, CD4(&lt;50)</t>
-  </si>
-  <si>
-    <t>Treated HIV</t>
-  </si>
-  <si>
-    <t>Consumer price index</t>
-  </si>
-  <si>
-    <t>Growth assumptions</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>Purchasing power parity</t>
   </si>
 </sst>
 </file>
@@ -1485,11 +1485,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1797,7 +1797,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
@@ -1806,22 +1806,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="27" t="s">
-        <v>7</v>
+      <c r="A1" s="28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="27"/>
+      <c r="A2" s="28"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" ht="65" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1837,7 +1837,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -1845,7 +1845,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -1853,7 +1853,7 @@
     </row>
     <row r="13" spans="1:1" ht="80" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1861,7 +1861,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -1869,22 +1869,22 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="57" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -1892,7 +1892,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -1900,7 +1900,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -1908,7 +1908,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -1916,7 +1916,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -1944,7 +1944,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -1955,7 +1955,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2049,7 +2049,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2143,7 +2143,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2227,7 +2227,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2312,6 +2312,7 @@
       <c r="G37" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2338,7 +2339,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2420,7 +2421,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2505,6 +2506,7 @@
       <c r="G17" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2529,23 +2531,23 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="C2" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="5" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8">
         <v>4.0000000000000002E-4</v>
@@ -2559,7 +2561,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="5" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8">
         <v>8.0000000000000004E-4</v>
@@ -2573,7 +2575,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="5" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8">
         <v>1.38E-2</v>
@@ -2587,7 +2589,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="5" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8">
         <v>1.1000000000000001E-3</v>
@@ -2601,7 +2603,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="5" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8">
         <v>8.0000000000000002E-3</v>
@@ -2615,7 +2617,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="5" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="C8" s="8">
         <v>0.36699999999999999</v>
@@ -2629,7 +2631,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="5" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8">
         <v>0.20499999999999999</v>
@@ -2643,23 +2645,23 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="5" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C15" s="11">
         <v>26.03</v>
@@ -2673,7 +2675,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="5" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
@@ -2687,7 +2689,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="5" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
@@ -2701,7 +2703,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="B18" s="5" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C18" s="11">
         <v>1</v>
@@ -2715,7 +2717,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="5" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C19" s="11">
         <v>3.49</v>
@@ -2729,7 +2731,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="5" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C20" s="11">
         <v>7.17</v>
@@ -2743,23 +2745,23 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="C25" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="5" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C26" s="12">
         <v>4.1399999999999997</v>
@@ -2773,7 +2775,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="5" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C27" s="12">
         <v>1.05</v>
@@ -2787,7 +2789,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="5" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C28" s="12">
         <v>0.33</v>
@@ -2801,7 +2803,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="5" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C29" s="12">
         <v>0.27</v>
@@ -2815,7 +2817,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="5" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C30" s="12">
         <v>0.67</v>
@@ -2829,23 +2831,23 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="C35" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C36" s="12">
         <v>0.45</v>
@@ -2859,7 +2861,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C37" s="12">
         <v>0.7</v>
@@ -2873,7 +2875,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C38" s="12">
         <v>0.47</v>
@@ -2887,7 +2889,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="B39" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C39" s="12">
         <v>1.52</v>
@@ -2901,23 +2903,23 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="C44" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="B45" s="5" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C45" s="12">
         <v>0.1</v>
@@ -2931,7 +2933,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="B46" s="5" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C46" s="12">
         <v>0.16</v>
@@ -2945,23 +2947,23 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="C51" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="B52" s="5" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C52" s="8">
         <v>3.5999999999999999E-3</v>
@@ -2975,7 +2977,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="B53" s="5" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C53" s="8">
         <v>3.5999999999999999E-3</v>
@@ -2989,7 +2991,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="B54" s="5" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C54" s="8">
         <v>5.7999999999999996E-3</v>
@@ -3003,7 +3005,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="B55" s="5" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C55" s="8">
         <v>8.8000000000000005E-3</v>
@@ -3017,7 +3019,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="B56" s="5" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C56" s="8">
         <v>5.8999999999999997E-2</v>
@@ -3031,7 +3033,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="B57" s="5" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C57" s="8">
         <v>0.32300000000000001</v>
@@ -3045,7 +3047,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="B58" s="5" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C58" s="8">
         <v>0.23</v>
@@ -3059,7 +3061,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="B59" s="5" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C59" s="8">
         <v>2.17</v>
@@ -3073,23 +3075,23 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="C64" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="B65" s="5" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C65" s="12">
         <v>0.05</v>
@@ -3103,7 +3105,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="B66" s="5" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C66" s="12">
         <v>0.42</v>
@@ -3117,7 +3119,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="B67" s="5" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="C67" s="12">
         <v>1</v>
@@ -3131,7 +3133,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="B68" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C68" s="12">
         <v>2.65</v>
@@ -3145,7 +3147,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="B69" s="5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C69" s="12">
         <v>1</v>
@@ -3159,7 +3161,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="B70" s="5" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="C70" s="12">
         <v>0.46</v>
@@ -3173,7 +3175,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="B71" s="5" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C71" s="12">
         <v>0.1</v>
@@ -3187,7 +3189,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="B72" s="5" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C72" s="12">
         <v>0.3</v>
@@ -3201,7 +3203,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="B73" s="5" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="C73" s="12">
         <v>0.27500000000000002</v>
@@ -3215,23 +3217,23 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="C78" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="B79" s="5" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="C79" s="11">
         <v>0.14599999999999999</v>
@@ -3245,7 +3247,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="B80" s="5" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="C80" s="11">
         <v>8.0000000000000002E-3</v>
@@ -3259,7 +3261,7 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="5" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="C81" s="11">
         <v>0.02</v>
@@ -3273,7 +3275,7 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="5" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="C82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -3287,7 +3289,7 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="5" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C83" s="11">
         <v>0.26500000000000001</v>
@@ -3301,7 +3303,7 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="5" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="C84" s="11">
         <v>0.54700000000000004</v>
@@ -3315,7 +3317,7 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="5" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="C85" s="11">
         <v>5.2999999999999999E-2</v>
@@ -3328,6 +3330,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3343,18 +3346,18 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView topLeftCell="H64" workbookViewId="0">
-      <selection activeCell="AD82" sqref="AD82"/>
+    <sheetView tabSelected="1" topLeftCell="S64" workbookViewId="0">
+      <selection activeCell="Y91" sqref="Y91:AA91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="4" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -3422,18 +3425,18 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="B3" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C3" s="22">
         <v>41.670326870927902</v>
@@ -3485,7 +3488,7 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y3" s="12">
         <v>0.2</v>
@@ -3499,7 +3502,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="4" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -3567,18 +3570,18 @@
         <v>2020</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="B9" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C9" s="23">
         <v>0.482758166845627</v>
@@ -3630,7 +3633,7 @@
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
       <c r="X9" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y9" s="12">
         <v>0.4</v>
@@ -3644,7 +3647,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="4" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -3712,18 +3715,18 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="B15" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C15" s="13">
         <v>12257299147.293604</v>
@@ -3775,7 +3778,7 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y15" s="12">
         <v>0.05</v>
@@ -3789,7 +3792,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="4" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -3857,18 +3860,18 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="B21" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -3892,7 +3895,7 @@
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -3900,7 +3903,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -3968,18 +3971,18 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="B27" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -4003,7 +4006,7 @@
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
       <c r="X27" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
@@ -4011,7 +4014,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -4079,18 +4082,18 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="B33" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -4114,7 +4117,7 @@
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
@@ -4122,7 +4125,7 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -4190,18 +4193,18 @@
         <v>2020</v>
       </c>
       <c r="Y38" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="B39" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -4225,7 +4228,7 @@
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
       <c r="X39" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -4301,18 +4304,18 @@
         <v>2020</v>
       </c>
       <c r="Y44" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:27">
       <c r="B45" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -4336,7 +4339,7 @@
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
       <c r="X45" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
@@ -4344,7 +4347,7 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -4412,18 +4415,18 @@
         <v>2020</v>
       </c>
       <c r="Y50" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA50" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:27">
       <c r="B51" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -4447,7 +4450,7 @@
       <c r="V51" s="10"/>
       <c r="W51" s="10"/>
       <c r="X51" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
@@ -4455,7 +4458,7 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -4523,18 +4526,18 @@
         <v>2020</v>
       </c>
       <c r="Y56" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z56" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:27">
       <c r="B57" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -4558,7 +4561,7 @@
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
       <c r="X57" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
@@ -4566,7 +4569,7 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -4634,18 +4637,18 @@
         <v>2020</v>
       </c>
       <c r="Y62" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z62" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA62" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:27">
       <c r="B63" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -4669,7 +4672,7 @@
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
       <c r="X63" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
@@ -4677,7 +4680,7 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -4745,18 +4748,18 @@
         <v>2020</v>
       </c>
       <c r="Y68" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z68" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA68" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:27">
       <c r="B69" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -4780,7 +4783,7 @@
       <c r="V69" s="10"/>
       <c r="W69" s="10"/>
       <c r="X69" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
@@ -4788,7 +4791,7 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="4" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -4856,18 +4859,18 @@
         <v>2020</v>
       </c>
       <c r="Y74" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z74" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:27">
       <c r="B75" s="6" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -4893,7 +4896,7 @@
       <c r="V75" s="11"/>
       <c r="W75" s="11"/>
       <c r="X75" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y75" s="24">
         <v>0.03</v>
@@ -4907,7 +4910,7 @@
     </row>
     <row r="76" spans="1:27">
       <c r="B76" s="6" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -4922,7 +4925,7 @@
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
       <c r="O76" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
@@ -4933,7 +4936,7 @@
       <c r="V76" s="11"/>
       <c r="W76" s="11"/>
       <c r="X76" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y76" s="24">
         <v>0.03</v>
@@ -4947,7 +4950,7 @@
     </row>
     <row r="77" spans="1:27">
       <c r="B77" s="6" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -4962,7 +4965,7 @@
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
       <c r="O77" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
@@ -4973,7 +4976,7 @@
       <c r="V77" s="11"/>
       <c r="W77" s="11"/>
       <c r="X77" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y77" s="24">
         <v>0.03</v>
@@ -4987,7 +4990,7 @@
     </row>
     <row r="78" spans="1:27">
       <c r="B78" s="6" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -5002,7 +5005,7 @@
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
       <c r="O78" s="11">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
@@ -5013,7 +5016,7 @@
       <c r="V78" s="11"/>
       <c r="W78" s="11"/>
       <c r="X78" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y78" s="24">
         <v>0.03</v>
@@ -5027,7 +5030,7 @@
     </row>
     <row r="79" spans="1:27">
       <c r="B79" s="6" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -5042,7 +5045,7 @@
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
       <c r="O79" s="11">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
@@ -5053,7 +5056,7 @@
       <c r="V79" s="11"/>
       <c r="W79" s="11"/>
       <c r="X79" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y79" s="24">
         <v>0.03</v>
@@ -5067,7 +5070,7 @@
     </row>
     <row r="80" spans="1:27">
       <c r="B80" s="6" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -5082,7 +5085,7 @@
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
       <c r="O80" s="11">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
@@ -5093,7 +5096,7 @@
       <c r="V80" s="11"/>
       <c r="W80" s="11"/>
       <c r="X80" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y80" s="24">
         <v>0.03</v>
@@ -5116,7 +5119,7 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" s="4" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="Y84" s="25"/>
     </row>
@@ -5185,18 +5188,18 @@
         <v>2020</v>
       </c>
       <c r="Y85" s="26" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="Z85" s="26" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA85" s="26" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:27">
       <c r="B86" s="6" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -5222,7 +5225,7 @@
       <c r="V86" s="11"/>
       <c r="W86" s="11"/>
       <c r="X86" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y86" s="24">
         <v>0.03</v>
@@ -5236,7 +5239,7 @@
     </row>
     <row r="87" spans="1:27">
       <c r="B87" s="6" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -5251,7 +5254,7 @@
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
       <c r="O87" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
@@ -5262,7 +5265,7 @@
       <c r="V87" s="11"/>
       <c r="W87" s="11"/>
       <c r="X87" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y87" s="24">
         <v>0.03</v>
@@ -5276,7 +5279,7 @@
     </row>
     <row r="88" spans="1:27">
       <c r="B88" s="6" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -5291,7 +5294,7 @@
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
       <c r="O88" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P88" s="11"/>
       <c r="Q88" s="11"/>
@@ -5302,7 +5305,7 @@
       <c r="V88" s="11"/>
       <c r="W88" s="11"/>
       <c r="X88" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y88" s="24">
         <v>0.03</v>
@@ -5316,7 +5319,7 @@
     </row>
     <row r="89" spans="1:27">
       <c r="B89" s="6" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -5331,7 +5334,7 @@
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
       <c r="O89" s="11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
@@ -5342,7 +5345,7 @@
       <c r="V89" s="11"/>
       <c r="W89" s="11"/>
       <c r="X89" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y89" s="24">
         <v>0.03</v>
@@ -5356,7 +5359,7 @@
     </row>
     <row r="90" spans="1:27">
       <c r="B90" s="6" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -5371,7 +5374,7 @@
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
       <c r="O90" s="11">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
@@ -5382,7 +5385,7 @@
       <c r="V90" s="11"/>
       <c r="W90" s="11"/>
       <c r="X90" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y90" s="24">
         <v>0.03</v>
@@ -5396,7 +5399,7 @@
     </row>
     <row r="91" spans="1:27">
       <c r="B91" s="6" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -5411,7 +5414,7 @@
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
@@ -5422,7 +5425,7 @@
       <c r="V91" s="11"/>
       <c r="W91" s="11"/>
       <c r="X91" s="9" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="Y91" s="24">
         <v>0.03</v>
@@ -5435,8 +5438,10 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5451,7 +5456,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
@@ -5465,36 +5470,36 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="C2" s="5" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5502,31 +5507,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5534,31 +5539,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5566,31 +5571,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5598,31 +5603,31 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5630,44 +5635,44 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5675,10 +5680,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5686,10 +5691,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5697,10 +5702,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5708,10 +5713,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -5719,10 +5724,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -5730,10 +5735,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -5741,10 +5746,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -5752,10 +5757,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -5763,10 +5768,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5785,8 +5790,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
@@ -5796,7 +5801,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="4" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -5864,7 +5869,7 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -5873,7 +5878,7 @@
         <v>SBCC</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -5899,7 +5904,7 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z3" s="8"/>
     </row>
@@ -5909,7 +5914,7 @@
         <v>SBCC</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -5935,7 +5940,7 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z4" s="10"/>
     </row>
@@ -5945,7 +5950,7 @@
         <v>FSW programs</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -5971,7 +5976,7 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z6" s="8"/>
     </row>
@@ -5981,7 +5986,7 @@
         <v>FSW programs</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6007,7 +6012,7 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z7" s="10"/>
     </row>
@@ -6017,7 +6022,7 @@
         <v>MSM programs</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -6032,7 +6037,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="28">
+      <c r="Q9" s="27">
         <v>400000</v>
       </c>
       <c r="R9" s="8"/>
@@ -6043,7 +6048,7 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z9" s="8"/>
     </row>
@@ -6053,7 +6058,7 @@
         <v>MSM programs</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6079,7 +6084,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z10" s="10"/>
     </row>
@@ -6089,7 +6094,7 @@
         <v>HTC</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -6115,7 +6120,7 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z12" s="8"/>
     </row>
@@ -6125,7 +6130,7 @@
         <v>HTC</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6151,7 +6156,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z13" s="10"/>
     </row>
@@ -6161,7 +6166,7 @@
         <v>ART</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -6187,7 +6192,7 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z15" s="8"/>
     </row>
@@ -6197,7 +6202,7 @@
         <v>ART</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -6223,7 +6228,7 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z16" s="10"/>
     </row>
@@ -6233,7 +6238,7 @@
         <v>PMTCT</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -6259,7 +6264,7 @@
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z18" s="8"/>
     </row>
@@ -6269,7 +6274,7 @@
         <v>PMTCT</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6295,7 +6300,7 @@
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z19" s="10"/>
     </row>
@@ -6305,7 +6310,7 @@
         <v>MGMT</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -6329,7 +6334,7 @@
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z21" s="8"/>
     </row>
@@ -6339,7 +6344,7 @@
         <v>MGMT</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6365,7 +6370,7 @@
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z22" s="10"/>
     </row>
@@ -6375,7 +6380,7 @@
         <v>ENV</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -6399,7 +6404,7 @@
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z24" s="8"/>
     </row>
@@ -6409,7 +6414,7 @@
         <v>ENV</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -6435,7 +6440,7 @@
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z25" s="10"/>
     </row>
@@ -6445,7 +6450,7 @@
         <v>Other</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -6469,7 +6474,7 @@
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z27" s="8"/>
     </row>
@@ -6479,7 +6484,7 @@
         <v>Other</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -6505,7 +6510,7 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z28" s="10"/>
     </row>
@@ -6526,15 +6531,15 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="4" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -6602,7 +6607,7 @@
         <v>2020</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -6611,7 +6616,7 @@
         <v>FSW</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -6635,7 +6640,7 @@
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z3" s="10"/>
     </row>
@@ -6645,7 +6650,7 @@
         <v>FSW</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D4" s="13">
         <v>139172.68199999997</v>
@@ -6691,7 +6696,7 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z4" s="10"/>
     </row>
@@ -6701,7 +6706,7 @@
         <v>FSW</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -6725,7 +6730,7 @@
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z5" s="10"/>
     </row>
@@ -6735,7 +6740,7 @@
         <v>Clients</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6759,7 +6764,7 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z7" s="10"/>
     </row>
@@ -6769,7 +6774,7 @@
         <v>Clients</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D8" s="13">
         <v>979330.74050000007</v>
@@ -6815,7 +6820,7 @@
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z8" s="10"/>
     </row>
@@ -6825,7 +6830,7 @@
         <v>Clients</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -6849,7 +6854,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z9" s="10"/>
     </row>
@@ -6859,7 +6864,7 @@
         <v>MSM</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -6883,7 +6888,7 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z11" s="10"/>
     </row>
@@ -6893,7 +6898,7 @@
         <v>MSM</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D12" s="13">
         <v>96306.278800000015</v>
@@ -6939,7 +6944,7 @@
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z12" s="10"/>
     </row>
@@ -6949,7 +6954,7 @@
         <v>MSM</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6973,7 +6978,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z13" s="10"/>
     </row>
@@ -6983,7 +6988,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -7007,7 +7012,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z15" s="10"/>
     </row>
@@ -7017,7 +7022,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D16" s="10">
         <v>5431543.9807000002</v>
@@ -7063,7 +7068,7 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z16" s="10"/>
     </row>
@@ -7073,7 +7078,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -7097,7 +7102,7 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z17" s="10"/>
     </row>
@@ -7107,7 +7112,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -7131,7 +7136,7 @@
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z19" s="10"/>
     </row>
@@ -7141,7 +7146,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D20" s="10">
         <v>6333671.4559585694</v>
@@ -7187,7 +7192,7 @@
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z20" s="10"/>
     </row>
@@ -7197,7 +7202,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -7221,13 +7226,13 @@
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z21" s="10"/>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="4" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -7295,7 +7300,7 @@
         <v>2020</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -7304,7 +7309,7 @@
         <v>FSW</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -7328,7 +7333,7 @@
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z28" s="8"/>
     </row>
@@ -7338,7 +7343,7 @@
         <v>FSW</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -7364,7 +7369,7 @@
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z29" s="8"/>
     </row>
@@ -7374,7 +7379,7 @@
         <v>FSW</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -7398,7 +7403,7 @@
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z30" s="8"/>
     </row>
@@ -7408,7 +7413,7 @@
         <v>Clients</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -7432,7 +7437,7 @@
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z32" s="8"/>
     </row>
@@ -7442,7 +7447,7 @@
         <v>Clients</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -7468,7 +7473,7 @@
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z33" s="8"/>
     </row>
@@ -7478,7 +7483,7 @@
         <v>Clients</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -7502,7 +7507,7 @@
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z34" s="8"/>
     </row>
@@ -7512,7 +7517,7 @@
         <v>MSM</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -7536,7 +7541,7 @@
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z36" s="8"/>
     </row>
@@ -7546,7 +7551,7 @@
         <v>MSM</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -7572,7 +7577,7 @@
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z37" s="8"/>
     </row>
@@ -7582,7 +7587,7 @@
         <v>MSM</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -7606,7 +7611,7 @@
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z38" s="8"/>
     </row>
@@ -7616,7 +7621,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -7640,7 +7645,7 @@
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z40" s="8"/>
     </row>
@@ -7650,7 +7655,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -7680,7 +7685,7 @@
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z41" s="8"/>
     </row>
@@ -7690,7 +7695,7 @@
         <v>Males 15-49</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -7714,7 +7719,7 @@
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z42" s="8"/>
     </row>
@@ -7724,7 +7729,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -7748,7 +7753,7 @@
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z44" s="8"/>
     </row>
@@ -7758,7 +7763,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -7788,7 +7793,7 @@
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z45" s="8"/>
     </row>
@@ -7798,7 +7803,7 @@
         <v>Females 15-49</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -7822,7 +7827,7 @@
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Z46" s="8"/>
     </row>
@@ -7843,15 +7848,15 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:P27"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -7919,12 +7924,12 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="B3" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -7962,13 +7967,13 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y3" s="11"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="4" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -8036,12 +8041,12 @@
         <v>2020</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="B9" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -8067,13 +8072,13 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y9" s="11"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="4" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -8141,12 +8146,12 @@
         <v>2020</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="B15" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C15" s="16">
         <v>3121.27</v>
@@ -8198,13 +8203,13 @@
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y15" s="11"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="4" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -8272,12 +8277,12 @@
         <v>2020</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="B21" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C21" s="11">
         <v>0.11</v>
@@ -8329,13 +8334,13 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y21" s="11"/>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="4" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -8403,12 +8408,12 @@
         <v>2020</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="B27" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C27" s="16">
         <v>714</v>
@@ -8460,13 +8465,13 @@
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y27" s="11"/>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="4" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -8534,12 +8539,12 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:25">
       <c r="B33" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -8563,7 +8568,7 @@
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y33" s="11"/>
     </row>
@@ -8584,7 +8589,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="F15" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="O36" sqref="O36:O37"/>
     </sheetView>
   </sheetViews>
@@ -8592,7 +8597,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -8660,7 +8665,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -8690,7 +8695,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y3" s="8">
         <v>0.01</v>
@@ -8723,7 +8728,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y4" s="8">
         <v>0.01</v>
@@ -8756,7 +8761,7 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y5" s="8">
         <v>0.01</v>
@@ -8789,7 +8794,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y6" s="8">
         <v>0.01</v>
@@ -8822,7 +8827,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y7" s="8">
         <v>0.01</v>
@@ -8830,7 +8835,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -8898,7 +8903,7 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -8930,7 +8935,7 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y13" s="8"/>
     </row>
@@ -8961,7 +8966,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y14" s="8">
         <v>0.02</v>
@@ -8996,7 +9001,7 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y15" s="8"/>
     </row>
@@ -9027,7 +9032,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y16" s="8">
         <v>0.01</v>
@@ -9060,7 +9065,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y17" s="8">
         <v>0.01</v>
@@ -9068,7 +9073,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="4" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -9136,7 +9141,7 @@
         <v>2020</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -9168,7 +9173,7 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y23" s="8"/>
     </row>
@@ -9199,7 +9204,7 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y24" s="8">
         <v>0.05</v>
@@ -9234,7 +9239,7 @@
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y25" s="8"/>
     </row>
@@ -9265,7 +9270,7 @@
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y26" s="8">
         <v>0.01</v>
@@ -9298,7 +9303,7 @@
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
       <c r="X27" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y27" s="8">
         <v>0.02</v>
@@ -9306,7 +9311,7 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="4" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -9374,7 +9379,7 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:25">
@@ -9407,7 +9412,7 @@
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
       <c r="X33" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y33" s="8"/>
     </row>
@@ -9441,7 +9446,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
       <c r="X34" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y34" s="8"/>
     </row>
@@ -9475,7 +9480,7 @@
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
       <c r="X35" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y35" s="8"/>
     </row>
@@ -9509,7 +9514,7 @@
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
       <c r="X36" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y36" s="8"/>
     </row>
@@ -9543,7 +9548,7 @@
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
       <c r="X37" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y37" s="8"/>
     </row>
@@ -9564,7 +9569,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -9572,7 +9577,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -9640,7 +9645,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -9674,7 +9679,7 @@
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
       <c r="X3" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y3" s="12"/>
     </row>
@@ -9707,7 +9712,7 @@
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y4" s="12"/>
     </row>
@@ -9740,7 +9745,7 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y5" s="12"/>
     </row>
@@ -9773,7 +9778,7 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y6" s="12"/>
     </row>
@@ -9806,13 +9811,13 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y7" s="12"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -9880,12 +9885,12 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="B13" s="6" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -9911,13 +9916,13 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y13" s="7"/>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="4" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -9985,12 +9990,12 @@
         <v>2020</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="B19" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -10026,13 +10031,13 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y19" s="7"/>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -10100,12 +10105,12 @@
         <v>2020</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="B25" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -10141,13 +10146,13 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y25" s="7"/>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="4" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -10215,12 +10220,12 @@
         <v>2020</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="B31" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -10266,13 +10271,13 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y31" s="7"/>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="4" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -10340,7 +10345,7 @@
         <v>2020</v>
       </c>
       <c r="Y36" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -10370,7 +10375,7 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y37" s="12">
         <v>0</v>
@@ -10403,7 +10408,7 @@
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
       <c r="X38" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y38" s="12">
         <v>0</v>
@@ -10436,7 +10441,7 @@
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
       <c r="X39" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y39" s="12">
         <v>0</v>
@@ -10469,7 +10474,7 @@
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y40" s="12">
         <v>0</v>
@@ -10502,7 +10507,7 @@
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
       <c r="X41" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y41" s="12">
         <v>0</v>
@@ -10510,7 +10515,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -10578,12 +10583,12 @@
         <v>2020</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="B47" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10611,13 +10616,13 @@
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
       <c r="X47" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y47" s="7"/>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -10685,7 +10690,7 @@
         <v>2020</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -10743,7 +10748,7 @@
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
       <c r="X53" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y53" s="11"/>
     </row>
@@ -10802,13 +10807,13 @@
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
       <c r="X54" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y54" s="11"/>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -10876,12 +10881,12 @@
         <v>2020</v>
       </c>
       <c r="Y59" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="B60" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -10907,7 +10912,7 @@
       <c r="V60" s="12"/>
       <c r="W60" s="12"/>
       <c r="X60" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y60" s="12"/>
     </row>
@@ -10928,7 +10933,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="M63" sqref="M63:M65"/>
     </sheetView>
   </sheetViews>
@@ -10936,7 +10941,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -11004,7 +11009,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -11036,7 +11041,7 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y3" s="7"/>
     </row>
@@ -11069,7 +11074,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y4" s="7"/>
     </row>
@@ -11102,7 +11107,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y5" s="7"/>
     </row>
@@ -11135,7 +11140,7 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y6" s="7"/>
     </row>
@@ -11168,13 +11173,13 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y7" s="7"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -11242,7 +11247,7 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -11274,7 +11279,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y13" s="7"/>
     </row>
@@ -11307,7 +11312,7 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y14" s="7"/>
     </row>
@@ -11340,7 +11345,7 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y15" s="7"/>
     </row>
@@ -11373,7 +11378,7 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y16" s="7"/>
     </row>
@@ -11406,13 +11411,13 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y17" s="7"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="4" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -11480,7 +11485,7 @@
         <v>2020</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -11512,7 +11517,7 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y23" s="7"/>
     </row>
@@ -11545,7 +11550,7 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y24" s="7"/>
     </row>
@@ -11576,7 +11581,7 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y25" s="7"/>
     </row>
@@ -11607,7 +11612,7 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y26" s="7"/>
     </row>
@@ -11638,13 +11643,13 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y27" s="7"/>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="4" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -11712,7 +11717,7 @@
         <v>2020</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -11744,7 +11749,7 @@
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="X33" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y33" s="12"/>
     </row>
@@ -11777,7 +11782,7 @@
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y34" s="12"/>
     </row>
@@ -11810,7 +11815,7 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y35" s="12"/>
     </row>
@@ -11843,7 +11848,7 @@
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="X36" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y36" s="12"/>
     </row>
@@ -11876,13 +11881,13 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y37" s="12"/>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="4" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -11950,7 +11955,7 @@
         <v>2020</v>
       </c>
       <c r="Y42" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -11982,7 +11987,7 @@
       <c r="V43" s="12"/>
       <c r="W43" s="12"/>
       <c r="X43" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y43" s="12"/>
     </row>
@@ -12015,7 +12020,7 @@
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
       <c r="X44" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y44" s="12"/>
     </row>
@@ -12048,7 +12053,7 @@
       <c r="V45" s="12"/>
       <c r="W45" s="12"/>
       <c r="X45" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y45" s="12"/>
     </row>
@@ -12081,7 +12086,7 @@
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
       <c r="X46" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y46" s="12"/>
     </row>
@@ -12114,13 +12119,13 @@
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
       <c r="X47" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y47" s="12"/>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="4" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -12188,7 +12193,7 @@
         <v>2020</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -12220,7 +12225,7 @@
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
       <c r="X53" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y53" s="12"/>
     </row>
@@ -12253,7 +12258,7 @@
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
       <c r="X54" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y54" s="12"/>
     </row>
@@ -12284,7 +12289,7 @@
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
       <c r="X55" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y55" s="12">
         <v>0</v>
@@ -12317,7 +12322,7 @@
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
       <c r="X56" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y56" s="12">
         <v>0</v>
@@ -12350,7 +12355,7 @@
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
       <c r="X57" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y57" s="12">
         <v>0</v>
@@ -12358,7 +12363,7 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="4" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -12426,7 +12431,7 @@
         <v>2020</v>
       </c>
       <c r="Y62" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -12458,7 +12463,7 @@
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
       <c r="X63" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y63" s="12"/>
     </row>
@@ -12491,7 +12496,7 @@
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
       <c r="X64" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y64" s="12"/>
     </row>
@@ -12524,7 +12529,7 @@
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
       <c r="X65" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y65" s="12"/>
     </row>
@@ -12545,7 +12550,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="M4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
@@ -12553,7 +12558,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -12621,7 +12626,7 @@
         <v>2020</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -12653,7 +12658,7 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y3" s="7"/>
     </row>
@@ -12684,7 +12689,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y4" s="7">
         <v>0</v>
@@ -12719,7 +12724,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y5" s="7"/>
     </row>
@@ -12750,7 +12755,7 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y6" s="7">
         <v>0</v>
@@ -12783,7 +12788,7 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y7" s="7">
         <v>0</v>
@@ -12791,7 +12796,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -12859,7 +12864,7 @@
         <v>2020</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -12889,7 +12894,7 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y13" s="12">
         <v>0.2</v>
@@ -12922,7 +12927,7 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y14" s="12">
         <v>0</v>
@@ -12955,7 +12960,7 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y15" s="12">
         <v>0.2</v>
@@ -12988,7 +12993,7 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y16" s="12">
         <v>0</v>
@@ -13021,7 +13026,7 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y17" s="12">
         <v>0</v>
@@ -13029,7 +13034,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -13097,12 +13102,12 @@
         <v>2020</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="B23" s="6" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -13126,7 +13131,7 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="9" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="Y23" s="7">
         <v>0</v>
